--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41975E76-BB6E-4314-9860-7A592DE95FDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D008D88E-ABF0-424A-9BFA-AADAA03BC804}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
   <si>
     <t>sheet名</t>
   </si>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>moneyUp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>lucky</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -140,26 +136,6 @@
     <t>属性2.值</t>
   </si>
   <si>
-    <t>atk_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shieldRg_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dmgDec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,10 +204,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>chip.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -258,6 +230,73 @@
   <si>
     <t>行ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,itemId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tarid,rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shieldRg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2.类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_id:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gready</t>
   </si>
 </sst>
 </file>
@@ -758,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -800,52 +839,91 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -856,102 +934,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -959,16 +1057,19 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -976,16 +1077,19 @@
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -993,16 +1097,19 @@
         <v>10003</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1010,16 +1117,19 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1027,16 +1137,19 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1050,10 +1163,13 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1067,10 +1183,13 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1084,10 +1203,13 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1101,10 +1223,13 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1118,10 +1243,13 @@
         <v>0</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1129,16 +1257,19 @@
         <v>10011</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1146,16 +1277,19 @@
         <v>10012</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1163,16 +1297,19 @@
         <v>10013</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1180,16 +1317,19 @@
         <v>10101</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1197,16 +1337,19 @@
         <v>10102</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1214,16 +1357,19 @@
         <v>10103</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1231,16 +1377,19 @@
         <v>10104</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1248,16 +1397,19 @@
         <v>10105</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1271,10 +1423,13 @@
         <v>0</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1288,10 +1443,13 @@
         <v>0</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1305,10 +1463,13 @@
         <v>0</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1322,10 +1483,13 @@
         <v>0</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1339,10 +1503,13 @@
         <v>0</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1350,16 +1517,19 @@
         <v>10111</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1367,16 +1537,19 @@
         <v>10112</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1384,16 +1557,19 @@
         <v>10113</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1401,16 +1577,19 @@
         <v>10201</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1418,16 +1597,19 @@
         <v>10202</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1435,16 +1617,19 @@
         <v>10203</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1452,16 +1637,19 @@
         <v>10204</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1469,16 +1657,19 @@
         <v>10205</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1492,10 +1683,13 @@
         <v>0</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1509,10 +1703,13 @@
         <v>0</v>
       </c>
       <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1526,10 +1723,13 @@
         <v>0</v>
       </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1543,10 +1743,13 @@
         <v>0</v>
       </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1560,10 +1763,13 @@
         <v>0</v>
       </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1571,16 +1777,19 @@
         <v>10211</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1588,16 +1797,19 @@
         <v>10212</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1605,16 +1817,19 @@
         <v>10213</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1622,16 +1837,19 @@
         <v>10301</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1639,16 +1857,19 @@
         <v>10302</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1656,16 +1877,19 @@
         <v>10303</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1673,16 +1897,19 @@
         <v>10304</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1690,16 +1917,19 @@
         <v>10305</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1713,10 +1943,13 @@
         <v>0</v>
       </c>
       <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1730,10 +1963,13 @@
         <v>0</v>
       </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1747,10 +1983,13 @@
         <v>0</v>
       </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1764,10 +2003,13 @@
         <v>0</v>
       </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1781,10 +2023,13 @@
         <v>0</v>
       </c>
       <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1792,16 +2037,19 @@
         <v>10311</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1809,16 +2057,19 @@
         <v>10312</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1826,16 +2077,19 @@
         <v>10313</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1843,16 +2097,19 @@
         <v>10401</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1860,16 +2117,19 @@
         <v>10402</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1877,16 +2137,19 @@
         <v>10403</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -1894,16 +2157,19 @@
         <v>10404</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -1911,16 +2177,19 @@
         <v>10405</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1934,10 +2203,13 @@
         <v>0</v>
       </c>
       <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -1951,10 +2223,13 @@
         <v>0</v>
       </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -1968,10 +2243,13 @@
         <v>0</v>
       </c>
       <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
@@ -1985,10 +2263,13 @@
         <v>0</v>
       </c>
       <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -2002,10 +2283,13 @@
         <v>0</v>
       </c>
       <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -2013,16 +2297,19 @@
         <v>10411</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -2030,16 +2317,19 @@
         <v>10412</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -2047,16 +2337,19 @@
         <v>10413</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -2064,16 +2357,19 @@
         <v>10501</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>750</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -2081,16 +2377,19 @@
         <v>10502</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <v>750</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2098,16 +2397,19 @@
         <v>10503</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>750</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
@@ -2115,16 +2417,19 @@
         <v>10504</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <v>750</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2132,16 +2437,19 @@
         <v>10505</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>750</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2155,10 +2463,13 @@
         <v>0</v>
       </c>
       <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <v>750</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2172,10 +2483,13 @@
         <v>0</v>
       </c>
       <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <v>750</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2189,10 +2503,13 @@
         <v>0</v>
       </c>
       <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>750</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2206,10 +2523,13 @@
         <v>0</v>
       </c>
       <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2223,10 +2543,13 @@
         <v>0</v>
       </c>
       <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
         <v>750</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2234,16 +2557,19 @@
         <v>10511</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2251,16 +2577,19 @@
         <v>10512</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>750</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2268,16 +2597,19 @@
         <v>10513</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>750</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
@@ -2285,16 +2617,19 @@
         <v>10601</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>1200</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2302,16 +2637,19 @@
         <v>10602</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
@@ -2319,16 +2657,19 @@
         <v>10603</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
         <v>1200</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
@@ -2336,16 +2677,19 @@
         <v>10604</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
         <v>1200</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
@@ -2353,16 +2697,19 @@
         <v>10605</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
         <v>1200</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
@@ -2376,10 +2723,13 @@
         <v>0</v>
       </c>
       <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>1200</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -2393,10 +2743,13 @@
         <v>0</v>
       </c>
       <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
         <v>1200</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
@@ -2410,10 +2763,13 @@
         <v>0</v>
       </c>
       <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
         <v>1200</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
@@ -2427,10 +2783,13 @@
         <v>0</v>
       </c>
       <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>1200</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
@@ -2444,10 +2803,13 @@
         <v>0</v>
       </c>
       <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
@@ -2455,16 +2817,19 @@
         <v>10611</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
         <v>1200</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -2472,16 +2837,19 @@
         <v>10612</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
         <v>1200</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>91</v>
       </c>
@@ -2489,12 +2857,15 @@
         <v>10613</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
         <v>1200</v>
       </c>
     </row>
@@ -2509,9 +2880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2523,80 +2892,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D008D88E-ABF0-424A-9BFA-AADAA03BC804}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B8214-EFD5-4E87-B654-2600EA353D80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attr[1].type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -280,23 +276,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>属性1类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2.类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attr_id:e&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gready</t>
+  </si>
+  <si>
+    <t>attr[1].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1槽位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2.槽位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -937,7 +937,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -993,7 +993,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1005,7 +1005,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -1028,7 +1028,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>25</v>
@@ -1040,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>28</v>
@@ -1057,7 +1057,7 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>10003</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>10012</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>10101</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>10102</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>10103</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>10104</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>10105</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>10112</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>10201</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1597,7 +1597,7 @@
         <v>10202</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>10203</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>10204</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>10205</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>10212</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>10301</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>10302</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>10303</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>10304</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         <v>10305</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2057,7 +2057,7 @@
         <v>10312</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>10401</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>10402</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2137,7 +2137,7 @@
         <v>10403</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>10404</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         <v>10405</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2317,7 +2317,7 @@
         <v>10412</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>10501</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>10502</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2397,7 +2397,7 @@
         <v>10503</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2417,7 +2417,7 @@
         <v>10504</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>10505</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>10512</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>10601</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>10602</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>10603</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2677,7 +2677,7 @@
         <v>10604</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2697,7 +2697,7 @@
         <v>10605</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2837,7 +2837,7 @@
         <v>10612</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D93">
         <v>0</v>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B8214-EFD5-4E87-B654-2600EA353D80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77183884-C39F-4DAB-9004-9F8C95D70A24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="晶片" sheetId="43" r:id="rId2"/>
     <sheet name="晶片合成" sheetId="44" r:id="rId3"/>
+    <sheet name="晶片套装" sheetId="45" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="133">
   <si>
     <t>sheet名</t>
   </si>
@@ -296,6 +297,229 @@
   </si>
   <si>
     <t>属性2.槽位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumLvRequire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[4].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[4].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[4].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[4].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[5].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[5].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[5].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[5].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_id:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总等级需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性目标1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值权重1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID2</t>
+  </si>
+  <si>
+    <t>属性目标2</t>
+  </si>
+  <si>
+    <t>属性值权重2</t>
+  </si>
+  <si>
+    <t>属性值2</t>
+  </si>
+  <si>
+    <t>属性ID3</t>
+  </si>
+  <si>
+    <t>属性目标3</t>
+  </si>
+  <si>
+    <t>属性值权重3</t>
+  </si>
+  <si>
+    <t>属性值3</t>
+  </si>
+  <si>
+    <t>属性ID4</t>
+  </si>
+  <si>
+    <t>属性目标4</t>
+  </si>
+  <si>
+    <t>属性值权重4</t>
+  </si>
+  <si>
+    <t>属性值4</t>
+  </si>
+  <si>
+    <t>属性ID5</t>
+  </si>
+  <si>
+    <t>属性目标5</t>
+  </si>
+  <si>
+    <t>属性值权重5</t>
+  </si>
+  <si>
+    <t>属性值5</t>
+  </si>
+  <si>
+    <t>【晶片套装-1】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【晶片套装-2】</t>
+  </si>
+  <si>
+    <t>【晶片套装-3】</t>
+  </si>
+  <si>
+    <t>【晶片套装-4】</t>
+  </si>
+  <si>
+    <t>【晶片套装-5】</t>
+  </si>
+  <si>
+    <t>【晶片套装-6】</t>
+  </si>
+  <si>
+    <t>【晶片套装-7】</t>
+  </si>
+  <si>
+    <t>【晶片套装-8】</t>
+  </si>
+  <si>
+    <t>【晶片套装-9】</t>
+  </si>
+  <si>
+    <t>【晶片套装-10】</t>
+  </si>
+  <si>
+    <t>晶片套装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chipSuit.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片套装的配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +714,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -505,6 +729,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -797,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,11 +1064,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
@@ -858,14 +1084,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>56</v>
       </c>
@@ -879,11 +1104,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
@@ -900,14 +1124,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
@@ -921,9 +1144,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -936,9 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1049,1825 +1289,2189 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>10001</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>10002</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>10003</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>10004</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>10005</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>10006</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>10007</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>10008</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>10009</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>10010</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>10011</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>10012</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>10013</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>10101</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>10102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>10103</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>10104</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>10105</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>10106</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>10107</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>10108</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>10109</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>10110</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>10111</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>10112</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>10113</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>10201</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>10202</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>10203</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>10204</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>10205</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>10206</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>10207</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>10208</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>10209</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>10210</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>10211</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>10212</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>10213</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
         <v>225</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>10301</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>10302</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>10303</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>10304</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>10305</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>10306</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>10307</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>10308</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>10309</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>49</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>10310</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>10311</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>10312</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>10313</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>53</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>10401</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>10402</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>55</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>10403</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>10404</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>57</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>10405</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>58</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>10406</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>59</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>10407</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>10408</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>61</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>10409</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>62</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>10410</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>10411</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>10412</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>65</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>10413</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>66</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>10501</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>67</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>10502</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>68</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>10503</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>69</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>10504</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>70</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>10505</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>71</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>10506</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>72</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>10507</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>73</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>10508</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>74</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>10509</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>75</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>10510</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
         <v>76</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>10511</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>77</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>10512</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
         <v>78</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>10513</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
         <v>79</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>10601</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
         <v>80</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>10602</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>81</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>10603</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
         <v>82</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>10604</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
         <v>83</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>10605</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
         <v>84</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>10606</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
         <v>85</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>10607</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
         <v>86</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>10608</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
         <v>87</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>10609</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
         <v>88</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>10610</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
         <v>89</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>10611</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
         <v>90</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>10612</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
         <v>91</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>10613</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
         <v>1200</v>
       </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5001,4 +5605,988 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="24" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>108010001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>200</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>108010002</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>500</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>250</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <v>5</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>108010003</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="4">
+        <v>7</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>10</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>108010004</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1500</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>750</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>15</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>108010005</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="4">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <v>20</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>108010006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="4">
+        <v>7</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2500</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1250</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>25</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>108010007</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="4">
+        <v>7</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1500</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <v>30</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>108010008</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="4">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>40</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="4">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3500</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1750</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
+        <v>40</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>108010009</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="4">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>50</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="4">
+        <v>7</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4000</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>50</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>108010010</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="4">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>65</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>4500</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2250</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>65</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1083</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C0EF7A-4513-45BA-B093-07D118CA7395}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AFA4B-974B-456A-878A-B777E1AC953E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="164">
   <si>
     <t>sheet名</t>
   </si>
@@ -518,10 +518,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>isVip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>unlockAchieve</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -539,10 +535,6 @@
   </si>
   <si>
     <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -661,6 +653,10 @@
   </si>
   <si>
     <t>晶片槽的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipLevel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1164,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1319,20 +1315,20 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -1392,16 +1388,16 @@
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1453,7 +1449,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
@@ -1468,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>66</v>
@@ -7150,11 +7146,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF49F6E-6119-4F09-8B15-8FED2090906E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
@@ -7169,19 +7167,19 @@
         <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7189,10 +7187,10 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>90</v>
@@ -7201,7 +7199,7 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -7209,25 +7207,25 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -7237,14 +7235,12 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>11001</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -7260,14 +7256,12 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3">
         <v>11002</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
@@ -7283,14 +7277,12 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3">
         <v>11003</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -7306,14 +7298,12 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>11004</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
@@ -7329,14 +7319,12 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3">
         <v>11005</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -7352,14 +7340,12 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3">
         <v>11006</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -7375,14 +7361,12 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3">
         <v>11007</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -7398,14 +7382,12 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3">
         <v>11008</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -7421,14 +7403,14 @@
       <c r="B12" s="3">
         <v>1.5</v>
       </c>
-      <c r="C12" s="3" t="b">
-        <v>1</v>
+      <c r="C12" s="3">
+        <v>3</v>
       </c>
       <c r="D12" s="3">
         <v>11009</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -7444,14 +7426,14 @@
       <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="b">
-        <v>1</v>
+      <c r="C13" s="3">
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <v>11010</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
@@ -7463,5 +7445,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AFA4B-974B-456A-878A-B777E1AC953E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B33593B-B7F3-4983-93CA-A6891CF4A07E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7147,7 +7147,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B33593B-B7F3-4983-93CA-A6891CF4A07E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14434AB9-EC34-4976-B1AE-7607DF3BF891}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -136,14 +136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cost[1].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[1].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>目标ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,14 +153,6 @@
   </si>
   <si>
     <t>cost[2].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[2].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[2].val.v</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -657,6 +641,22 @@
   </si>
   <si>
     <t>vipLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[2].valv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1203,13 +1203,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -1246,19 +1246,19 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1269,19 +1269,19 @@
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1292,19 +1292,19 @@
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -1315,20 +1315,20 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -1364,54 +1364,54 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1423,10 +1423,10 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -1449,10 +1449,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
@@ -1464,10 +1464,10 @@
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -1484,7 +1484,7 @@
         <v>10001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3">
         <v>7</v>
@@ -1512,7 +1512,7 @@
         <v>10002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3">
         <v>7</v>
@@ -1540,7 +1540,7 @@
         <v>10003</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3">
         <v>7</v>
@@ -1568,7 +1568,7 @@
         <v>10004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3">
         <v>7</v>
@@ -1596,7 +1596,7 @@
         <v>10005</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
@@ -1792,7 +1792,7 @@
         <v>10012</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
@@ -1848,7 +1848,7 @@
         <v>10101</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3">
         <v>7</v>
@@ -1876,7 +1876,7 @@
         <v>10102</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3">
         <v>7</v>
@@ -1904,7 +1904,7 @@
         <v>10103</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3">
         <v>7</v>
@@ -1932,7 +1932,7 @@
         <v>10104</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3">
         <v>7</v>
@@ -1960,7 +1960,7 @@
         <v>10105</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3">
         <v>7</v>
@@ -2156,7 +2156,7 @@
         <v>10112</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3">
         <v>7</v>
@@ -2212,7 +2212,7 @@
         <v>10201</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
@@ -2240,7 +2240,7 @@
         <v>10202</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3">
         <v>7</v>
@@ -2268,7 +2268,7 @@
         <v>10203</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D32" s="3">
         <v>7</v>
@@ -2296,7 +2296,7 @@
         <v>10204</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3">
         <v>7</v>
@@ -2324,7 +2324,7 @@
         <v>10205</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3">
         <v>7</v>
@@ -2520,7 +2520,7 @@
         <v>10212</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D41" s="3">
         <v>7</v>
@@ -2576,7 +2576,7 @@
         <v>10301</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D43" s="3">
         <v>7</v>
@@ -2604,7 +2604,7 @@
         <v>10302</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D44" s="3">
         <v>7</v>
@@ -2632,7 +2632,7 @@
         <v>10303</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3">
         <v>7</v>
@@ -2660,7 +2660,7 @@
         <v>10304</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D46" s="3">
         <v>7</v>
@@ -2688,7 +2688,7 @@
         <v>10305</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D47" s="3">
         <v>7</v>
@@ -2884,7 +2884,7 @@
         <v>10312</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D54" s="3">
         <v>7</v>
@@ -2940,7 +2940,7 @@
         <v>10401</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D56" s="3">
         <v>7</v>
@@ -2968,7 +2968,7 @@
         <v>10402</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D57" s="3">
         <v>7</v>
@@ -2996,7 +2996,7 @@
         <v>10403</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D58" s="3">
         <v>7</v>
@@ -3024,7 +3024,7 @@
         <v>10404</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D59" s="3">
         <v>7</v>
@@ -3052,7 +3052,7 @@
         <v>10405</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D60" s="3">
         <v>7</v>
@@ -3248,7 +3248,7 @@
         <v>10412</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D67" s="3">
         <v>7</v>
@@ -3304,7 +3304,7 @@
         <v>10501</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D69" s="3">
         <v>7</v>
@@ -3332,7 +3332,7 @@
         <v>10502</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D70" s="3">
         <v>7</v>
@@ -3360,7 +3360,7 @@
         <v>10503</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D71" s="3">
         <v>7</v>
@@ -3388,7 +3388,7 @@
         <v>10504</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D72" s="3">
         <v>7</v>
@@ -3416,7 +3416,7 @@
         <v>10505</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D73" s="3">
         <v>7</v>
@@ -3612,7 +3612,7 @@
         <v>10512</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D80" s="3">
         <v>7</v>
@@ -3668,7 +3668,7 @@
         <v>10601</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D82" s="3">
         <v>7</v>
@@ -3696,7 +3696,7 @@
         <v>10602</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D83" s="3">
         <v>7</v>
@@ -3724,7 +3724,7 @@
         <v>10603</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D84" s="3">
         <v>7</v>
@@ -3752,7 +3752,7 @@
         <v>10604</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D85" s="3">
         <v>7</v>
@@ -3780,7 +3780,7 @@
         <v>10605</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D86" s="3">
         <v>7</v>
@@ -3976,7 +3976,7 @@
         <v>10612</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D93" s="3">
         <v>7</v>
@@ -4035,7 +4035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4047,7 +4049,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
@@ -4056,27 +4058,27 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -4099,28 +4101,28 @@
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6176,93 +6178,93 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -6274,7 +6276,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -6286,7 +6288,7 @@
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
@@ -6298,7 +6300,7 @@
         <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
         <v>17</v>
@@ -6310,7 +6312,7 @@
         <v>18</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
         <v>17</v>
@@ -6324,76 +6326,76 @@
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
@@ -6404,13 +6406,13 @@
         <v>108010001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -6422,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3">
         <v>7</v>
@@ -6434,7 +6436,7 @@
         <v>200</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -6446,7 +6448,7 @@
         <v>100</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R4" s="3">
         <v>1</v>
@@ -6458,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V4" s="3">
         <v>1</v>
@@ -6478,13 +6480,13 @@
         <v>108010002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" s="3">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -6496,7 +6498,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3">
         <v>7</v>
@@ -6508,7 +6510,7 @@
         <v>500</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
@@ -6520,7 +6522,7 @@
         <v>250</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R5" s="3">
         <v>1</v>
@@ -6532,7 +6534,7 @@
         <v>5</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V5" s="3">
         <v>1</v>
@@ -6552,13 +6554,13 @@
         <v>108010003</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -6570,7 +6572,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J6" s="3">
         <v>7</v>
@@ -6582,7 +6584,7 @@
         <v>1000</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
@@ -6594,7 +6596,7 @@
         <v>500</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R6" s="3">
         <v>1</v>
@@ -6606,7 +6608,7 @@
         <v>10</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V6" s="3">
         <v>1</v>
@@ -6626,13 +6628,13 @@
         <v>108010004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D7" s="3">
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -6644,7 +6646,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J7" s="3">
         <v>7</v>
@@ -6656,7 +6658,7 @@
         <v>1500</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -6668,7 +6670,7 @@
         <v>750</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R7" s="3">
         <v>1</v>
@@ -6680,7 +6682,7 @@
         <v>15</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V7" s="3">
         <v>1</v>
@@ -6700,13 +6702,13 @@
         <v>108010005</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3">
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -6718,7 +6720,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J8" s="3">
         <v>7</v>
@@ -6730,7 +6732,7 @@
         <v>2000</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -6742,7 +6744,7 @@
         <v>1000</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R8" s="3">
         <v>1</v>
@@ -6754,7 +6756,7 @@
         <v>20</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V8" s="3">
         <v>1</v>
@@ -6774,13 +6776,13 @@
         <v>108010006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D9" s="3">
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -6792,7 +6794,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J9" s="3">
         <v>7</v>
@@ -6804,7 +6806,7 @@
         <v>2500</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
@@ -6816,7 +6818,7 @@
         <v>1250</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R9" s="3">
         <v>1</v>
@@ -6828,7 +6830,7 @@
         <v>25</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V9" s="3">
         <v>1</v>
@@ -6848,13 +6850,13 @@
         <v>108010007</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3">
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -6866,7 +6868,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J10" s="3">
         <v>7</v>
@@ -6878,7 +6880,7 @@
         <v>3000</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
@@ -6890,7 +6892,7 @@
         <v>1500</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R10" s="3">
         <v>1</v>
@@ -6902,7 +6904,7 @@
         <v>30</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V10" s="3">
         <v>1</v>
@@ -6922,13 +6924,13 @@
         <v>108010008</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3">
         <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -6940,7 +6942,7 @@
         <v>40</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J11" s="3">
         <v>7</v>
@@ -6952,7 +6954,7 @@
         <v>3500</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -6964,7 +6966,7 @@
         <v>1750</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R11" s="3">
         <v>1</v>
@@ -6976,7 +6978,7 @@
         <v>40</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V11" s="3">
         <v>1</v>
@@ -6996,13 +6998,13 @@
         <v>108010009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3">
         <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -7014,7 +7016,7 @@
         <v>50</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J12" s="3">
         <v>7</v>
@@ -7026,7 +7028,7 @@
         <v>4000</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -7038,7 +7040,7 @@
         <v>2000</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R12" s="3">
         <v>1</v>
@@ -7050,7 +7052,7 @@
         <v>50</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V12" s="3">
         <v>1</v>
@@ -7070,13 +7072,13 @@
         <v>108010010</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D13" s="3">
         <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -7088,7 +7090,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J13" s="3">
         <v>7</v>
@@ -7100,7 +7102,7 @@
         <v>4500</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
@@ -7112,7 +7114,7 @@
         <v>2250</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R13" s="3">
         <v>1</v>
@@ -7124,7 +7126,7 @@
         <v>65</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V13" s="3">
         <v>1</v>
@@ -7146,7 +7148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF49F6E-6119-4F09-8B15-8FED2090906E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -7161,45 +7163,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -7207,25 +7209,25 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -7240,7 +7242,7 @@
         <v>11001</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -7261,7 +7263,7 @@
         <v>11002</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
@@ -7282,7 +7284,7 @@
         <v>11003</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -7303,7 +7305,7 @@
         <v>11004</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
@@ -7324,7 +7326,7 @@
         <v>11005</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -7345,7 +7347,7 @@
         <v>11006</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -7366,7 +7368,7 @@
         <v>11007</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -7387,7 +7389,7 @@
         <v>11008</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -7410,7 +7412,7 @@
         <v>11009</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -7433,7 +7435,7 @@
         <v>11010</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14434AB9-EC34-4976-B1AE-7607DF3BF891}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144FC5B-36FD-40FB-AF60-20BC71B9B996}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4035,7 +4035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144FC5B-36FD-40FB-AF60-20BC71B9B996}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C2B1A-3985-47CE-86CD-53F4B8205350}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="166">
   <si>
     <t>sheet名</t>
   </si>
@@ -657,6 +657,14 @@
   </si>
   <si>
     <t>cost[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1343,26 +1351,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="18.25" customWidth="1"/>
+    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1370,37 +1378,40 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1408,37 +1419,40 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1446,2583 +1460,2781 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>10001</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="3">
-        <v>7</v>
-      </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>10002</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3">
-        <v>7</v>
-      </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>10003</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3">
-        <v>7</v>
-      </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>100</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>10004</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3">
-        <v>7</v>
-      </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>10005</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>10006</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>10007</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
-        <v>7</v>
-      </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>10008</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
-        <v>7</v>
-      </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>100</v>
       </c>
-      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>10009</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3">
-        <v>7</v>
-      </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>10010</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3">
-        <v>7</v>
-      </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>100</v>
       </c>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>10011</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3">
-        <v>7</v>
-      </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>10012</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="3">
-        <v>7</v>
-      </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>10013</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3">
-        <v>7</v>
-      </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>100</v>
       </c>
-      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>10101</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="3">
-        <v>7</v>
-      </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>150</v>
       </c>
-      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>10102</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3">
-        <v>7</v>
-      </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>150</v>
       </c>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>10103</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="3">
-        <v>7</v>
-      </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <v>150</v>
       </c>
-      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>10104</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3">
-        <v>7</v>
-      </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>150</v>
       </c>
-      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3">
         <v>10105</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3">
-        <v>7</v>
-      </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>150</v>
       </c>
-      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>10106</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>150</v>
       </c>
-      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3">
         <v>10107</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3">
-        <v>7</v>
-      </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>150</v>
       </c>
-      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>10108</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3">
-        <v>7</v>
-      </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>150</v>
       </c>
-      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>10109</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3">
-        <v>7</v>
-      </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
         <v>150</v>
       </c>
-      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>10110</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="3">
-        <v>7</v>
-      </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>150</v>
       </c>
-      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="3">
         <v>10111</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="3">
-        <v>7</v>
-      </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>150</v>
       </c>
-      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3">
         <v>10112</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="3">
-        <v>7</v>
-      </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
         <v>150</v>
       </c>
-      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="3">
         <v>10113</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="3">
-        <v>7</v>
-      </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>150</v>
       </c>
-      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="3">
         <v>10201</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="3">
-        <v>7</v>
-      </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
         <v>225</v>
       </c>
-      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="3">
         <v>10202</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="3">
-        <v>7</v>
-      </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
         <v>225</v>
       </c>
-      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>10203</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="3">
-        <v>7</v>
-      </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>225</v>
       </c>
-      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="3">
         <v>10204</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="3">
-        <v>7</v>
-      </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>225</v>
       </c>
-      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="3">
         <v>10205</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="3">
-        <v>7</v>
-      </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
         <v>225</v>
       </c>
-      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="3">
         <v>10206</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>225</v>
       </c>
-      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="3">
         <v>10207</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="3">
-        <v>7</v>
-      </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
         <v>225</v>
       </c>
-      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="3">
         <v>10208</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="3">
-        <v>7</v>
-      </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
         <v>225</v>
       </c>
-      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="3">
         <v>10209</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="3">
-        <v>7</v>
-      </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
         <v>225</v>
       </c>
-      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="3">
         <v>10210</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="3">
-        <v>7</v>
-      </c>
       <c r="E39" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
         <v>225</v>
       </c>
-      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
       <c r="B40" s="3">
         <v>10211</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="3">
-        <v>7</v>
-      </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
         <v>225</v>
       </c>
-      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" s="3">
         <v>10212</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="3">
-        <v>7</v>
-      </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>225</v>
       </c>
-      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
       <c r="B42" s="3">
         <v>10213</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="3">
-        <v>7</v>
-      </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>225</v>
       </c>
-      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
       <c r="B43" s="3">
         <v>10301</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="3">
-        <v>7</v>
-      </c>
       <c r="E43" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>335</v>
       </c>
-      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
       <c r="B44" s="3">
         <v>10302</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="3">
-        <v>7</v>
-      </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>335</v>
       </c>
-      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
       <c r="B45" s="3">
         <v>10303</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="3">
-        <v>7</v>
-      </c>
       <c r="E45" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>335</v>
       </c>
-      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
       <c r="B46" s="3">
         <v>10304</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="3">
-        <v>7</v>
-      </c>
       <c r="E46" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>335</v>
       </c>
-      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
       <c r="B47" s="3">
         <v>10305</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="3">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="3">
-        <v>7</v>
-      </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>335</v>
       </c>
-      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
       <c r="B48" s="3">
         <v>10306</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C48" s="3">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>335</v>
       </c>
-      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" s="3">
         <v>10307</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="3">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3">
-        <v>7</v>
-      </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>335</v>
       </c>
-      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
       <c r="B50" s="3">
         <v>10308</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="3">
-        <v>7</v>
-      </c>
       <c r="E50" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
         <v>335</v>
       </c>
-      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
       <c r="B51" s="3">
         <v>10309</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="3">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="3">
-        <v>7</v>
-      </c>
       <c r="E51" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
         <v>335</v>
       </c>
-      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
       <c r="B52" s="3">
         <v>10310</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="3">
+        <v>4</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="3">
-        <v>7</v>
-      </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>335</v>
       </c>
-      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" s="3">
         <v>10311</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="3">
-        <v>7</v>
-      </c>
       <c r="E53" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
         <v>335</v>
       </c>
-      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
       <c r="B54" s="3">
         <v>10312</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="3">
-        <v>7</v>
-      </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>335</v>
       </c>
-      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" s="3">
         <v>10313</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="3">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="3">
-        <v>7</v>
-      </c>
       <c r="E55" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
         <v>335</v>
       </c>
-      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
       <c r="B56" s="3">
         <v>10401</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="3">
-        <v>7</v>
-      </c>
       <c r="E56" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
         <v>500</v>
       </c>
-      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
       <c r="B57" s="3">
         <v>10402</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="3">
-        <v>7</v>
-      </c>
       <c r="E57" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
       <c r="B58" s="3">
         <v>10403</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="3">
-        <v>7</v>
-      </c>
       <c r="E58" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
       <c r="B59" s="3">
         <v>10404</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="3">
-        <v>7</v>
-      </c>
       <c r="E59" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
       <c r="B60" s="3">
         <v>10405</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="3">
-        <v>7</v>
-      </c>
       <c r="E60" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
       <c r="B61" s="3">
         <v>10406</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
       <c r="B62" s="3">
         <v>10407</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="3">
-        <v>7</v>
-      </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
       <c r="B63" s="3">
         <v>10408</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="3">
-        <v>7</v>
-      </c>
       <c r="E63" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
         <v>500</v>
       </c>
-      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
       <c r="B64" s="3">
         <v>10409</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="3">
-        <v>7</v>
-      </c>
       <c r="E64" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
         <v>500</v>
       </c>
-      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
       <c r="B65" s="3">
         <v>10410</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="3">
-        <v>7</v>
-      </c>
       <c r="E65" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
         <v>500</v>
       </c>
-      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
       <c r="B66" s="3">
         <v>10411</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="3">
-        <v>7</v>
-      </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
       <c r="B67" s="3">
         <v>10412</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="3">
-        <v>7</v>
-      </c>
       <c r="E67" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
       </c>
       <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
         <v>500</v>
       </c>
-      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
       <c r="B68" s="3">
         <v>10413</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="3">
-        <v>7</v>
-      </c>
       <c r="E68" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
       </c>
       <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
         <v>500</v>
       </c>
-      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="3">
         <v>10501</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="3">
-        <v>7</v>
-      </c>
       <c r="E69" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
         <v>750</v>
       </c>
-      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" s="3">
         <v>10502</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="3">
-        <v>7</v>
-      </c>
       <c r="E70" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>750</v>
       </c>
-      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
       <c r="B71" s="3">
         <v>10503</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="3">
-        <v>7</v>
-      </c>
       <c r="E71" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
         <v>750</v>
       </c>
-      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
       <c r="B72" s="3">
         <v>10504</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="3">
-        <v>7</v>
-      </c>
       <c r="E72" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>750</v>
       </c>
-      <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
       <c r="B73" s="3">
         <v>10505</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="3">
-        <v>7</v>
-      </c>
       <c r="E73" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
         <v>750</v>
       </c>
-      <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
       <c r="B74" s="3">
         <v>10506</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="3">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
       </c>
       <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
         <v>750</v>
       </c>
-      <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
       <c r="B75" s="3">
         <v>10507</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="3">
-        <v>7</v>
-      </c>
       <c r="E75" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
       </c>
       <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
         <v>750</v>
       </c>
-      <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
       <c r="B76" s="3">
         <v>10508</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="3">
-        <v>7</v>
-      </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>750</v>
       </c>
-      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
       <c r="B77" s="3">
         <v>10509</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="3">
-        <v>7</v>
-      </c>
       <c r="E77" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
       </c>
       <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
         <v>750</v>
       </c>
-      <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
       <c r="B78" s="3">
         <v>10510</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="3">
-        <v>7</v>
-      </c>
       <c r="E78" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
       </c>
       <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
         <v>750</v>
       </c>
-      <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
       <c r="B79" s="3">
         <v>10511</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="3">
-        <v>7</v>
-      </c>
       <c r="E79" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
       </c>
       <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
         <v>750</v>
       </c>
-      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
       <c r="B80" s="3">
         <v>10512</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="3">
-        <v>7</v>
-      </c>
       <c r="E80" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
       </c>
       <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
         <v>750</v>
       </c>
-      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
       <c r="B81" s="3">
         <v>10513</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="3">
-        <v>7</v>
-      </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>750</v>
       </c>
-      <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
       <c r="B82" s="3">
         <v>10601</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="3">
-        <v>7</v>
-      </c>
       <c r="E82" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
         <v>1200</v>
       </c>
-      <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
       <c r="B83" s="3">
         <v>10602</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D83" s="3">
-        <v>7</v>
-      </c>
       <c r="E83" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
       <c r="B84" s="3">
         <v>10603</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="3">
-        <v>7</v>
-      </c>
       <c r="E84" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
         <v>1200</v>
       </c>
-      <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
       <c r="B85" s="3">
         <v>10604</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D85" s="3">
-        <v>7</v>
-      </c>
       <c r="E85" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
         <v>1200</v>
       </c>
-      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
       <c r="B86" s="3">
         <v>10605</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="3">
-        <v>7</v>
-      </c>
       <c r="E86" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
         <v>1200</v>
       </c>
-      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
       <c r="B87" s="3">
         <v>10606</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="3">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
       </c>
       <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
         <v>1200</v>
       </c>
-      <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
       <c r="B88" s="3">
         <v>10607</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="3"/>
+      <c r="D88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="3">
-        <v>7</v>
-      </c>
       <c r="E88" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
       </c>
       <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
         <v>1200</v>
       </c>
-      <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
       <c r="B89" s="3">
         <v>10608</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="3">
-        <v>7</v>
-      </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
       <c r="B90" s="3">
         <v>10609</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="3">
-        <v>7</v>
-      </c>
       <c r="E90" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
       </c>
       <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
         <v>1200</v>
       </c>
-      <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
       <c r="B91" s="3">
         <v>10610</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="3">
-        <v>7</v>
-      </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>1200</v>
       </c>
-      <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
       <c r="B92" s="3">
         <v>10611</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="3">
-        <v>7</v>
-      </c>
       <c r="E92" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
       </c>
       <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
         <v>1200</v>
       </c>
-      <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
       <c r="B93" s="3">
         <v>10612</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="3"/>
+      <c r="D93" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="3">
-        <v>7</v>
-      </c>
       <c r="E93" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
       </c>
       <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
         <v>1200</v>
       </c>
-      <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
       <c r="B94" s="3">
         <v>10613</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="3">
-        <v>7</v>
-      </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C2B1A-3985-47CE-86CD-53F4B8205350}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9161178E-6240-43CD-822A-C3454E9D04CB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="166">
   <si>
     <t>sheet名</t>
   </si>
@@ -531,10 +531,6 @@
   </si>
   <si>
     <t>加成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为VIP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -665,6 +661,10 @@
   </si>
   <si>
     <t>阶数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1323,20 +1323,20 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -1353,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
@@ -1378,7 +1378,7 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -1399,16 +1399,16 @@
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1460,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>61</v>
@@ -1481,7 +1481,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>62</v>
@@ -4270,19 +4270,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -7360,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF49F6E-6119-4F09-8B15-8FED2090906E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7381,7 +7381,7 @@
         <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>127</v>
@@ -7427,19 +7427,19 @@
         <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -7454,7 +7454,7 @@
         <v>11001</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -7475,7 +7475,7 @@
         <v>11002</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
@@ -7496,7 +7496,7 @@
         <v>11003</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -7517,7 +7517,7 @@
         <v>11004</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
@@ -7538,7 +7538,7 @@
         <v>11005</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -7559,7 +7559,7 @@
         <v>11006</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -7580,7 +7580,7 @@
         <v>11007</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -7601,7 +7601,7 @@
         <v>11008</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -7624,7 +7624,7 @@
         <v>11009</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -7647,7 +7647,7 @@
         <v>11010</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9161178E-6240-43CD-822A-C3454E9D04CB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9D04E1-8240-4F9A-A416-9BAFB2441BEF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="166">
   <si>
     <t>sheet名</t>
   </si>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <v>225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>335</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>335</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>335</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>335</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>335</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>335</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>335</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="3">
-        <v>335</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="3">
-        <v>335</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -3112,7 +3112,9 @@
       <c r="B56" s="3">
         <v>10401</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3">
+        <v>5</v>
+      </c>
       <c r="D56" s="3" t="s">
         <v>52</v>
       </c>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="3">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -3141,7 +3143,9 @@
       <c r="B57" s="3">
         <v>10402</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3">
+        <v>5</v>
+      </c>
       <c r="D57" s="3" t="s">
         <v>53</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -3170,7 +3174,9 @@
       <c r="B58" s="3">
         <v>10403</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3">
+        <v>5</v>
+      </c>
       <c r="D58" s="3" t="s">
         <v>54</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -3199,7 +3205,9 @@
       <c r="B59" s="3">
         <v>10404</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3">
+        <v>5</v>
+      </c>
       <c r="D59" s="3" t="s">
         <v>55</v>
       </c>
@@ -3213,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -3228,7 +3236,9 @@
       <c r="B60" s="3">
         <v>10405</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3">
+        <v>5</v>
+      </c>
       <c r="D60" s="3" t="s">
         <v>56</v>
       </c>
@@ -3242,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -3257,7 +3267,9 @@
       <c r="B61" s="3">
         <v>10406</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
       <c r="D61" s="3" t="s">
         <v>7</v>
       </c>
@@ -3271,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -3286,7 +3298,9 @@
       <c r="B62" s="3">
         <v>10407</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3">
+        <v>5</v>
+      </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -3315,7 +3329,9 @@
       <c r="B63" s="3">
         <v>10408</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3">
+        <v>5</v>
+      </c>
       <c r="D63" s="3" t="s">
         <v>10</v>
       </c>
@@ -3329,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="3">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -3344,7 +3360,9 @@
       <c r="B64" s="3">
         <v>10409</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
       <c r="D64" s="3" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -3373,7 +3391,9 @@
       <c r="B65" s="3">
         <v>10410</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3">
+        <v>5</v>
+      </c>
       <c r="D65" s="3" t="s">
         <v>8</v>
       </c>
@@ -3402,7 +3422,9 @@
       <c r="B66" s="3">
         <v>10411</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
       <c r="D66" s="3" t="s">
         <v>26</v>
       </c>
@@ -3431,7 +3453,9 @@
       <c r="B67" s="3">
         <v>10412</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3">
+        <v>5</v>
+      </c>
       <c r="D67" s="3" t="s">
         <v>58</v>
       </c>
@@ -3460,7 +3484,9 @@
       <c r="B68" s="3">
         <v>10413</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3">
+        <v>5</v>
+      </c>
       <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
@@ -3489,7 +3515,9 @@
       <c r="B69" s="3">
         <v>10501</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3">
+        <v>6</v>
+      </c>
       <c r="D69" s="3" t="s">
         <v>52</v>
       </c>
@@ -3503,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <v>750</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -3518,7 +3546,9 @@
       <c r="B70" s="3">
         <v>10502</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3">
+        <v>6</v>
+      </c>
       <c r="D70" s="3" t="s">
         <v>53</v>
       </c>
@@ -3532,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>750</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -3547,7 +3577,9 @@
       <c r="B71" s="3">
         <v>10503</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3">
+        <v>6</v>
+      </c>
       <c r="D71" s="3" t="s">
         <v>54</v>
       </c>
@@ -3561,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="3">
-        <v>750</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -3576,7 +3608,9 @@
       <c r="B72" s="3">
         <v>10504</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3">
+        <v>6</v>
+      </c>
       <c r="D72" s="3" t="s">
         <v>55</v>
       </c>
@@ -3590,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="3">
-        <v>750</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -3605,7 +3639,9 @@
       <c r="B73" s="3">
         <v>10505</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3">
+        <v>6</v>
+      </c>
       <c r="D73" s="3" t="s">
         <v>56</v>
       </c>
@@ -3619,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="3">
-        <v>750</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -3634,7 +3670,9 @@
       <c r="B74" s="3">
         <v>10506</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3">
+        <v>6</v>
+      </c>
       <c r="D74" s="3" t="s">
         <v>7</v>
       </c>
@@ -3648,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="3">
-        <v>750</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -3663,7 +3701,9 @@
       <c r="B75" s="3">
         <v>10507</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3">
+        <v>6</v>
+      </c>
       <c r="D75" s="3" t="s">
         <v>11</v>
       </c>
@@ -3677,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <v>750</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -3692,7 +3732,9 @@
       <c r="B76" s="3">
         <v>10508</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3">
+        <v>6</v>
+      </c>
       <c r="D76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3706,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>750</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -3721,7 +3763,9 @@
       <c r="B77" s="3">
         <v>10509</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3">
+        <v>6</v>
+      </c>
       <c r="D77" s="3" t="s">
         <v>9</v>
       </c>
@@ -3735,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="3">
-        <v>750</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -3750,7 +3794,9 @@
       <c r="B78" s="3">
         <v>10510</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3">
+        <v>6</v>
+      </c>
       <c r="D78" s="3" t="s">
         <v>8</v>
       </c>
@@ -3779,7 +3825,9 @@
       <c r="B79" s="3">
         <v>10511</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3">
+        <v>6</v>
+      </c>
       <c r="D79" s="3" t="s">
         <v>26</v>
       </c>
@@ -3808,7 +3856,9 @@
       <c r="B80" s="3">
         <v>10512</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3">
+        <v>6</v>
+      </c>
       <c r="D80" s="3" t="s">
         <v>58</v>
       </c>
@@ -3837,7 +3887,9 @@
       <c r="B81" s="3">
         <v>10513</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3">
+        <v>6</v>
+      </c>
       <c r="D81" s="3" t="s">
         <v>12</v>
       </c>
@@ -3866,7 +3918,9 @@
       <c r="B82" s="3">
         <v>10601</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3">
+        <v>7</v>
+      </c>
       <c r="D82" s="3" t="s">
         <v>52</v>
       </c>
@@ -3880,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="3">
-        <v>1200</v>
+        <v>0.12</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -3895,7 +3949,9 @@
       <c r="B83" s="3">
         <v>10602</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3">
+        <v>7</v>
+      </c>
       <c r="D83" s="3" t="s">
         <v>53</v>
       </c>
@@ -3909,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>1200</v>
+        <v>0.12</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -3924,7 +3980,9 @@
       <c r="B84" s="3">
         <v>10603</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3">
+        <v>7</v>
+      </c>
       <c r="D84" s="3" t="s">
         <v>54</v>
       </c>
@@ -3938,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="3">
-        <v>1200</v>
+        <v>0.12</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -3953,7 +4011,9 @@
       <c r="B85" s="3">
         <v>10604</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3">
+        <v>7</v>
+      </c>
       <c r="D85" s="3" t="s">
         <v>55</v>
       </c>
@@ -3967,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="3">
-        <v>1200</v>
+        <v>0.12</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -3982,7 +4042,9 @@
       <c r="B86" s="3">
         <v>10605</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3">
+        <v>7</v>
+      </c>
       <c r="D86" s="3" t="s">
         <v>56</v>
       </c>
@@ -3996,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="3">
-        <v>1200</v>
+        <v>0.12</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -4011,7 +4073,9 @@
       <c r="B87" s="3">
         <v>10606</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3">
+        <v>7</v>
+      </c>
       <c r="D87" s="3" t="s">
         <v>7</v>
       </c>
@@ -4025,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="3">
-        <v>1200</v>
+        <v>0.12</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -4040,7 +4104,9 @@
       <c r="B88" s="3">
         <v>10607</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3">
+        <v>7</v>
+      </c>
       <c r="D88" s="3" t="s">
         <v>11</v>
       </c>
@@ -4054,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="3">
-        <v>1200</v>
+        <v>0.12</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -4069,7 +4135,9 @@
       <c r="B89" s="3">
         <v>10608</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3">
+        <v>7</v>
+      </c>
       <c r="D89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4083,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>1200</v>
+        <v>0.12</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -4098,7 +4166,9 @@
       <c r="B90" s="3">
         <v>10609</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3">
+        <v>7</v>
+      </c>
       <c r="D90" s="3" t="s">
         <v>9</v>
       </c>
@@ -4112,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="3">
-        <v>1200</v>
+        <v>0.12</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -4127,7 +4197,9 @@
       <c r="B91" s="3">
         <v>10610</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3">
+        <v>7</v>
+      </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4156,7 +4228,9 @@
       <c r="B92" s="3">
         <v>10611</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3">
+        <v>7</v>
+      </c>
       <c r="D92" s="3" t="s">
         <v>26</v>
       </c>
@@ -4185,7 +4259,9 @@
       <c r="B93" s="3">
         <v>10612</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3">
+        <v>7</v>
+      </c>
       <c r="D93" s="3" t="s">
         <v>58</v>
       </c>
@@ -4214,7 +4290,9 @@
       <c r="B94" s="3">
         <v>10613</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3">
+        <v>7</v>
+      </c>
       <c r="D94" s="3" t="s">
         <v>12</v>
       </c>
@@ -7360,7 +7438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF49F6E-6119-4F09-8B15-8FED2090906E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9D04E1-8240-4F9A-A416-9BAFB2441BEF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC59ECAA-1F04-4E89-9FD5-E0980EEA0F72}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="172">
   <si>
     <t>sheet名</t>
   </si>
@@ -665,6 +665,30 @@
   </si>
   <si>
     <t>VIP等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1351,26 +1375,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="16" max="16" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="12" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="18" max="18" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1381,37 +1406,43 @@
         <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1422,37 +1453,43 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>57</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1463,37 +1500,43 @@
         <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1503,28 +1546,34 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10101</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="3">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.01</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1534,28 +1583,34 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10102</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="3">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.01</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1565,28 +1620,34 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10103</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>0.01</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1596,28 +1657,34 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10104</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="3">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>0.01</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1627,28 +1694,34 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10105</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="3">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>0.01</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1658,28 +1731,34 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
+      <c r="D9" s="3">
+        <v>20</v>
       </c>
       <c r="E9" s="3">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+        <v>10106</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>0.01</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1689,28 +1768,34 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10107</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>0.01</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1720,28 +1805,34 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10108</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>0.01</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1751,28 +1842,34 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10109</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>0.01</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1782,28 +1879,34 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10110</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <v>100</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1813,28 +1916,34 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10111</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="3">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1844,28 +1953,34 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10112</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="3">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1875,28 +1990,34 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10113</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>100</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1906,28 +2027,35 @@
       <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="3">
+        <f>D4*2</f>
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10201</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="3">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1937,28 +2065,35 @@
       <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D68" si="0">D5*2</f>
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10202</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="3">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1968,28 +2103,35 @@
       <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10203</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="3">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1999,28 +2141,35 @@
       <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10204</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="3">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2030,28 +2179,35 @@
       <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10205</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="3">
-        <v>7</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2061,28 +2217,35 @@
       <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="E22" s="3">
-        <v>7</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+        <v>10206</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2092,28 +2255,35 @@
       <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10207</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2123,28 +2293,35 @@
       <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10208</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2154,28 +2331,35 @@
       <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10209</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2185,28 +2369,35 @@
       <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10210</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="3">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>150</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2216,28 +2407,35 @@
       <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10211</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="3">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>150</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2247,28 +2445,35 @@
       <c r="C28" s="3">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10212</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="3">
-        <v>7</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
         <v>150</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2278,28 +2483,35 @@
       <c r="C29" s="3">
         <v>2</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10213</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3">
-        <v>7</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>150</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2309,28 +2521,35 @@
       <c r="C30" s="3">
         <v>3</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10301</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="3">
-        <v>7</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2340,28 +2559,35 @@
       <c r="C31" s="3">
         <v>3</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E31" s="3">
+        <v>10302</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="3">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2371,28 +2597,35 @@
       <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10303</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="3">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2402,28 +2635,35 @@
       <c r="C33" s="3">
         <v>3</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10304</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="3">
-        <v>7</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2433,28 +2673,35 @@
       <c r="C34" s="3">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10305</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="3">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2464,28 +2711,35 @@
       <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>7</v>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E35" s="3">
-        <v>7</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
+        <v>10306</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -2495,28 +2749,35 @@
       <c r="C36" s="3">
         <v>3</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10307</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="3">
-        <v>7</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2526,28 +2787,35 @@
       <c r="C37" s="3">
         <v>3</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10308</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="3">
-        <v>7</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
       <c r="G37" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -2557,28 +2825,35 @@
       <c r="C38" s="3">
         <v>3</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10309</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="3">
-        <v>7</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -2588,28 +2863,35 @@
       <c r="C39" s="3">
         <v>3</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10310</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="3">
-        <v>7</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
         <v>225</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -2619,28 +2901,35 @@
       <c r="C40" s="3">
         <v>3</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10311</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="3">
-        <v>7</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
         <v>225</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -2650,28 +2939,35 @@
       <c r="C41" s="3">
         <v>3</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10312</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="3">
-        <v>7</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>225</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -2681,28 +2977,35 @@
       <c r="C42" s="3">
         <v>3</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10313</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="3">
-        <v>7</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>225</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -2712,28 +3015,35 @@
       <c r="C43" s="3">
         <v>4</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="3">
+        <f>D30*3</f>
+        <v>240</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10401</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="3">
-        <v>7</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -2743,28 +3053,35 @@
       <c r="C44" s="3">
         <v>4</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="3">
+        <f t="shared" ref="D44:D55" si="1">D31*3</f>
+        <v>240</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10402</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="3">
-        <v>7</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -2774,28 +3091,35 @@
       <c r="C45" s="3">
         <v>4</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10403</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="3">
-        <v>7</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -2805,28 +3129,35 @@
       <c r="C46" s="3">
         <v>4</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10404</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="3">
-        <v>7</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -2836,28 +3167,35 @@
       <c r="C47" s="3">
         <v>4</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10405</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="3">
-        <v>7</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -2867,28 +3205,35 @@
       <c r="C48" s="3">
         <v>4</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
+      <c r="D48" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="E48" s="3">
-        <v>7</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
+        <v>10406</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -2898,28 +3243,35 @@
       <c r="C49" s="3">
         <v>4</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10407</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="3">
-        <v>7</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -2929,28 +3281,35 @@
       <c r="C50" s="3">
         <v>4</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E50" s="3">
+        <v>10408</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="3">
-        <v>7</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -2960,28 +3319,35 @@
       <c r="C51" s="3">
         <v>4</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E51" s="3">
+        <v>10409</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="3">
-        <v>7</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -2991,28 +3357,35 @@
       <c r="C52" s="3">
         <v>4</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10410</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>7</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>335</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -3022,28 +3395,35 @@
       <c r="C53" s="3">
         <v>4</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E53" s="3">
+        <v>10411</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="3">
-        <v>7</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
       <c r="G53" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
         <v>335</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -3053,28 +3433,35 @@
       <c r="C54" s="3">
         <v>4</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10412</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="3">
-        <v>7</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>335</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -3084,28 +3471,35 @@
       <c r="C55" s="3">
         <v>4</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E55" s="3">
+        <v>10413</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="3">
-        <v>7</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
         <v>335</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -3115,28 +3509,35 @@
       <c r="C56" s="3">
         <v>5</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E56" s="3">
+        <v>10501</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="3">
-        <v>7</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
         <v>0.05</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -3146,28 +3547,35 @@
       <c r="C57" s="3">
         <v>5</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10502</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="3">
-        <v>7</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>0.05</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -3177,28 +3585,35 @@
       <c r="C58" s="3">
         <v>5</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10503</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="3">
-        <v>7</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>0.05</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -3208,28 +3623,35 @@
       <c r="C59" s="3">
         <v>5</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10504</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="3">
-        <v>7</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>0.05</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -3239,28 +3661,35 @@
       <c r="C60" s="3">
         <v>5</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10505</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="3">
-        <v>7</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>0.05</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -3270,28 +3699,35 @@
       <c r="C61" s="3">
         <v>5</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>7</v>
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
       </c>
       <c r="E61" s="3">
-        <v>7</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
+        <v>10506</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>0.05</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -3301,28 +3737,35 @@
       <c r="C62" s="3">
         <v>5</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10507</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="3">
-        <v>7</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>0.05</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -3332,28 +3775,35 @@
       <c r="C63" s="3">
         <v>5</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10508</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="3">
-        <v>7</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
         <v>0.05</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -3363,28 +3813,35 @@
       <c r="C64" s="3">
         <v>5</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E64" s="3">
+        <v>10509</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="3">
-        <v>7</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
         <v>0.05</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -3394,28 +3851,35 @@
       <c r="C65" s="3">
         <v>5</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E65" s="3">
+        <v>10510</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="3">
-        <v>7</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
         <v>500</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -3425,28 +3889,35 @@
       <c r="C66" s="3">
         <v>5</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10511</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="3">
-        <v>7</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -3456,28 +3927,35 @@
       <c r="C67" s="3">
         <v>5</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E67" s="3">
+        <v>10512</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="3">
-        <v>7</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
         <v>500</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -3487,28 +3965,35 @@
       <c r="C68" s="3">
         <v>5</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E68" s="3">
+        <v>10513</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="3">
-        <v>7</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
         <v>500</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -3518,28 +4003,35 @@
       <c r="C69" s="3">
         <v>6</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="3">
+        <f>D56*3</f>
+        <v>1440</v>
+      </c>
+      <c r="E69" s="3">
+        <v>10601</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E69" s="3">
-        <v>7</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -3549,28 +4041,35 @@
       <c r="C70" s="3">
         <v>6</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="3">
+        <f t="shared" ref="D70:D81" si="2">D57*3</f>
+        <v>1440</v>
+      </c>
+      <c r="E70" s="3">
+        <v>10602</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="3">
-        <v>7</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -3580,28 +4079,35 @@
       <c r="C71" s="3">
         <v>6</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E71" s="3">
+        <v>10603</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="3">
-        <v>7</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
       <c r="G71" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -3611,28 +4117,35 @@
       <c r="C72" s="3">
         <v>6</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10604</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="3">
-        <v>7</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -3642,28 +4155,35 @@
       <c r="C73" s="3">
         <v>6</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E73" s="3">
+        <v>10605</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="3">
-        <v>7</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
       <c r="G73" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -3673,28 +4193,35 @@
       <c r="C74" s="3">
         <v>6</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>7</v>
+      <c r="D74" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
       </c>
       <c r="E74" s="3">
-        <v>7</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
+        <v>10606</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -3704,28 +4231,35 @@
       <c r="C75" s="3">
         <v>6</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E75" s="3">
+        <v>10607</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="3">
-        <v>7</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -3735,28 +4269,35 @@
       <c r="C76" s="3">
         <v>6</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10608</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="3">
-        <v>7</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -3766,28 +4307,35 @@
       <c r="C77" s="3">
         <v>6</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E77" s="3">
+        <v>10609</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="3">
-        <v>7</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
       <c r="G77" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -3797,28 +4345,35 @@
       <c r="C78" s="3">
         <v>6</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E78" s="3">
+        <v>10610</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="3">
-        <v>7</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
         <v>750</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -3828,28 +4383,35 @@
       <c r="C79" s="3">
         <v>6</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E79" s="3">
+        <v>10611</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="3">
-        <v>7</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
       <c r="G79" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
         <v>750</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -3859,28 +4421,35 @@
       <c r="C80" s="3">
         <v>6</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E80" s="3">
+        <v>10612</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E80" s="3">
-        <v>7</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
         <v>750</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -3890,28 +4459,35 @@
       <c r="C81" s="3">
         <v>6</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="3">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10613</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="3">
-        <v>7</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>750</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -3921,28 +4497,35 @@
       <c r="C82" s="3">
         <v>7</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="3">
+        <f t="shared" ref="D82:D94" si="3">D69*2</f>
+        <v>2880</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E82" s="3">
-        <v>7</v>
-      </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
       <c r="G82" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
         <v>0.12</v>
       </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -3952,28 +4535,35 @@
       <c r="C83" s="3">
         <v>7</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E83" s="3">
-        <v>7</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>0.12</v>
       </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -3983,28 +4573,35 @@
       <c r="C84" s="3">
         <v>7</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="3">
-        <v>7</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
       <c r="G84" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
         <v>0.12</v>
       </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -4014,28 +4611,35 @@
       <c r="C85" s="3">
         <v>7</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E85" s="3">
-        <v>7</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
         <v>0.12</v>
       </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -4045,28 +4649,35 @@
       <c r="C86" s="3">
         <v>7</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="3">
-        <v>7</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
       <c r="G86" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
         <v>0.12</v>
       </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -4076,28 +4687,35 @@
       <c r="C87" s="3">
         <v>7</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="3">
-        <v>7</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
+      <c r="D87" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G87" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
         <v>0.12</v>
       </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -4107,28 +4725,35 @@
       <c r="C88" s="3">
         <v>7</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="3">
-        <v>7</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0</v>
-      </c>
       <c r="G88" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
         <v>0.12</v>
       </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -4138,28 +4763,35 @@
       <c r="C89" s="3">
         <v>7</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="3">
-        <v>7</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>0.12</v>
       </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -4169,28 +4801,35 @@
       <c r="C90" s="3">
         <v>7</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="3">
-        <v>7</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
       <c r="G90" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
         <v>0.12</v>
       </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -4200,28 +4839,35 @@
       <c r="C91" s="3">
         <v>7</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>7</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>1200</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -4231,28 +4877,35 @@
       <c r="C92" s="3">
         <v>7</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="3">
-        <v>7</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0</v>
-      </c>
       <c r="G92" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
         <v>1200</v>
       </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -4262,28 +4915,35 @@
       <c r="C93" s="3">
         <v>7</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E93" s="3">
-        <v>7</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
       <c r="G93" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
         <v>1200</v>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -4293,26 +4953,33 @@
       <c r="C94" s="3">
         <v>7</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="3">
-        <v>7</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4325,8 +4992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC59ECAA-1F04-4E89-9FD5-E0980EEA0F72}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2F860-BA19-4301-9E08-4C43266146D4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,6 +696,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,7 +886,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
@@ -898,6 +901,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1375,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1392,10 +1397,10 @@
     <col min="13" max="13" width="12.5" customWidth="1"/>
     <col min="14" max="14" width="14.125" customWidth="1"/>
     <col min="15" max="15" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1489,7 +1494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1572,8 +1577,14 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1609,8 +1620,14 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1646,8 +1663,14 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1683,8 +1706,14 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q7" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="R7" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1720,8 +1749,14 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1750,15 +1785,21 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0.01</v>
+        <v>25</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q9" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1787,15 +1828,21 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0.01</v>
+        <v>25</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q10" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1824,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>0.01</v>
+        <v>25</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1832,7 +1879,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1861,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>0.01</v>
+        <v>25</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1869,7 +1916,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1898,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1906,7 +1953,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1935,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1943,7 +1990,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1980,7 +2027,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2047,7 +2094,8 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>1.4999999999999999E-2</v>
+        <f>J4*2.5</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2085,7 +2133,8 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" ref="J18:J29" si="1">J5*2.5</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2123,7 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2161,7 +2211,8 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2199,7 +2250,8 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2237,7 +2289,8 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2275,7 +2328,8 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2313,7 +2367,8 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2351,7 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2389,7 +2445,8 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>375</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2427,7 +2484,8 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>375</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2465,7 +2523,8 @@
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2503,7 +2562,8 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2541,7 +2601,8 @@
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>2.2499999999999999E-2</v>
+        <f>J17*2</f>
+        <v>0.05</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2579,7 +2640,8 @@
         <v>0</v>
       </c>
       <c r="J31" s="3">
-        <v>2.2499999999999999E-2</v>
+        <f t="shared" ref="J31:J42" si="2">J18*2</f>
+        <v>0.05</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2617,7 +2679,8 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>2.2499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2655,7 +2718,8 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>2.2499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2693,7 +2757,8 @@
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>2.2499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2731,7 +2796,8 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>2.2499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2769,7 +2835,8 @@
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <v>2.2499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2807,7 +2874,8 @@
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <v>2.2499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2845,7 +2913,8 @@
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <v>2.2499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2883,7 +2952,8 @@
         <v>0</v>
       </c>
       <c r="J39" s="3">
-        <v>225</v>
+        <f t="shared" si="2"/>
+        <v>750</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2921,7 +2991,8 @@
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <v>225</v>
+        <f t="shared" si="2"/>
+        <v>750</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2959,7 +3030,8 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>225</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2997,7 +3069,8 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>225</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3035,7 +3108,8 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>3.3500000000000002E-2</v>
+        <f>J30*1.5</f>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3054,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" ref="D44:D55" si="1">D31*3</f>
+        <f t="shared" ref="D44:D55" si="3">D31*3</f>
         <v>240</v>
       </c>
       <c r="E44" s="3">
@@ -3073,7 +3147,8 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>3.3500000000000002E-2</v>
+        <f t="shared" ref="J44:J56" si="4">J31*1.5</f>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3092,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E45" s="3">
@@ -3111,7 +3186,8 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>3.3500000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3130,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E46" s="3">
@@ -3149,7 +3225,8 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>3.3500000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3168,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E47" s="3">
@@ -3187,7 +3264,8 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>3.3500000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3206,7 +3284,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E48" s="3">
@@ -3225,7 +3303,8 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>3.3500000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>187.5</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3244,7 +3323,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E49" s="3">
@@ -3263,7 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>3.3500000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>187.5</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3282,7 +3362,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E50" s="3">
@@ -3301,7 +3381,8 @@
         <v>0</v>
       </c>
       <c r="J50" s="3">
-        <v>3.3500000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>187.5</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3320,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E51" s="3">
@@ -3339,7 +3420,8 @@
         <v>0</v>
       </c>
       <c r="J51" s="3">
-        <v>3.3500000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>187.5</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3358,7 +3440,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E52" s="3">
@@ -3377,7 +3459,8 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>335</v>
+        <f t="shared" si="4"/>
+        <v>1125</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3396,7 +3479,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E53" s="3">
@@ -3415,7 +3498,8 @@
         <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>335</v>
+        <f t="shared" si="4"/>
+        <v>1125</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3434,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E54" s="3">
@@ -3453,7 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>335</v>
+        <f t="shared" si="4"/>
+        <v>750</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3472,7 +3557,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E55" s="3">
@@ -3491,7 +3576,8 @@
         <v>0</v>
       </c>
       <c r="J55" s="3">
-        <v>335</v>
+        <f t="shared" si="4"/>
+        <v>750</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3529,7 +3615,8 @@
         <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>0.05</v>
+        <f>J43/1.5*2</f>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3567,7 +3654,8 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0.05</v>
+        <f t="shared" ref="J57:J69" si="5">J44/1.5*2</f>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3605,7 +3693,8 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>0.05</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3643,7 +3732,8 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>0.05</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3681,7 +3771,8 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>0.05</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3719,7 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0.05</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3757,7 +3849,8 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>0.05</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -3795,7 +3888,8 @@
         <v>0</v>
       </c>
       <c r="J63" s="3">
-        <v>0.05</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3833,7 +3927,8 @@
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <v>0.05</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -3871,7 +3966,8 @@
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <v>500</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -3909,7 +4005,8 @@
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -3947,7 +4044,8 @@
         <v>0</v>
       </c>
       <c r="J67" s="3">
-        <v>500</v>
+        <f t="shared" si="5"/>
+        <v>1000</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -3985,7 +4083,8 @@
         <v>0</v>
       </c>
       <c r="J68" s="3">
-        <v>500</v>
+        <f t="shared" si="5"/>
+        <v>1000</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4023,7 +4122,8 @@
         <v>0</v>
       </c>
       <c r="J69" s="3">
-        <v>7.4999999999999997E-2</v>
+        <f>J56/2*3</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4042,7 +4142,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" ref="D70:D81" si="2">D57*3</f>
+        <f t="shared" ref="D70:D81" si="6">D57*3</f>
         <v>1440</v>
       </c>
       <c r="E70" s="3">
@@ -4061,7 +4161,8 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" ref="J70:J81" si="7">J57/2*3</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4080,7 +4181,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E71" s="3">
@@ -4099,7 +4200,8 @@
         <v>0</v>
       </c>
       <c r="J71" s="3">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4118,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E72" s="3">
@@ -4137,7 +4239,8 @@
         <v>0</v>
       </c>
       <c r="J72" s="3">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4156,7 +4259,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E73" s="3">
@@ -4175,7 +4278,8 @@
         <v>0</v>
       </c>
       <c r="J73" s="3">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4194,7 +4298,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E74" s="3">
@@ -4213,7 +4317,8 @@
         <v>0</v>
       </c>
       <c r="J74" s="3">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="7"/>
+        <v>375</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -4232,7 +4337,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E75" s="3">
@@ -4251,7 +4356,8 @@
         <v>0</v>
       </c>
       <c r="J75" s="3">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="7"/>
+        <v>375</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -4270,7 +4376,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E76" s="3">
@@ -4289,7 +4395,8 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="7"/>
+        <v>375</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -4308,7 +4415,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E77" s="3">
@@ -4327,7 +4434,8 @@
         <v>0</v>
       </c>
       <c r="J77" s="3">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="7"/>
+        <v>375</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -4346,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E78" s="3">
@@ -4365,7 +4473,8 @@
         <v>0</v>
       </c>
       <c r="J78" s="3">
-        <v>750</v>
+        <f t="shared" si="7"/>
+        <v>2250</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -4384,7 +4493,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E79" s="3">
@@ -4403,7 +4512,8 @@
         <v>0</v>
       </c>
       <c r="J79" s="3">
-        <v>750</v>
+        <f t="shared" si="7"/>
+        <v>2250</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -4422,7 +4532,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E80" s="3">
@@ -4441,7 +4551,8 @@
         <v>0</v>
       </c>
       <c r="J80" s="3">
-        <v>750</v>
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -4460,7 +4571,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="E81" s="3">
@@ -4479,7 +4590,8 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>750</v>
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -4498,7 +4610,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="3">
-        <f t="shared" ref="D82:D94" si="3">D69*2</f>
+        <f t="shared" ref="D82:D94" si="8">D69*2</f>
         <v>2880</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -4517,7 +4629,8 @@
         <v>0</v>
       </c>
       <c r="J82" s="3">
-        <v>0.12</v>
+        <f>J69/3*4</f>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -4536,7 +4649,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -4555,7 +4668,8 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0.12</v>
+        <f t="shared" ref="J83:J94" si="9">J70/3*4</f>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -4574,7 +4688,7 @@
         <v>7</v>
       </c>
       <c r="D84" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -4593,7 +4707,8 @@
         <v>0</v>
       </c>
       <c r="J84" s="3">
-        <v>0.12</v>
+        <f t="shared" si="9"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -4612,7 +4727,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -4631,7 +4746,8 @@
         <v>0</v>
       </c>
       <c r="J85" s="3">
-        <v>0.12</v>
+        <f t="shared" si="9"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -4650,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -4669,7 +4785,8 @@
         <v>0</v>
       </c>
       <c r="J86" s="3">
-        <v>0.12</v>
+        <f t="shared" si="9"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -4688,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -4707,7 +4824,8 @@
         <v>0</v>
       </c>
       <c r="J87" s="3">
-        <v>0.12</v>
+        <f t="shared" si="9"/>
+        <v>500</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -4726,7 +4844,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -4745,7 +4863,8 @@
         <v>0</v>
       </c>
       <c r="J88" s="3">
-        <v>0.12</v>
+        <f t="shared" si="9"/>
+        <v>500</v>
       </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -4764,7 +4883,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -4783,7 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0.12</v>
+        <f t="shared" si="9"/>
+        <v>500</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -4802,7 +4922,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -4821,7 +4941,8 @@
         <v>0</v>
       </c>
       <c r="J90" s="3">
-        <v>0.12</v>
+        <f t="shared" si="9"/>
+        <v>500</v>
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -4840,7 +4961,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -4859,7 +4980,8 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>1200</v>
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -4878,7 +5000,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -4897,7 +5019,8 @@
         <v>0</v>
       </c>
       <c r="J92" s="3">
-        <v>1200</v>
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -4916,7 +5039,7 @@
         <v>7</v>
       </c>
       <c r="D93" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -4935,7 +5058,8 @@
         <v>0</v>
       </c>
       <c r="J93" s="3">
-        <v>1200</v>
+        <f t="shared" si="9"/>
+        <v>2000</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -4954,7 +5078,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -4973,7 +5097,8 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>1200</v>
+        <f t="shared" si="9"/>
+        <v>2000</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -4992,8 +5117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5096,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5122,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5148,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5174,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5200,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -5226,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5252,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -5278,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -5304,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -5330,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -5356,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -5382,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -5408,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -5434,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -5460,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5486,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -5512,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5538,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5564,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5590,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5616,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5642,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5668,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5694,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5720,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5746,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5772,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5798,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5824,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5850,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5876,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5902,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5928,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5954,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5980,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -6006,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6032,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -6058,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6084,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>1</v>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2F860-BA19-4301-9E08-4C43266146D4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E8C95-0AC2-4E93-8101-7FE200BBB9A4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2075,8 +2075,8 @@
         <v>2</v>
       </c>
       <c r="D17" s="3">
-        <f>D4*2</f>
-        <v>40</v>
+        <f>D4*5</f>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>10201</v>
@@ -2114,8 +2114,8 @@
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D68" si="0">D5*2</f>
-        <v>40</v>
+        <f t="shared" ref="D18:D29" si="0">D5*5</f>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>10202</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E19" s="3">
         <v>10203</v>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>10204</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>10205</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>10206</v>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>10207</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>10208</v>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3">
         <v>10209</v>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>10210</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>10211</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3">
         <v>10212</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
         <v>10213</v>
@@ -2582,8 +2582,8 @@
         <v>3</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>D17*3</f>
+        <v>300</v>
       </c>
       <c r="E30" s="3">
         <v>10301</v>
@@ -2621,8 +2621,8 @@
         <v>3</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" ref="D31:D42" si="2">D18*3</f>
+        <v>300</v>
       </c>
       <c r="E31" s="3">
         <v>10302</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" ref="J31:J42" si="2">J18*2</f>
+        <f t="shared" ref="J31:J42" si="3">J18*2</f>
         <v>0.05</v>
       </c>
       <c r="K31" s="3"/>
@@ -2660,8 +2660,8 @@
         <v>3</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>10303</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="K32" s="3"/>
@@ -2699,8 +2699,8 @@
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
         <v>10304</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="K33" s="3"/>
@@ -2738,8 +2738,8 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E34" s="3">
         <v>10305</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="K34" s="3"/>
@@ -2777,8 +2777,8 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
         <v>10306</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="K35" s="3"/>
@@ -2816,8 +2816,8 @@
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E36" s="3">
         <v>10307</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="K36" s="3"/>
@@ -2855,8 +2855,8 @@
         <v>3</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E37" s="3">
         <v>10308</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="K37" s="3"/>
@@ -2894,8 +2894,8 @@
         <v>3</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E38" s="3">
         <v>10309</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="K38" s="3"/>
@@ -2933,8 +2933,8 @@
         <v>3</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E39" s="3">
         <v>10310</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="K39" s="3"/>
@@ -2972,8 +2972,8 @@
         <v>3</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E40" s="3">
         <v>10311</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="K40" s="3"/>
@@ -3011,8 +3011,8 @@
         <v>3</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>10312</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="K41" s="3"/>
@@ -3050,8 +3050,8 @@
         <v>3</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
         <v>10313</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="K42" s="3"/>
@@ -3089,8 +3089,8 @@
         <v>4</v>
       </c>
       <c r="D43" s="3">
-        <f>D30*3</f>
-        <v>240</v>
+        <f>D30*2</f>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>10401</v>
@@ -3128,8 +3128,8 @@
         <v>4</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" ref="D44:D55" si="3">D31*3</f>
-        <v>240</v>
+        <f t="shared" ref="D44:D55" si="4">D31*2</f>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>10402</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" ref="J44:J56" si="4">J31*1.5</f>
+        <f t="shared" ref="J44:J55" si="5">J31*1.5</f>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="K44" s="3"/>
@@ -3167,8 +3167,8 @@
         <v>4</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>10403</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="K45" s="3"/>
@@ -3206,8 +3206,8 @@
         <v>4</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>10404</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="K46" s="3"/>
@@ -3245,8 +3245,8 @@
         <v>4</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E47" s="3">
         <v>10405</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="K47" s="3"/>
@@ -3284,8 +3284,8 @@
         <v>4</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>10406</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
       <c r="K48" s="3"/>
@@ -3323,8 +3323,8 @@
         <v>4</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>10407</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
       <c r="K49" s="3"/>
@@ -3362,8 +3362,8 @@
         <v>4</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E50" s="3">
         <v>10408</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
       <c r="K50" s="3"/>
@@ -3401,8 +3401,8 @@
         <v>4</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E51" s="3">
         <v>10409</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
       <c r="K51" s="3"/>
@@ -3440,8 +3440,8 @@
         <v>4</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>10410</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1125</v>
       </c>
       <c r="K52" s="3"/>
@@ -3479,8 +3479,8 @@
         <v>4</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E53" s="3">
         <v>10411</v>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1125</v>
       </c>
       <c r="K53" s="3"/>
@@ -3518,8 +3518,8 @@
         <v>4</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E54" s="3">
         <v>10412</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="K54" s="3"/>
@@ -3557,8 +3557,8 @@
         <v>4</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="E55" s="3">
         <v>10413</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="K55" s="3"/>
@@ -3596,8 +3596,8 @@
         <v>5</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" ref="D18:D68" si="6">D43*2</f>
+        <v>1200</v>
       </c>
       <c r="E56" s="3">
         <v>10501</v>
@@ -3635,8 +3635,8 @@
         <v>5</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
         <v>10502</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" ref="J57:J69" si="5">J44/1.5*2</f>
+        <f t="shared" ref="J57:J68" si="7">J44/1.5*2</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="K57" s="3"/>
@@ -3674,8 +3674,8 @@
         <v>5</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
         <v>10503</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="K58" s="3"/>
@@ -3713,8 +3713,8 @@
         <v>5</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>10504</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="K59" s="3"/>
@@ -3752,8 +3752,8 @@
         <v>5</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E60" s="3">
         <v>10505</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="K60" s="3"/>
@@ -3791,8 +3791,8 @@
         <v>5</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E61" s="3">
         <v>10506</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="K61" s="3"/>
@@ -3830,8 +3830,8 @@
         <v>5</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>10507</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="K62" s="3"/>
@@ -3869,8 +3869,8 @@
         <v>5</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E63" s="3">
         <v>10508</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="K63" s="3"/>
@@ -3908,8 +3908,8 @@
         <v>5</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E64" s="3">
         <v>10509</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="K64" s="3"/>
@@ -3947,8 +3947,8 @@
         <v>5</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E65" s="3">
         <v>10510</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="K65" s="3"/>
@@ -3986,8 +3986,8 @@
         <v>5</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
         <v>10511</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="K66" s="3"/>
@@ -4025,8 +4025,8 @@
         <v>5</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E67" s="3">
         <v>10512</v>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="K67" s="3"/>
@@ -4064,8 +4064,8 @@
         <v>5</v>
       </c>
       <c r="D68" s="3">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="E68" s="3">
         <v>10513</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="K68" s="3"/>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="D69" s="3">
         <f>D56*3</f>
-        <v>1440</v>
+        <v>3600</v>
       </c>
       <c r="E69" s="3">
         <v>10601</v>
@@ -4142,8 +4142,8 @@
         <v>6</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" ref="D70:D81" si="6">D57*3</f>
-        <v>1440</v>
+        <f t="shared" ref="D70:D81" si="8">D57*3</f>
+        <v>3600</v>
       </c>
       <c r="E70" s="3">
         <v>10602</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" ref="J70:J81" si="7">J57/2*3</f>
+        <f t="shared" ref="J70:J81" si="9">J57/2*3</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="K70" s="3"/>
@@ -4181,8 +4181,8 @@
         <v>6</v>
       </c>
       <c r="D71" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E71" s="3">
         <v>10603</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K71" s="3"/>
@@ -4220,8 +4220,8 @@
         <v>6</v>
       </c>
       <c r="D72" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E72" s="3">
         <v>10604</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K72" s="3"/>
@@ -4259,8 +4259,8 @@
         <v>6</v>
       </c>
       <c r="D73" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E73" s="3">
         <v>10605</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K73" s="3"/>
@@ -4298,8 +4298,8 @@
         <v>6</v>
       </c>
       <c r="D74" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E74" s="3">
         <v>10606</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>375</v>
       </c>
       <c r="K74" s="3"/>
@@ -4337,8 +4337,8 @@
         <v>6</v>
       </c>
       <c r="D75" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E75" s="3">
         <v>10607</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>375</v>
       </c>
       <c r="K75" s="3"/>
@@ -4376,8 +4376,8 @@
         <v>6</v>
       </c>
       <c r="D76" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E76" s="3">
         <v>10608</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>375</v>
       </c>
       <c r="K76" s="3"/>
@@ -4415,8 +4415,8 @@
         <v>6</v>
       </c>
       <c r="D77" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E77" s="3">
         <v>10609</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>375</v>
       </c>
       <c r="K77" s="3"/>
@@ -4454,8 +4454,8 @@
         <v>6</v>
       </c>
       <c r="D78" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E78" s="3">
         <v>10610</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2250</v>
       </c>
       <c r="K78" s="3"/>
@@ -4493,8 +4493,8 @@
         <v>6</v>
       </c>
       <c r="D79" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E79" s="3">
         <v>10611</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2250</v>
       </c>
       <c r="K79" s="3"/>
@@ -4532,8 +4532,8 @@
         <v>6</v>
       </c>
       <c r="D80" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E80" s="3">
         <v>10612</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1500</v>
       </c>
       <c r="K80" s="3"/>
@@ -4571,8 +4571,8 @@
         <v>6</v>
       </c>
       <c r="D81" s="3">
-        <f t="shared" si="6"/>
-        <v>1440</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="E81" s="3">
         <v>10613</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1500</v>
       </c>
       <c r="K81" s="3"/>
@@ -4610,8 +4610,8 @@
         <v>7</v>
       </c>
       <c r="D82" s="3">
-        <f t="shared" ref="D82:D94" si="8">D69*2</f>
-        <v>2880</v>
+        <f t="shared" ref="D82:D94" si="10">D69*2</f>
+        <v>7200</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>171</v>
@@ -4649,8 +4649,8 @@
         <v>7</v>
       </c>
       <c r="D83" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>171</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" ref="J83:J94" si="9">J70/3*4</f>
+        <f t="shared" ref="J83:J94" si="11">J70/3*4</f>
         <v>0.20000000000000004</v>
       </c>
       <c r="K83" s="3"/>
@@ -4688,8 +4688,8 @@
         <v>7</v>
       </c>
       <c r="D84" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>171</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="K84" s="3"/>
@@ -4727,8 +4727,8 @@
         <v>7</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>171</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="K85" s="3"/>
@@ -4766,8 +4766,8 @@
         <v>7</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>171</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="K86" s="3"/>
@@ -4805,8 +4805,8 @@
         <v>7</v>
       </c>
       <c r="D87" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>171</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="K87" s="3"/>
@@ -4844,8 +4844,8 @@
         <v>7</v>
       </c>
       <c r="D88" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>171</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="K88" s="3"/>
@@ -4883,8 +4883,8 @@
         <v>7</v>
       </c>
       <c r="D89" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>171</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="K89" s="3"/>
@@ -4922,8 +4922,8 @@
         <v>7</v>
       </c>
       <c r="D90" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>171</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="K90" s="3"/>
@@ -4961,8 +4961,8 @@
         <v>7</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>171</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3000</v>
       </c>
       <c r="K91" s="3"/>
@@ -5000,8 +5000,8 @@
         <v>7</v>
       </c>
       <c r="D92" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>171</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3000</v>
       </c>
       <c r="K92" s="3"/>
@@ -5039,8 +5039,8 @@
         <v>7</v>
       </c>
       <c r="D93" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>171</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2000</v>
       </c>
       <c r="K93" s="3"/>
@@ -5078,8 +5078,8 @@
         <v>7</v>
       </c>
       <c r="D94" s="3">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="10"/>
+        <v>7200</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>171</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2000</v>
       </c>
       <c r="K94" s="3"/>
@@ -5117,7 +5117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E8C95-0AC2-4E93-8101-7FE200BBB9A4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1DC9AE-EA8F-49A4-94F4-5CB922A7EEAC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="晶片槽" sheetId="46" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="170">
   <si>
     <t>sheet名</t>
   </si>
@@ -275,10 +276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>achieveId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,10 +365,6 @@
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1329,19 +1322,19 @@
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -1352,20 +1345,20 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -1382,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
@@ -1408,43 +1401,43 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1461,7 +1454,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -1502,19 +1495,19 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>61</v>
@@ -1529,7 +1522,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>62</v>
@@ -3596,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" ref="D18:D68" si="6">D43*2</f>
+        <f t="shared" ref="D56:D68" si="6">D43*2</f>
         <v>1200</v>
       </c>
       <c r="E56" s="3">
@@ -4614,7 +4607,7 @@
         <v>7200</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>52</v>
@@ -4653,7 +4646,7 @@
         <v>7200</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>53</v>
@@ -4692,7 +4685,7 @@
         <v>7200</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>54</v>
@@ -4731,7 +4724,7 @@
         <v>7200</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>55</v>
@@ -4770,7 +4763,7 @@
         <v>7200</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>56</v>
@@ -4809,7 +4802,7 @@
         <v>7200</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>7</v>
@@ -4848,7 +4841,7 @@
         <v>7200</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>11</v>
@@ -4887,7 +4880,7 @@
         <v>7200</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
@@ -4926,7 +4919,7 @@
         <v>7200</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>9</v>
@@ -4965,7 +4958,7 @@
         <v>7200</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -5004,7 +4997,7 @@
         <v>7200</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>26</v>
@@ -5043,7 +5036,7 @@
         <v>7200</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>58</v>
@@ -5082,7 +5075,7 @@
         <v>7200</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>12</v>
@@ -5140,19 +5133,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -7244,35 +7237,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="24" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="23" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>67</v>
@@ -7328,895 +7320,856 @@
       <c r="W1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="s">
         <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>57</v>
       </c>
       <c r="R2" t="s">
         <v>17</v>
       </c>
       <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" t="s">
         <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" t="s">
-        <v>57</v>
       </c>
       <c r="V2" t="s">
         <v>17</v>
       </c>
       <c r="W2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="W3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>108010001</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
       <c r="J4" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
         <v>200</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
         <v>100</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
       <c r="R4" s="3">
         <v>1</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
       </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
       <c r="V4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>108010002</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
       <c r="J5" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
         <v>500</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
       <c r="N5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
         <v>250</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
       <c r="R5" s="3">
         <v>1</v>
       </c>
       <c r="S5" s="3">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3">
         <v>5</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
       <c r="V5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>108010003</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I6" s="3">
+        <v>7</v>
+      </c>
       <c r="J6" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
         <v>1000</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
         <v>500</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
       <c r="R6" s="3">
         <v>1</v>
       </c>
       <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
         <v>10</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
       <c r="V6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
-        <v>108010004</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="3">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I7" s="3">
+        <v>7</v>
+      </c>
       <c r="J7" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
         <v>1500</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
       <c r="N7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
         <v>750</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
       <c r="R7" s="3">
         <v>1</v>
       </c>
       <c r="S7" s="3">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3">
         <v>15</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
       <c r="V7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>108010005</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="3">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
         <v>20</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
       <c r="J8" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
       <c r="R8" s="3">
         <v>1</v>
       </c>
       <c r="S8" s="3">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3">
         <v>20</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U8" s="3">
+        <v>1</v>
+      </c>
       <c r="V8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>108010006</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="3">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I9" s="3">
+        <v>7</v>
+      </c>
       <c r="J9" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
       <c r="N9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
         <v>1250</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
       <c r="R9" s="3">
         <v>1</v>
       </c>
       <c r="S9" s="3">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3">
         <v>25</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
       <c r="V9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>108010007</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="3">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
         <v>30</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I10" s="3">
+        <v>7</v>
+      </c>
       <c r="J10" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
         <v>3000</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
       <c r="N10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
       <c r="R10" s="3">
         <v>1</v>
       </c>
       <c r="S10" s="3">
-        <v>1</v>
-      </c>
-      <c r="T10" s="3">
         <v>30</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
       <c r="V10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
-        <v>108010008</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="3">
         <v>35</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
         <v>40</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I11" s="3">
+        <v>7</v>
+      </c>
       <c r="J11" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
         <v>3500</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
       <c r="N11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
         <v>1750</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
       <c r="R11" s="3">
         <v>1</v>
       </c>
       <c r="S11" s="3">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3">
         <v>40</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
       <c r="V11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
         <v>666</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>108010009</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="3">
         <v>40</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
         <v>50</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I12" s="3">
+        <v>7</v>
+      </c>
       <c r="J12" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
       <c r="N12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
       <c r="R12" s="3">
         <v>1</v>
       </c>
       <c r="S12" s="3">
-        <v>1</v>
-      </c>
-      <c r="T12" s="3">
         <v>50</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
       <c r="V12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
-        <v>108010010</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3">
         <v>50</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
         <v>65</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="I13" s="3">
+        <v>7</v>
+      </c>
       <c r="J13" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
         <v>4500</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
       <c r="N13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
         <v>2250</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
       <c r="R13" s="3">
         <v>1</v>
       </c>
       <c r="S13" s="3">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
         <v>65</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
       <c r="V13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
         <v>1083</v>
       </c>
     </row>
@@ -8231,7 +8184,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8245,25 +8198,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -8271,19 +8224,19 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -8291,25 +8244,25 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -8324,7 +8277,7 @@
         <v>11001</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -8345,7 +8298,7 @@
         <v>11002</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
@@ -8366,7 +8319,7 @@
         <v>11003</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -8387,7 +8340,7 @@
         <v>11004</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
@@ -8408,7 +8361,7 @@
         <v>11005</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -8429,7 +8382,7 @@
         <v>11006</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -8450,7 +8403,7 @@
         <v>11007</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -8471,7 +8424,7 @@
         <v>11008</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -8494,7 +8447,7 @@
         <v>11009</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -8517,7 +8470,7 @@
         <v>11010</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1DC9AE-EA8F-49A4-94F4-5CB922A7EEAC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9665249C-E986-4CE6-B83C-A29561581FC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="晶片槽" sheetId="46" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="178">
   <si>
     <t>sheet名</t>
   </si>
@@ -682,6 +681,38 @@
   </si>
   <si>
     <t>[x]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[4].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[5].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5110,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5220,10 +5251,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5246,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5272,10 +5303,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5298,10 +5329,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5324,10 +5355,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5350,10 +5381,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5376,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5402,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5428,10 +5459,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5454,10 +5485,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5480,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5506,10 +5537,10 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5532,10 +5563,10 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5558,10 +5589,10 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5584,10 +5615,10 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5610,10 +5641,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5636,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5662,10 +5693,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5688,10 +5719,10 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5714,10 +5745,10 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5740,10 +5771,10 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5766,10 +5797,10 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5792,10 +5823,10 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5818,10 +5849,10 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5844,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5870,10 +5901,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5896,10 +5927,10 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5922,10 +5953,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5948,10 +5979,10 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -5974,10 +6005,10 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6000,10 +6031,10 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6026,10 +6057,10 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6052,10 +6083,10 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6078,10 +6109,10 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6104,10 +6135,10 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6130,10 +6161,10 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6156,10 +6187,10 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6182,10 +6213,10 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6208,10 +6239,10 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6234,10 +6265,10 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6260,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6286,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6312,10 +6343,10 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6338,10 +6369,10 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6364,10 +6395,10 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6390,10 +6421,10 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6416,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6442,10 +6473,10 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6468,10 +6499,10 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6494,10 +6525,10 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6520,10 +6551,10 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6546,10 +6577,10 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6572,10 +6603,10 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6598,10 +6629,10 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6624,10 +6655,10 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6650,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6676,10 +6707,10 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6702,10 +6733,10 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H61">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6728,10 +6759,10 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6754,10 +6785,10 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6780,10 +6811,10 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6806,10 +6837,10 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6832,10 +6863,10 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6858,10 +6889,10 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6884,10 +6915,10 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6910,10 +6941,10 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>400</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6936,10 +6967,10 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6962,10 +6993,10 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H71">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -6988,10 +7019,10 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7014,10 +7045,10 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7040,10 +7071,10 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7066,10 +7097,10 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7092,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7118,10 +7149,10 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7144,10 +7175,10 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7170,10 +7201,10 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7196,10 +7227,10 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7222,10 +7253,10 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -7237,20 +7268,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="23" width="12.625" customWidth="1"/>
+    <col min="4" max="28" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -7267,61 +7298,76 @@
         <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -7341,46 +7387,46 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
       </c>
       <c r="Q2" t="s">
         <v>17</v>
       </c>
       <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" t="s">
         <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>57</v>
       </c>
       <c r="U2" t="s">
         <v>17</v>
@@ -7391,8 +7437,23 @@
       <c r="W2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -7409,61 +7470,76 @@
         <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7480,61 +7556,76 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="3">
-        <v>7</v>
-      </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <v>200</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
       <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
         <v>100</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -7551,61 +7642,76 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="3">
-        <v>7</v>
-      </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
         <v>500</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
       <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
         <v>250</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
         <v>5</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="3">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7622,61 +7728,76 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
         <v>10</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <v>1000</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
       <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
         <v>500</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="3">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
         <v>10</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U6" s="3">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -7693,61 +7814,76 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
         <v>15</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3">
-        <v>7</v>
-      </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
         <v>1500</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
       <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
         <v>750</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
         <v>15</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U7" s="3">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7764,61 +7900,76 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="3">
-        <v>7</v>
-      </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
         <v>20</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="3">
-        <v>1</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -7835,61 +7986,76 @@
         <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="3">
-        <v>7</v>
-      </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>1250</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
         <v>25</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="3">
-        <v>1</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -7906,61 +8072,76 @@
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
         <v>30</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="3">
-        <v>7</v>
-      </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
         <v>30</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="3">
-        <v>1</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -7977,61 +8158,76 @@
         <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
         <v>40</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="3">
-        <v>7</v>
-      </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <v>3500</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
       <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
         <v>1750</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
         <v>40</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U11" s="3">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
         <v>666</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -8048,61 +8244,76 @@
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
         <v>50</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="3">
-        <v>7</v>
-      </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
         <v>50</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U12" s="3">
-        <v>1</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -8119,57 +8330,72 @@
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
         <v>65</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="3">
-        <v>7</v>
-      </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <v>4500</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
       <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
         <v>2250</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
         <v>65</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U13" s="3">
-        <v>1</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
         <v>1083</v>
       </c>
     </row>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9665249C-E986-4CE6-B83C-A29561581FC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F121E-2F9C-40BE-BBBE-BFFC89F144DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="180">
   <si>
     <t>sheet名</t>
   </si>
@@ -713,6 +713,14 @@
   </si>
   <si>
     <t>槽5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleScore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5141,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7268,20 +7276,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="28" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="29" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -7292,82 +7301,85 @@
         <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -7378,10 +7390,10 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -7390,13 +7402,13 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>57</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -7405,13 +7417,13 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>57</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
       </c>
       <c r="P2" t="s">
         <v>17</v>
@@ -7420,13 +7432,13 @@
         <v>17</v>
       </c>
       <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>57</v>
-      </c>
-      <c r="T2" t="s">
-        <v>17</v>
       </c>
       <c r="U2" t="s">
         <v>17</v>
@@ -7435,13 +7447,13 @@
         <v>17</v>
       </c>
       <c r="W2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
         <v>18</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>57</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>17</v>
       </c>
       <c r="Z2" t="s">
         <v>17</v>
@@ -7450,10 +7462,13 @@
         <v>17</v>
       </c>
       <c r="AB2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -7464,82 +7479,85 @@
         <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7549,83 +7567,86 @@
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="3">
-        <v>7</v>
-      </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <v>200</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
         <v>0</v>
       </c>
       <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
         <v>100</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
       <c r="U4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
         <v>1</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
       <c r="Z4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
       <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -7635,83 +7656,86 @@
       <c r="C5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="3">
-        <v>7</v>
-      </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>500</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
       </c>
       <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
         <v>250</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="3">
-        <v>1</v>
-      </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
         <v>5</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y5" s="3">
-        <v>1</v>
-      </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="3">
         <v>0</v>
       </c>
       <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7721,83 +7745,86 @@
       <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="3">
-        <v>7</v>
-      </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
         <v>1000</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
       </c>
       <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
         <v>500</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
       <c r="U6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
         <v>10</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="3">
-        <v>1</v>
-      </c>
       <c r="Z6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
       </c>
       <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -7807,83 +7834,86 @@
       <c r="C7" s="3">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="3">
-        <v>7</v>
-      </c>
       <c r="K7" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>1500</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="3">
         <v>0</v>
       </c>
       <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
         <v>750</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="3">
-        <v>1</v>
-      </c>
       <c r="U7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3">
         <v>15</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y7" s="3">
-        <v>1</v>
-      </c>
       <c r="Z7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="3">
         <v>0</v>
       </c>
       <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7893,83 +7923,86 @@
       <c r="C8" s="3">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>20</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="3">
-        <v>7</v>
-      </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="3">
-        <v>1</v>
-      </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>1</v>
+      </c>
+      <c r="X8" s="3">
         <v>20</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="3">
-        <v>1</v>
-      </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -7979,83 +8012,86 @@
       <c r="C9" s="3">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="3">
-        <v>7</v>
-      </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>1250</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="3">
-        <v>1</v>
-      </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3">
         <v>25</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="3">
-        <v>1</v>
-      </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
       <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -8065,83 +8101,86 @@
       <c r="C10" s="3">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>30</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="3">
-        <v>7</v>
-      </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>3000</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="3">
-        <v>1</v>
-      </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
         <v>30</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="3">
-        <v>1</v>
-      </c>
       <c r="Z10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
       <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -8151,83 +8190,86 @@
       <c r="C11" s="3">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
         <v>40</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="3">
-        <v>7</v>
-      </c>
       <c r="K11" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
         <v>3500</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
       <c r="P11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
       </c>
       <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
         <v>1750</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="3">
-        <v>1</v>
-      </c>
       <c r="U11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
         <v>40</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="3">
-        <v>1</v>
-      </c>
       <c r="Z11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="3">
         <v>0</v>
       </c>
       <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
         <v>666</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -8237,83 +8279,86 @@
       <c r="C12" s="3">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>50</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="3">
-        <v>7</v>
-      </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>2000</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="3">
-        <v>1</v>
-      </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
         <v>50</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y12" s="3">
-        <v>1</v>
-      </c>
       <c r="Z12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
       <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -8323,79 +8368,82 @@
       <c r="C13" s="3">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
         <v>65</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="3">
-        <v>7</v>
-      </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
       </c>
       <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <v>4500</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="3">
         <v>0</v>
       </c>
       <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
         <v>2250</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="3">
-        <v>1</v>
-      </c>
       <c r="U13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
         <v>65</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y13" s="3">
-        <v>1</v>
-      </c>
       <c r="Z13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="3">
         <v>0</v>
       </c>
       <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
         <v>1083</v>
       </c>
     </row>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F121E-2F9C-40BE-BBBE-BFFC89F144DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B4F505-596A-4B11-8F11-ADE3206D2DE5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="晶片套装" sheetId="45" r:id="rId4"/>
     <sheet name="晶片槽" sheetId="46" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -918,7 +918,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
@@ -929,7 +929,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1415,7 +1414,7 @@
   <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1609,10 +1608,10 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>0.02</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>0.01</v>
       </c>
     </row>
@@ -1652,10 +1651,10 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>0.05</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1695,10 +1694,10 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>0.1</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>0.05</v>
       </c>
     </row>
@@ -1738,10 +1737,10 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>0.15</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1781,10 +1780,10 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>0.2</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -1824,10 +1823,10 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>0.3</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <v>0.125</v>
       </c>
     </row>
@@ -1867,10 +1866,10 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>0.4</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -5149,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5239,2031 +5238,2031 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>10101</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>10001</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
         <v>10102</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>10002</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>10103</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>10003</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>10104</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>10004</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>10105</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>10005</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>10106</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>10006</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
         <v>10107</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>10007</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>10108</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>10008</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>10109</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>10009</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>10110</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>10010</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>10111</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>10011</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>10112</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>10012</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>10113</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>10013</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>10201</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>10101</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>10202</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>10102</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>10203</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>10103</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>10204</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>10104</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>10205</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>10105</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>10206</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>10106</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>10207</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>10107</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>10208</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>10108</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>10209</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>10109</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>10210</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>10110</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>10211</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>10111</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>10212</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>10112</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>10213</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>10113</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>3</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>10301</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>10201</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>10302</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>10202</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>10303</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>10203</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>10304</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>10204</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>10305</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>10205</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>10306</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>10206</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>10307</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>10207</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>10308</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>10208</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>10309</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>10209</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>10310</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>10210</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>10311</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>10211</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2</v>
+      </c>
+      <c r="H40" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>10312</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>10212</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2</v>
+      </c>
+      <c r="H41" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>10313</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>10213</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2</v>
+      </c>
+      <c r="H42" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>10401</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>10301</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>10402</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>10302</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>10403</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>10303</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>10404</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>10304</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>10405</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>10305</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>10406</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>10306</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>10407</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>10307</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2</v>
+      </c>
+      <c r="H49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>10408</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>10308</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>2</v>
+      </c>
+      <c r="H50" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>10409</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>10309</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2</v>
+      </c>
+      <c r="H51" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>10410</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>10310</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>10411</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>10311</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>2</v>
+      </c>
+      <c r="H53" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>10412</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>10312</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>10413</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>10313</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>10501</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>10401</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
         <v>3</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
         <v>3</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>10502</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>10402</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>3</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
         <v>3</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>10503</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>10403</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>3</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
         <v>3</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>10504</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>10404</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>3</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
         <v>3</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>10505</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>10405</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>3</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>10506</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>10406</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>3</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
         <v>3</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>10507</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>10407</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>3</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
         <v>3</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>10508</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>10408</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
         <v>3</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
         <v>3</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>10509</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>10409</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
         <v>3</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
         <v>3</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>10510</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>10410</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
         <v>3</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
         <v>3</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>10511</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>10411</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>3</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
         <v>3</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>10512</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>10412</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
         <v>3</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
         <v>3</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>10513</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>10413</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
         <v>3</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
         <v>3</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>10601</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>10501</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
         <v>3</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>10602</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>10502</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
         <v>3</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>10603</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>10503</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
         <v>3</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>10604</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>10504</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
         <v>3</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>70</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>10605</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>10505</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
         <v>3</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>71</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>10606</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>10506</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
         <v>3</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>72</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>10607</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>10507</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3">
         <v>3</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>73</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>10608</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>10508</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
         <v>3</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>74</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>10609</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>10509</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
         <v>3</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>75</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>10610</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>10510</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
         <v>3</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>76</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>10611</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>10511</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
         <v>3</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>77</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>10612</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>10512</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3">
         <v>3</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>78</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>10613</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>10513</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
         <v>3</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
     </row>
@@ -7278,8 +7277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7294,88 +7293,88 @@
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B4F505-596A-4B11-8F11-ADE3206D2DE5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124DF0E3-C114-453A-BAAD-1600BE835EAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="J17" s="3">
         <f>J4*2.5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" ref="J18:J29" si="1">J5*2.5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="J28" s="3">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="J30" s="3">
         <f>J17*2</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="J31" s="3">
         <f t="shared" ref="J31:J42" si="3">J18*2</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="J33" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J34" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="J41" s="3">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="J42" s="3">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="J43" s="3">
         <f>J30*1.5</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="J44" s="3">
         <f t="shared" ref="J44:J55" si="5">J31*1.5</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="J45" s="3">
         <f t="shared" si="5"/>
-        <v>7.5000000000000011E-2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="J46" s="3">
         <f t="shared" si="5"/>
-        <v>7.5000000000000011E-2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="J47" s="3">
         <f t="shared" si="5"/>
-        <v>7.5000000000000011E-2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="J54" s="3">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="J55" s="3">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="J56" s="3">
         <f>J43/1.5*2</f>
-        <v>0.10000000000000002</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="J57" s="3">
         <f t="shared" ref="J57:J68" si="7">J44/1.5*2</f>
-        <v>0.10000000000000002</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="J58" s="3">
         <f t="shared" si="7"/>
-        <v>0.10000000000000002</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="J59" s="3">
         <f t="shared" si="7"/>
-        <v>0.10000000000000002</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="J60" s="3">
         <f t="shared" si="7"/>
-        <v>0.10000000000000002</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="J67" s="3">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="J68" s="3">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="J69" s="3">
         <f>J56/2*3</f>
-        <v>0.15000000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J70" s="3">
         <f t="shared" ref="J70:J81" si="9">J57/2*3</f>
-        <v>0.15000000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="J71" s="3">
         <f t="shared" si="9"/>
-        <v>0.15000000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="J72" s="3">
         <f t="shared" si="9"/>
-        <v>0.15000000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="J73" s="3">
         <f t="shared" si="9"/>
-        <v>0.15000000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="J80" s="3">
         <f t="shared" si="9"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="J81" s="3">
         <f t="shared" si="9"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="J82" s="3">
         <f>J69/3*4</f>
-        <v>0.20000000000000004</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="J83" s="3">
         <f t="shared" ref="J83:J94" si="11">J70/3*4</f>
-        <v>0.20000000000000004</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="J84" s="3">
         <f t="shared" si="11"/>
-        <v>0.20000000000000004</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="J85" s="3">
         <f t="shared" si="11"/>
-        <v>0.20000000000000004</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="J86" s="3">
         <f t="shared" si="11"/>
-        <v>0.20000000000000004</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="J93" s="3">
         <f t="shared" si="11"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="J94" s="3">
         <f t="shared" si="11"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -5148,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124DF0E3-C114-453A-BAAD-1600BE835EAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F121E-2F9C-40BE-BBBE-BFFC89F144DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="晶片套装" sheetId="45" r:id="rId4"/>
     <sheet name="晶片槽" sheetId="46" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -918,7 +918,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
@@ -929,6 +929,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1601,17 +1602,17 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="Q4" s="5">
+      <c r="Q4" s="6">
         <v>0.02</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="7">
         <v>0.01</v>
       </c>
     </row>
@@ -1644,17 +1645,17 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <v>0.05</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1687,17 +1688,17 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="Q6" s="5">
+      <c r="Q6" s="6">
         <v>0.1</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="7">
         <v>0.05</v>
       </c>
     </row>
@@ -1730,17 +1731,17 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <v>0.15</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1773,17 +1774,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="Q8" s="5">
+      <c r="Q8" s="6">
         <v>0.2</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="7">
         <v>0.1</v>
       </c>
     </row>
@@ -1823,10 +1824,10 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="Q9" s="5">
+      <c r="Q9" s="6">
         <v>0.3</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="7">
         <v>0.125</v>
       </c>
     </row>
@@ -1866,10 +1867,10 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="Q10" s="5">
+      <c r="Q10" s="6">
         <v>0.4</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="7">
         <v>0.15</v>
       </c>
     </row>
@@ -2050,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2087,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2126,7 +2127,7 @@
       </c>
       <c r="J17" s="3">
         <f>J4*2.5</f>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2165,7 +2166,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" ref="J18:J29" si="1">J5*2.5</f>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2204,7 +2205,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2243,7 +2244,7 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2282,7 +2283,7 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2555,7 +2556,7 @@
       </c>
       <c r="J28" s="3">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2594,7 +2595,7 @@
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2633,7 +2634,7 @@
       </c>
       <c r="J30" s="3">
         <f>J17*2</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2672,7 +2673,7 @@
       </c>
       <c r="J31" s="3">
         <f t="shared" ref="J31:J42" si="3">J18*2</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2711,7 +2712,7 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2750,7 +2751,7 @@
       </c>
       <c r="J33" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2789,7 +2790,7 @@
       </c>
       <c r="J34" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3062,7 +3063,7 @@
       </c>
       <c r="J41" s="3">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3101,7 +3102,7 @@
       </c>
       <c r="J42" s="3">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3140,7 +3141,7 @@
       </c>
       <c r="J43" s="3">
         <f>J30*1.5</f>
-        <v>0.15000000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3179,7 +3180,7 @@
       </c>
       <c r="J44" s="3">
         <f t="shared" ref="J44:J55" si="5">J31*1.5</f>
-        <v>0.15000000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3218,7 +3219,7 @@
       </c>
       <c r="J45" s="3">
         <f t="shared" si="5"/>
-        <v>0.15000000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3257,7 +3258,7 @@
       </c>
       <c r="J46" s="3">
         <f t="shared" si="5"/>
-        <v>0.15000000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3296,7 +3297,7 @@
       </c>
       <c r="J47" s="3">
         <f t="shared" si="5"/>
-        <v>0.15000000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3569,7 +3570,7 @@
       </c>
       <c r="J54" s="3">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3608,7 +3609,7 @@
       </c>
       <c r="J55" s="3">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3647,7 +3648,7 @@
       </c>
       <c r="J56" s="3">
         <f>J43/1.5*2</f>
-        <v>0.20000000000000004</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3686,7 +3687,7 @@
       </c>
       <c r="J57" s="3">
         <f t="shared" ref="J57:J68" si="7">J44/1.5*2</f>
-        <v>0.20000000000000004</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3725,7 +3726,7 @@
       </c>
       <c r="J58" s="3">
         <f t="shared" si="7"/>
-        <v>0.20000000000000004</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3764,7 +3765,7 @@
       </c>
       <c r="J59" s="3">
         <f t="shared" si="7"/>
-        <v>0.20000000000000004</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3803,7 +3804,7 @@
       </c>
       <c r="J60" s="3">
         <f t="shared" si="7"/>
-        <v>0.20000000000000004</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -4076,7 +4077,7 @@
       </c>
       <c r="J67" s="3">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4115,7 +4116,7 @@
       </c>
       <c r="J68" s="3">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4154,7 +4155,7 @@
       </c>
       <c r="J69" s="3">
         <f>J56/2*3</f>
-        <v>0.30000000000000004</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4193,7 +4194,7 @@
       </c>
       <c r="J70" s="3">
         <f t="shared" ref="J70:J81" si="9">J57/2*3</f>
-        <v>0.30000000000000004</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4232,7 +4233,7 @@
       </c>
       <c r="J71" s="3">
         <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4271,7 +4272,7 @@
       </c>
       <c r="J72" s="3">
         <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4310,7 +4311,7 @@
       </c>
       <c r="J73" s="3">
         <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4583,7 +4584,7 @@
       </c>
       <c r="J80" s="3">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -4622,7 +4623,7 @@
       </c>
       <c r="J81" s="3">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -4661,7 +4662,7 @@
       </c>
       <c r="J82" s="3">
         <f>J69/3*4</f>
-        <v>0.40000000000000008</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -4700,7 +4701,7 @@
       </c>
       <c r="J83" s="3">
         <f t="shared" ref="J83:J94" si="11">J70/3*4</f>
-        <v>0.40000000000000008</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -4739,7 +4740,7 @@
       </c>
       <c r="J84" s="3">
         <f t="shared" si="11"/>
-        <v>0.40000000000000008</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -4778,7 +4779,7 @@
       </c>
       <c r="J85" s="3">
         <f t="shared" si="11"/>
-        <v>0.40000000000000008</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -4817,7 +4818,7 @@
       </c>
       <c r="J86" s="3">
         <f t="shared" si="11"/>
-        <v>0.40000000000000008</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5090,7 +5091,7 @@
       </c>
       <c r="J93" s="3">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -5129,7 +5130,7 @@
       </c>
       <c r="J94" s="3">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -5148,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5238,2031 +5239,2031 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>10101</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>10001</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
         <v>10102</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>10002</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>10103</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>10003</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>10104</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>10004</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>10105</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>10005</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>10106</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>10006</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
         <v>10107</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>10007</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>10108</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>10008</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>10109</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>10009</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>10110</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>10010</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>10111</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>10011</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10112</v>
+      </c>
+      <c r="C15">
+        <v>10012</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10113</v>
+      </c>
+      <c r="C16">
+        <v>10013</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10201</v>
+      </c>
+      <c r="C17">
+        <v>10101</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10202</v>
+      </c>
+      <c r="C18">
+        <v>10102</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10203</v>
+      </c>
+      <c r="C19">
+        <v>10103</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10204</v>
+      </c>
+      <c r="C20">
+        <v>10104</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10205</v>
+      </c>
+      <c r="C21">
+        <v>10105</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10206</v>
+      </c>
+      <c r="C22">
+        <v>10106</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10207</v>
+      </c>
+      <c r="C23">
+        <v>10107</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10208</v>
+      </c>
+      <c r="C24">
+        <v>10108</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>10209</v>
+      </c>
+      <c r="C25">
+        <v>10109</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10210</v>
+      </c>
+      <c r="C26">
+        <v>10110</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10211</v>
+      </c>
+      <c r="C27">
+        <v>10111</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>10212</v>
+      </c>
+      <c r="C28">
+        <v>10112</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10213</v>
+      </c>
+      <c r="C29">
+        <v>10113</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>10301</v>
+      </c>
+      <c r="C30">
+        <v>10201</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10302</v>
+      </c>
+      <c r="C31">
+        <v>10202</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10303</v>
+      </c>
+      <c r="C32">
+        <v>10203</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>10304</v>
+      </c>
+      <c r="C33">
+        <v>10204</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4">
+        <v>10305</v>
+      </c>
+      <c r="C34">
+        <v>10205</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10306</v>
+      </c>
+      <c r="C35">
+        <v>10206</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10307</v>
+      </c>
+      <c r="C36">
+        <v>10207</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10308</v>
+      </c>
+      <c r="C37">
+        <v>10208</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <v>10309</v>
+      </c>
+      <c r="C38">
+        <v>10209</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4">
+        <v>10310</v>
+      </c>
+      <c r="C39">
+        <v>10210</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10311</v>
+      </c>
+      <c r="C40">
+        <v>10211</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10312</v>
+      </c>
+      <c r="C41">
+        <v>10212</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4">
+        <v>10313</v>
+      </c>
+      <c r="C42">
+        <v>10213</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4">
+        <v>10401</v>
+      </c>
+      <c r="C43">
+        <v>10301</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4">
+        <v>10402</v>
+      </c>
+      <c r="C44">
+        <v>10302</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>10403</v>
+      </c>
+      <c r="C45">
+        <v>10303</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10404</v>
+      </c>
+      <c r="C46">
+        <v>10304</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4">
+        <v>10405</v>
+      </c>
+      <c r="C47">
+        <v>10305</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>10406</v>
+      </c>
+      <c r="C48">
+        <v>10306</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4">
+        <v>10407</v>
+      </c>
+      <c r="C49">
+        <v>10307</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4">
+        <v>10408</v>
+      </c>
+      <c r="C50">
+        <v>10308</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4">
+        <v>10409</v>
+      </c>
+      <c r="C51">
+        <v>10309</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4">
+        <v>10410</v>
+      </c>
+      <c r="C52">
+        <v>10310</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4">
+        <v>10411</v>
+      </c>
+      <c r="C53">
+        <v>10311</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4">
+        <v>10412</v>
+      </c>
+      <c r="C54">
+        <v>10312</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4">
+        <v>10413</v>
+      </c>
+      <c r="C55">
+        <v>10313</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4">
+        <v>10501</v>
+      </c>
+      <c r="C56">
+        <v>10401</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>10112</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10012</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
+    </row>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4">
+        <v>10502</v>
+      </c>
+      <c r="C57">
+        <v>10402</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10113</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10013</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
+    </row>
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4">
+        <v>10503</v>
+      </c>
+      <c r="C58">
+        <v>10403</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
         <v>5</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10201</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10101</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4">
+        <v>10504</v>
+      </c>
+      <c r="C59">
+        <v>10404</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>3</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10202</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10102</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10203</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10103</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="H59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4">
+        <v>10505</v>
+      </c>
+      <c r="C60">
+        <v>10405</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>3</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10204</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10104</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>10205</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10105</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4">
+        <v>10506</v>
+      </c>
+      <c r="C61">
+        <v>10406</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>10206</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10106</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>10207</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10107</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="H61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4">
+        <v>10507</v>
+      </c>
+      <c r="C62">
+        <v>10407</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>3</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>10208</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10108</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
-        <v>10209</v>
-      </c>
-      <c r="C25" s="3">
-        <v>10109</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="H62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="4">
+        <v>10508</v>
+      </c>
+      <c r="C63">
+        <v>10408</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>3</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3">
-        <v>10210</v>
-      </c>
-      <c r="C26" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>3</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
-        <v>10211</v>
-      </c>
-      <c r="C27" s="3">
-        <v>10111</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4">
+        <v>10509</v>
+      </c>
+      <c r="C64">
+        <v>10409</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
         <v>3</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3">
-        <v>10212</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10112</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>3</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3">
-        <v>10213</v>
-      </c>
-      <c r="C29" s="3">
-        <v>10113</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="H64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="4">
+        <v>10510</v>
+      </c>
+      <c r="C65">
+        <v>10410</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3">
-        <v>10301</v>
-      </c>
-      <c r="C30" s="3">
-        <v>10201</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3">
-        <v>10302</v>
-      </c>
-      <c r="C31" s="3">
-        <v>10202</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3">
-        <v>10303</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10203</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3">
-        <v>10304</v>
-      </c>
-      <c r="C33" s="3">
-        <v>10204</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2</v>
-      </c>
-      <c r="H33" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3">
-        <v>10305</v>
-      </c>
-      <c r="C34" s="3">
-        <v>10205</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3">
-        <v>10306</v>
-      </c>
-      <c r="C35" s="3">
-        <v>10206</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2</v>
-      </c>
-      <c r="H35" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3">
-        <v>10307</v>
-      </c>
-      <c r="C36" s="3">
-        <v>10207</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3">
-        <v>10308</v>
-      </c>
-      <c r="C37" s="3">
-        <v>10208</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>2</v>
-      </c>
-      <c r="H37" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3">
-        <v>10309</v>
-      </c>
-      <c r="C38" s="3">
-        <v>10209</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>2</v>
-      </c>
-      <c r="H38" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>36</v>
-      </c>
-      <c r="B39" s="3">
-        <v>10310</v>
-      </c>
-      <c r="C39" s="3">
-        <v>10210</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>2</v>
-      </c>
-      <c r="H39" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3">
-        <v>10311</v>
-      </c>
-      <c r="C40" s="3">
-        <v>10211</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>2</v>
-      </c>
-      <c r="H40" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>38</v>
-      </c>
-      <c r="B41" s="3">
-        <v>10312</v>
-      </c>
-      <c r="C41" s="3">
-        <v>10212</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2</v>
-      </c>
-      <c r="H41" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3">
-        <v>10313</v>
-      </c>
-      <c r="C42" s="3">
-        <v>10213</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2</v>
-      </c>
-      <c r="H42" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3">
-        <v>10401</v>
-      </c>
-      <c r="C43" s="3">
-        <v>10301</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>41</v>
-      </c>
-      <c r="B44" s="3">
-        <v>10402</v>
-      </c>
-      <c r="C44" s="3">
-        <v>10302</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3">
-        <v>10403</v>
-      </c>
-      <c r="C45" s="3">
-        <v>10303</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>43</v>
-      </c>
-      <c r="B46" s="3">
-        <v>10404</v>
-      </c>
-      <c r="C46" s="3">
-        <v>10304</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3">
-        <v>10405</v>
-      </c>
-      <c r="C47" s="3">
-        <v>10305</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2</v>
-      </c>
-      <c r="H47" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3">
-        <v>10406</v>
-      </c>
-      <c r="C48" s="3">
-        <v>10306</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>46</v>
-      </c>
-      <c r="B49" s="3">
-        <v>10407</v>
-      </c>
-      <c r="C49" s="3">
-        <v>10307</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2</v>
-      </c>
-      <c r="H49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>47</v>
-      </c>
-      <c r="B50" s="3">
-        <v>10408</v>
-      </c>
-      <c r="C50" s="3">
-        <v>10308</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>2</v>
-      </c>
-      <c r="H50" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3">
-        <v>10409</v>
-      </c>
-      <c r="C51" s="3">
-        <v>10309</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
-        <v>2</v>
-      </c>
-      <c r="H51" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>49</v>
-      </c>
-      <c r="B52" s="3">
-        <v>10410</v>
-      </c>
-      <c r="C52" s="3">
-        <v>10310</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>50</v>
-      </c>
-      <c r="B53" s="3">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4">
+        <v>10511</v>
+      </c>
+      <c r="C66">
         <v>10411</v>
       </c>
-      <c r="C53" s="3">
-        <v>10311</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>2</v>
-      </c>
-      <c r="H53" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>51</v>
-      </c>
-      <c r="B54" s="3">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="4">
+        <v>10512</v>
+      </c>
+      <c r="C67">
         <v>10412</v>
       </c>
-      <c r="C54" s="3">
-        <v>10312</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>52</v>
-      </c>
-      <c r="B55" s="3">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="4">
+        <v>10513</v>
+      </c>
+      <c r="C68">
         <v>10413</v>
       </c>
-      <c r="C55" s="3">
-        <v>10313</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>2</v>
-      </c>
-      <c r="H55" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>53</v>
-      </c>
-      <c r="B56" s="3">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="4">
+        <v>10601</v>
+      </c>
+      <c r="C69">
         <v>10501</v>
       </c>
-      <c r="C56" s="3">
-        <v>10401</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
         <v>3</v>
       </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="H69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="4">
+        <v>10602</v>
+      </c>
+      <c r="C70">
+        <v>10502</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>3</v>
       </c>
-      <c r="H56" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>54</v>
-      </c>
-      <c r="B57" s="3">
-        <v>10502</v>
-      </c>
-      <c r="C57" s="3">
-        <v>10402</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="H70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="4">
+        <v>10603</v>
+      </c>
+      <c r="C71">
+        <v>10503</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <v>3</v>
       </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4">
+        <v>10604</v>
+      </c>
+      <c r="C72">
+        <v>10504</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>55</v>
-      </c>
-      <c r="B58" s="3">
-        <v>10503</v>
-      </c>
-      <c r="C58" s="3">
-        <v>10403</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="H72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="4">
+        <v>10605</v>
+      </c>
+      <c r="C73">
+        <v>10505</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4">
+        <v>10606</v>
+      </c>
+      <c r="C74">
+        <v>10506</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>56</v>
-      </c>
-      <c r="B59" s="3">
-        <v>10504</v>
-      </c>
-      <c r="C59" s="3">
-        <v>10404</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="H74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="4">
+        <v>10607</v>
+      </c>
+      <c r="C75">
+        <v>10507</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
         <v>3</v>
       </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4">
+        <v>10608</v>
+      </c>
+      <c r="C76">
+        <v>10508</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
         <v>3</v>
       </c>
-      <c r="H59" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>57</v>
-      </c>
-      <c r="B60" s="3">
-        <v>10505</v>
-      </c>
-      <c r="C60" s="3">
-        <v>10405</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="H76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="4">
+        <v>10609</v>
+      </c>
+      <c r="C77">
+        <v>10509</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
         <v>3</v>
       </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4">
+        <v>10610</v>
+      </c>
+      <c r="C78">
+        <v>10510</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
         <v>3</v>
       </c>
-      <c r="H60" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>58</v>
-      </c>
-      <c r="B61" s="3">
-        <v>10506</v>
-      </c>
-      <c r="C61" s="3">
-        <v>10406</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="H78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4">
+        <v>10611</v>
+      </c>
+      <c r="C79">
+        <v>10511</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
         <v>3</v>
       </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4">
+        <v>10612</v>
+      </c>
+      <c r="C80">
+        <v>10512</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
         <v>3</v>
       </c>
-      <c r="H61" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>59</v>
-      </c>
-      <c r="B62" s="3">
-        <v>10507</v>
-      </c>
-      <c r="C62" s="3">
-        <v>10407</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="H80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4">
+        <v>10613</v>
+      </c>
+      <c r="C81">
+        <v>10513</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>60</v>
-      </c>
-      <c r="B63" s="3">
-        <v>10508</v>
-      </c>
-      <c r="C63" s="3">
-        <v>10408</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>3</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3">
-        <v>3</v>
-      </c>
-      <c r="H63" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>61</v>
-      </c>
-      <c r="B64" s="3">
-        <v>10509</v>
-      </c>
-      <c r="C64" s="3">
-        <v>10409</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>3</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>3</v>
-      </c>
-      <c r="H64" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>62</v>
-      </c>
-      <c r="B65" s="3">
-        <v>10510</v>
-      </c>
-      <c r="C65" s="3">
-        <v>10410</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>3</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3">
-        <v>3</v>
-      </c>
-      <c r="H65" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>63</v>
-      </c>
-      <c r="B66" s="3">
-        <v>10511</v>
-      </c>
-      <c r="C66" s="3">
-        <v>10411</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>64</v>
-      </c>
-      <c r="B67" s="3">
-        <v>10512</v>
-      </c>
-      <c r="C67" s="3">
-        <v>10412</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
-        <v>3</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>3</v>
-      </c>
-      <c r="H67" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>65</v>
-      </c>
-      <c r="B68" s="3">
-        <v>10513</v>
-      </c>
-      <c r="C68" s="3">
-        <v>10413</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <v>3</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3">
-        <v>3</v>
-      </c>
-      <c r="H68" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>66</v>
-      </c>
-      <c r="B69" s="3">
-        <v>10601</v>
-      </c>
-      <c r="C69" s="3">
-        <v>10501</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>2</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>3</v>
-      </c>
-      <c r="H69" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>67</v>
-      </c>
-      <c r="B70" s="3">
-        <v>10602</v>
-      </c>
-      <c r="C70" s="3">
-        <v>10502</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>3</v>
-      </c>
-      <c r="H70" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>68</v>
-      </c>
-      <c r="B71" s="3">
-        <v>10603</v>
-      </c>
-      <c r="C71" s="3">
-        <v>10503</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3">
-        <v>3</v>
-      </c>
-      <c r="H71" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>69</v>
-      </c>
-      <c r="B72" s="3">
-        <v>10604</v>
-      </c>
-      <c r="C72" s="3">
-        <v>10504</v>
-      </c>
-      <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>2</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>70</v>
-      </c>
-      <c r="B73" s="3">
-        <v>10605</v>
-      </c>
-      <c r="C73" s="3">
-        <v>10505</v>
-      </c>
-      <c r="D73" s="3">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3">
-        <v>2</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3">
-        <v>3</v>
-      </c>
-      <c r="H73" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>71</v>
-      </c>
-      <c r="B74" s="3">
-        <v>10606</v>
-      </c>
-      <c r="C74" s="3">
-        <v>10506</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <v>2</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3">
-        <v>3</v>
-      </c>
-      <c r="H74" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>72</v>
-      </c>
-      <c r="B75" s="3">
-        <v>10607</v>
-      </c>
-      <c r="C75" s="3">
-        <v>10507</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3">
-        <v>2</v>
-      </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3">
-        <v>3</v>
-      </c>
-      <c r="H75" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>73</v>
-      </c>
-      <c r="B76" s="3">
-        <v>10608</v>
-      </c>
-      <c r="C76" s="3">
-        <v>10508</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>74</v>
-      </c>
-      <c r="B77" s="3">
-        <v>10609</v>
-      </c>
-      <c r="C77" s="3">
-        <v>10509</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3">
-        <v>2</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3">
-        <v>3</v>
-      </c>
-      <c r="H77" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>75</v>
-      </c>
-      <c r="B78" s="3">
-        <v>10610</v>
-      </c>
-      <c r="C78" s="3">
-        <v>10510</v>
-      </c>
-      <c r="D78" s="3">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3">
-        <v>2</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3">
-        <v>3</v>
-      </c>
-      <c r="H78" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>76</v>
-      </c>
-      <c r="B79" s="3">
-        <v>10611</v>
-      </c>
-      <c r="C79" s="3">
-        <v>10511</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3">
-        <v>2</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3">
-        <v>3</v>
-      </c>
-      <c r="H79" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>77</v>
-      </c>
-      <c r="B80" s="3">
-        <v>10612</v>
-      </c>
-      <c r="C80" s="3">
-        <v>10512</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3">
-        <v>2</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3">
-        <v>3</v>
-      </c>
-      <c r="H80" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>78</v>
-      </c>
-      <c r="B81" s="3">
-        <v>10613</v>
-      </c>
-      <c r="C81" s="3">
-        <v>10513</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3">
-        <v>2</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="H81">
         <v>200</v>
       </c>
     </row>
@@ -7277,8 +7278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7293,88 +7294,88 @@
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F121E-2F9C-40BE-BBBE-BFFC89F144DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707D4FF-2072-4248-A33F-7F84FFF9AA96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="晶片套装" sheetId="45" r:id="rId4"/>
     <sheet name="晶片槽" sheetId="46" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="197">
   <si>
     <t>sheet名</t>
   </si>
@@ -680,47 +680,114 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>槽1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[4].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[5].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleScore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【晶片套装-11】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【晶片套装-12】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性目标6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值权重6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gready</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
     <t>[x]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[3].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[4].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[5].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleScore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +985,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
@@ -935,6 +1002,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1412,27 +1482,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1440,46 +1510,49 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1487,46 +1560,49 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>168</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
       </c>
       <c r="L2" t="s">
         <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1534,46 +1610,49 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1584,39 +1663,42 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>10101</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="3">
-        <v>7</v>
-      </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>0.01</v>
       </c>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="Q4" s="6">
+      <c r="P4" s="3"/>
+      <c r="R4" s="6">
         <v>0.02</v>
       </c>
-      <c r="R4" s="7">
+      <c r="S4" s="7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1624,42 +1706,45 @@
         <v>10002</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>10102</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="3">
-        <v>7</v>
-      </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>0.01</v>
       </c>
-      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="Q5" s="6">
+      <c r="P5" s="3"/>
+      <c r="R5" s="6">
         <v>0.05</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1667,42 +1752,45 @@
         <v>10003</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>10103</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="3">
-        <v>7</v>
-      </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.02</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="Q6" s="6">
+      <c r="P6" s="3"/>
+      <c r="R6" s="6">
         <v>0.1</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1710,42 +1798,45 @@
         <v>10004</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>20</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>10104</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="3">
-        <v>7</v>
-      </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.02</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="Q7" s="6">
+      <c r="P7" s="3"/>
+      <c r="R7" s="6">
         <v>0.15</v>
       </c>
-      <c r="R7" s="7">
+      <c r="S7" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1753,42 +1844,45 @@
         <v>10005</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10105</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="3">
-        <v>7</v>
-      </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>0.01</v>
       </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="Q8" s="6">
+      <c r="P8" s="3"/>
+      <c r="R8" s="6">
         <v>0.2</v>
       </c>
-      <c r="R8" s="7">
+      <c r="S8" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1796,42 +1890,45 @@
         <v>10006</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10106</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>25</v>
-      </c>
-      <c r="K9" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>90</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="Q9" s="6">
+      <c r="P9" s="3"/>
+      <c r="R9" s="6">
         <v>0.3</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1839,42 +1936,45 @@
         <v>10007</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10107</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3">
-        <v>7</v>
-      </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>25</v>
-      </c>
-      <c r="K10" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>90</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="Q10" s="6">
+      <c r="P10" s="3"/>
+      <c r="R10" s="6">
         <v>0.4</v>
       </c>
-      <c r="R10" s="7">
+      <c r="S10" s="7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1882,36 +1982,39 @@
         <v>10008</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>10108</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>25</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>90</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1919,36 +2022,39 @@
         <v>10009</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10109</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="3">
-        <v>7</v>
-      </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>25</v>
-      </c>
-      <c r="K12" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>90</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1956,36 +2062,39 @@
         <v>10010</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>20</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>10110</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="3">
-        <v>7</v>
-      </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>150</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1993,36 +2102,39 @@
         <v>10011</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>20</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10111</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="3">
-        <v>7</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>150</v>
-      </c>
-      <c r="K14" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2030,36 +2142,39 @@
         <v>10012</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>20</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10112</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="3">
-        <v>7</v>
-      </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
-      </c>
-      <c r="K15" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2067,36 +2182,39 @@
         <v>10013</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>20</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>10113</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="3">
-        <v>7</v>
-      </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>100</v>
-      </c>
-      <c r="K16" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2104,38 +2222,40 @@
         <v>10101</v>
       </c>
       <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
-        <f>D4*5</f>
+      <c r="E17" s="3">
+        <f>E4*5</f>
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10201</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="3">
-        <v>7</v>
-      </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <f>J4*2.5</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K17" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.03</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2146,35 +2266,37 @@
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D29" si="0">D5*5</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ref="E18:E29" si="0">E5*5</f>
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10202</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="3">
-        <v>7</v>
-      </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:J29" si="1">J5*2.5</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.03</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2182,38 +2304,40 @@
         <v>10103</v>
       </c>
       <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>10203</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="3">
-        <v>7</v>
-      </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K19" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.06</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2221,38 +2345,40 @@
         <v>10104</v>
       </c>
       <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10204</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="3">
-        <v>7</v>
-      </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K20" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.06</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2260,38 +2386,40 @@
         <v>10105</v>
       </c>
       <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10205</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="3">
-        <v>7</v>
-      </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K21" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.03</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2299,38 +2427,40 @@
         <v>10106</v>
       </c>
       <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10206</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="K22" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>250</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2338,38 +2468,40 @@
         <v>10107</v>
       </c>
       <c r="C23" s="3">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10207</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="3">
-        <v>7</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="K23" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>250</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2377,38 +2509,40 @@
         <v>10108</v>
       </c>
       <c r="C24" s="3">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10208</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="3">
-        <v>7</v>
-      </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="K24" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>250</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2416,38 +2550,40 @@
         <v>10109</v>
       </c>
       <c r="C25" s="3">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>10209</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="3">
-        <v>7</v>
-      </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="K25" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>250</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2455,38 +2591,40 @@
         <v>10110</v>
       </c>
       <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10210</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="3">
-        <v>7</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="K26" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>6</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2494,38 +2632,40 @@
         <v>10111</v>
       </c>
       <c r="C27" s="3">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10211</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="3">
-        <v>7</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="K27" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>6</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2533,38 +2673,40 @@
         <v>10112</v>
       </c>
       <c r="C28" s="3">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>10212</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="3">
-        <v>7</v>
-      </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="K28" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>15</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2572,38 +2714,40 @@
         <v>10113</v>
       </c>
       <c r="C29" s="3">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>10213</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="3">
-        <v>7</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="K29" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>9</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2611,38 +2755,40 @@
         <v>10201</v>
       </c>
       <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="D30" s="3">
-        <f>D17*3</f>
+      <c r="E30" s="3">
+        <f>E17*3</f>
         <v>300</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>10301</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="3">
-        <v>7</v>
-      </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3">
-        <f>J17*2</f>
-        <v>0.05</v>
-      </c>
-      <c r="K30" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2650,38 +2796,40 @@
         <v>10202</v>
       </c>
       <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
         <v>3</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" ref="D31:D42" si="2">D18*3</f>
+      <c r="E31" s="3">
+        <f t="shared" ref="E31:E42" si="1">E18*3</f>
         <v>300</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>10302</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="3">
-        <v>7</v>
-      </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" ref="J31:J42" si="3">J18*2</f>
-        <v>0.05</v>
-      </c>
-      <c r="K31" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2692,35 +2840,37 @@
         <v>3</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10303</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="3">
-        <v>7</v>
-      </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="K32" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.13</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2728,38 +2878,40 @@
         <v>10204</v>
       </c>
       <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="2"/>
+      <c r="E33" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10304</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="3">
-        <v>7</v>
-      </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="K33" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.13</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2767,38 +2919,40 @@
         <v>10205</v>
       </c>
       <c r="C34" s="3">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
         <v>3</v>
       </c>
-      <c r="D34" s="3">
-        <f t="shared" si="2"/>
+      <c r="E34" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>10305</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="3">
-        <v>7</v>
-      </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="K34" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2806,38 +2960,40 @@
         <v>10206</v>
       </c>
       <c r="C35" s="3">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3">
         <v>3</v>
       </c>
-      <c r="D35" s="3">
-        <f t="shared" si="2"/>
+      <c r="E35" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10306</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="K35" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>550</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -2845,38 +3001,40 @@
         <v>10207</v>
       </c>
       <c r="C36" s="3">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3">
         <v>3</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" si="2"/>
+      <c r="E36" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>10307</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="3">
-        <v>7</v>
-      </c>
       <c r="H36" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="K36" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>550</v>
+      </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2884,38 +3042,40 @@
         <v>10208</v>
       </c>
       <c r="C37" s="3">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3">
         <v>3</v>
       </c>
-      <c r="D37" s="3">
-        <f t="shared" si="2"/>
+      <c r="E37" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>10308</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="3">
-        <v>7</v>
-      </c>
       <c r="H37" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="K37" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>550</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -2923,38 +3083,40 @@
         <v>10209</v>
       </c>
       <c r="C38" s="3">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="D38" s="3">
-        <f t="shared" si="2"/>
+      <c r="E38" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>10309</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="3">
-        <v>7</v>
-      </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="K38" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>550</v>
+      </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -2962,38 +3124,40 @@
         <v>10210</v>
       </c>
       <c r="C39" s="3">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3">
         <v>3</v>
       </c>
-      <c r="D39" s="3">
-        <f t="shared" si="2"/>
+      <c r="E39" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>10310</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="3">
-        <v>7</v>
-      </c>
       <c r="H39" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-      <c r="K39" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>13</v>
+      </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3001,38 +3165,40 @@
         <v>10211</v>
       </c>
       <c r="C40" s="3">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3">
         <v>3</v>
       </c>
-      <c r="D40" s="3">
-        <f t="shared" si="2"/>
+      <c r="E40" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>10311</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="3">
-        <v>7</v>
-      </c>
       <c r="H40" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-      <c r="K40" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>13</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3040,38 +3206,40 @@
         <v>10212</v>
       </c>
       <c r="C41" s="3">
+        <v>12</v>
+      </c>
+      <c r="D41" s="3">
         <v>3</v>
       </c>
-      <c r="D41" s="3">
-        <f t="shared" si="2"/>
+      <c r="E41" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10312</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G41" s="3">
-        <v>7</v>
-      </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="K41" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>32</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3079,38 +3247,40 @@
         <v>10213</v>
       </c>
       <c r="C42" s="3">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="D42" s="3">
-        <f t="shared" si="2"/>
+      <c r="E42" s="3">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10313</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="3">
-        <v>7</v>
-      </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="K42" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>20</v>
+      </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3118,38 +3288,40 @@
         <v>10301</v>
       </c>
       <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
         <v>4</v>
       </c>
-      <c r="D43" s="3">
-        <f>D30*2</f>
+      <c r="E43" s="3">
+        <f>E30*2</f>
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10401</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="3">
-        <v>7</v>
-      </c>
       <c r="H43" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="3">
-        <f>J30*1.5</f>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="K43" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.15</v>
+      </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3157,38 +3329,40 @@
         <v>10302</v>
       </c>
       <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="D44" s="3">
-        <f t="shared" ref="D44:D55" si="4">D31*2</f>
+      <c r="E44" s="3">
+        <f t="shared" ref="E44:E55" si="2">E31*2</f>
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10402</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="3">
-        <v>7</v>
-      </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" ref="J44:J55" si="5">J31*1.5</f>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="K44" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.15</v>
+      </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -3196,38 +3370,40 @@
         <v>10303</v>
       </c>
       <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3">
         <v>4</v>
       </c>
-      <c r="D45" s="3">
-        <f t="shared" si="4"/>
+      <c r="E45" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10403</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="3">
-        <v>7</v>
-      </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="5"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="K45" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.3</v>
+      </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -3238,35 +3414,37 @@
         <v>4</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10404</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="3">
-        <v>7</v>
-      </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="5"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="K46" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.3</v>
+      </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -3274,38 +3452,40 @@
         <v>10305</v>
       </c>
       <c r="C47" s="3">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3">
         <v>4</v>
       </c>
-      <c r="D47" s="3">
-        <f t="shared" si="4"/>
+      <c r="E47" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10405</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="3">
-        <v>7</v>
-      </c>
       <c r="H47" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="5"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="K47" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.15</v>
+      </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -3313,38 +3493,40 @@
         <v>10306</v>
       </c>
       <c r="C48" s="3">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3">
         <v>4</v>
       </c>
-      <c r="D48" s="3">
-        <f t="shared" si="4"/>
+      <c r="E48" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10406</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="5"/>
-        <v>187.5</v>
-      </c>
-      <c r="K48" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>800</v>
+      </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -3352,38 +3534,40 @@
         <v>10307</v>
       </c>
       <c r="C49" s="3">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3">
         <v>4</v>
       </c>
-      <c r="D49" s="3">
-        <f t="shared" si="4"/>
+      <c r="E49" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10407</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="3">
-        <v>7</v>
-      </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="5"/>
-        <v>187.5</v>
-      </c>
-      <c r="K49" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>800</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -3391,38 +3575,40 @@
         <v>10308</v>
       </c>
       <c r="C50" s="3">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3">
         <v>4</v>
       </c>
-      <c r="D50" s="3">
-        <f t="shared" si="4"/>
+      <c r="E50" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>10408</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="3">
-        <v>7</v>
-      </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="5"/>
-        <v>187.5</v>
-      </c>
-      <c r="K50" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>800</v>
+      </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -3430,38 +3616,40 @@
         <v>10309</v>
       </c>
       <c r="C51" s="3">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3">
         <v>4</v>
       </c>
-      <c r="D51" s="3">
-        <f t="shared" si="4"/>
+      <c r="E51" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>10409</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="3">
-        <v>7</v>
-      </c>
       <c r="H51" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="5"/>
-        <v>187.5</v>
-      </c>
-      <c r="K51" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>800</v>
+      </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -3469,38 +3657,40 @@
         <v>10310</v>
       </c>
       <c r="C52" s="3">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3">
         <v>4</v>
       </c>
-      <c r="D52" s="3">
-        <f t="shared" si="4"/>
+      <c r="E52" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10410</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>7</v>
-      </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="5"/>
-        <v>1125</v>
-      </c>
-      <c r="K52" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>30</v>
+      </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -3508,38 +3698,40 @@
         <v>10311</v>
       </c>
       <c r="C53" s="3">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3">
         <v>4</v>
       </c>
-      <c r="D53" s="3">
-        <f t="shared" si="4"/>
+      <c r="E53" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="3">
         <v>10411</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="3">
-        <v>7</v>
-      </c>
       <c r="H53" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I53" s="3">
         <v>0</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="5"/>
-        <v>1125</v>
-      </c>
-      <c r="K53" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>30</v>
+      </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -3547,38 +3739,40 @@
         <v>10312</v>
       </c>
       <c r="C54" s="3">
+        <v>12</v>
+      </c>
+      <c r="D54" s="3">
         <v>4</v>
       </c>
-      <c r="D54" s="3">
-        <f t="shared" si="4"/>
+      <c r="E54" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10412</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="3">
-        <v>7</v>
-      </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="5"/>
-        <v>750</v>
-      </c>
-      <c r="K54" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>50</v>
+      </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -3586,38 +3780,40 @@
         <v>10313</v>
       </c>
       <c r="C55" s="3">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3">
         <v>4</v>
       </c>
-      <c r="D55" s="3">
-        <f t="shared" si="4"/>
+      <c r="E55" s="3">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>10413</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="3">
-        <v>7</v>
-      </c>
       <c r="H55" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="5"/>
-        <v>750</v>
-      </c>
-      <c r="K55" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>30</v>
+      </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -3625,38 +3821,40 @@
         <v>10401</v>
       </c>
       <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
         <v>5</v>
       </c>
-      <c r="D56" s="3">
-        <f t="shared" ref="D56:D68" si="6">D43*2</f>
+      <c r="E56" s="3">
+        <f t="shared" ref="E56:E68" si="3">E43*2</f>
         <v>1200</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>10501</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G56" s="3">
-        <v>7</v>
-      </c>
       <c r="H56" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="3">
-        <f>J43/1.5*2</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="K56" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.2</v>
+      </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -3664,38 +3862,40 @@
         <v>10402</v>
       </c>
       <c r="C57" s="3">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
         <v>5</v>
       </c>
-      <c r="D57" s="3">
-        <f t="shared" si="6"/>
+      <c r="E57" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10502</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="3">
-        <v>7</v>
-      </c>
       <c r="H57" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" ref="J57:J68" si="7">J44/1.5*2</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="K57" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0.2</v>
+      </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -3703,38 +3903,40 @@
         <v>10403</v>
       </c>
       <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
         <v>5</v>
       </c>
-      <c r="D58" s="3">
-        <f t="shared" si="6"/>
+      <c r="E58" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10503</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="3">
-        <v>7</v>
-      </c>
       <c r="H58" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="K58" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.4</v>
+      </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -3742,38 +3944,40 @@
         <v>10404</v>
       </c>
       <c r="C59" s="3">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3">
         <v>5</v>
       </c>
-      <c r="D59" s="3">
-        <f t="shared" si="6"/>
+      <c r="E59" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10504</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G59" s="3">
-        <v>7</v>
-      </c>
       <c r="H59" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="K59" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.4</v>
+      </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -3784,35 +3988,37 @@
         <v>5</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10505</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="3">
-        <v>7</v>
-      </c>
       <c r="H60" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="K60" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.2</v>
+      </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -3820,38 +4026,40 @@
         <v>10406</v>
       </c>
       <c r="C61" s="3">
+        <v>6</v>
+      </c>
+      <c r="D61" s="3">
         <v>5</v>
       </c>
-      <c r="D61" s="3">
-        <f t="shared" si="6"/>
+      <c r="E61" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10506</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="G61" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="K61" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1300</v>
+      </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -3859,38 +4067,40 @@
         <v>10407</v>
       </c>
       <c r="C62" s="3">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3">
         <v>5</v>
       </c>
-      <c r="D62" s="3">
-        <f t="shared" si="6"/>
+      <c r="E62" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10507</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="3">
-        <v>7</v>
-      </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="K62" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1300</v>
+      </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -3898,38 +4108,40 @@
         <v>10408</v>
       </c>
       <c r="C63" s="3">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3">
         <v>5</v>
       </c>
-      <c r="D63" s="3">
-        <f t="shared" si="6"/>
+      <c r="E63" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="3">
         <v>10508</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="3">
-        <v>7</v>
-      </c>
       <c r="H63" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I63" s="3">
         <v>0</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="K63" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1300</v>
+      </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -3937,38 +4149,40 @@
         <v>10409</v>
       </c>
       <c r="C64" s="3">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3">
         <v>5</v>
       </c>
-      <c r="D64" s="3">
-        <f t="shared" si="6"/>
+      <c r="E64" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F64" s="3">
         <v>10509</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="3">
-        <v>7</v>
-      </c>
       <c r="H64" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I64" s="3">
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="K64" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1300</v>
+      </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -3976,38 +4190,40 @@
         <v>10410</v>
       </c>
       <c r="C65" s="3">
+        <v>10</v>
+      </c>
+      <c r="D65" s="3">
         <v>5</v>
       </c>
-      <c r="D65" s="3">
-        <f t="shared" si="6"/>
+      <c r="E65" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>10510</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="3">
-        <v>7</v>
-      </c>
       <c r="H65" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I65" s="3">
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="K65" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>40</v>
+      </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -4015,38 +4231,40 @@
         <v>10411</v>
       </c>
       <c r="C66" s="3">
+        <v>11</v>
+      </c>
+      <c r="D66" s="3">
         <v>5</v>
       </c>
-      <c r="D66" s="3">
-        <f t="shared" si="6"/>
+      <c r="E66" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10511</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G66" s="3">
-        <v>7</v>
-      </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="K66" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>40</v>
+      </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -4054,38 +4272,40 @@
         <v>10412</v>
       </c>
       <c r="C67" s="3">
+        <v>12</v>
+      </c>
+      <c r="D67" s="3">
         <v>5</v>
       </c>
-      <c r="D67" s="3">
-        <f t="shared" si="6"/>
+      <c r="E67" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E67" s="3">
+      <c r="F67" s="3">
         <v>10512</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="3">
-        <v>7</v>
-      </c>
       <c r="H67" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I67" s="3">
         <v>0</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="K67" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <v>75</v>
+      </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -4093,38 +4313,40 @@
         <v>10413</v>
       </c>
       <c r="C68" s="3">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3">
         <v>5</v>
       </c>
-      <c r="D68" s="3">
-        <f t="shared" si="6"/>
+      <c r="E68" s="3">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F68" s="3">
         <v>10513</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="3">
-        <v>7</v>
-      </c>
       <c r="H68" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="K68" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>45</v>
+      </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -4132,38 +4354,40 @@
         <v>10501</v>
       </c>
       <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
         <v>6</v>
       </c>
-      <c r="D69" s="3">
-        <f>D56*3</f>
+      <c r="E69" s="3">
+        <f>E56*3</f>
         <v>3600</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="3">
         <v>10601</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="3">
-        <v>7</v>
-      </c>
       <c r="H69" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="3">
-        <f>J56/2*3</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="K69" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0.3</v>
+      </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -4171,38 +4395,40 @@
         <v>10502</v>
       </c>
       <c r="C70" s="3">
+        <v>2</v>
+      </c>
+      <c r="D70" s="3">
         <v>6</v>
       </c>
-      <c r="D70" s="3">
-        <f t="shared" ref="D70:D81" si="8">D57*3</f>
+      <c r="E70" s="3">
+        <f t="shared" ref="E70:E81" si="4">E57*3</f>
         <v>3600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>10602</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G70" s="3">
-        <v>7</v>
-      </c>
       <c r="H70" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" ref="J70:J81" si="9">J57/2*3</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="K70" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0.3</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -4210,38 +4436,40 @@
         <v>10503</v>
       </c>
       <c r="C71" s="3">
+        <v>3</v>
+      </c>
+      <c r="D71" s="3">
         <v>6</v>
       </c>
-      <c r="D71" s="3">
-        <f t="shared" si="8"/>
+      <c r="E71" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E71" s="3">
+      <c r="F71" s="3">
         <v>10603</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G71" s="3">
-        <v>7</v>
-      </c>
       <c r="H71" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="9"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="K71" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0.6</v>
+      </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -4249,38 +4477,40 @@
         <v>10504</v>
       </c>
       <c r="C72" s="3">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3">
         <v>6</v>
       </c>
-      <c r="D72" s="3">
-        <f t="shared" si="8"/>
+      <c r="E72" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10604</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="3">
-        <v>7</v>
-      </c>
       <c r="H72" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="9"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="K72" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0.6</v>
+      </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -4288,38 +4518,40 @@
         <v>10505</v>
       </c>
       <c r="C73" s="3">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3">
         <v>6</v>
       </c>
-      <c r="D73" s="3">
-        <f t="shared" si="8"/>
+      <c r="E73" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="3">
         <v>10605</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G73" s="3">
-        <v>7</v>
-      </c>
       <c r="H73" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="9"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="K73" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0.3</v>
+      </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -4330,35 +4562,37 @@
         <v>6</v>
       </c>
       <c r="D74" s="3">
-        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="3">
         <v>10606</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="3">
+      <c r="G74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H74" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I74" s="3">
         <v>0</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" si="9"/>
-        <v>375</v>
-      </c>
-      <c r="K74" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <v>2500</v>
+      </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -4366,38 +4600,40 @@
         <v>10507</v>
       </c>
       <c r="C75" s="3">
+        <v>7</v>
+      </c>
+      <c r="D75" s="3">
         <v>6</v>
       </c>
-      <c r="D75" s="3">
-        <f t="shared" si="8"/>
+      <c r="E75" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>10607</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="3">
-        <v>7</v>
-      </c>
       <c r="H75" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I75" s="3">
         <v>0</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" si="9"/>
-        <v>375</v>
-      </c>
-      <c r="K75" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>2500</v>
+      </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -4405,38 +4641,40 @@
         <v>10508</v>
       </c>
       <c r="C76" s="3">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3">
         <v>6</v>
       </c>
-      <c r="D76" s="3">
-        <f t="shared" si="8"/>
+      <c r="E76" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10608</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="3">
-        <v>7</v>
-      </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" si="9"/>
-        <v>375</v>
-      </c>
-      <c r="K76" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2500</v>
+      </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -4444,38 +4682,40 @@
         <v>10509</v>
       </c>
       <c r="C77" s="3">
+        <v>9</v>
+      </c>
+      <c r="D77" s="3">
         <v>6</v>
       </c>
-      <c r="D77" s="3">
-        <f t="shared" si="8"/>
+      <c r="E77" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="3">
         <v>10609</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="3">
-        <v>7</v>
-      </c>
       <c r="H77" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I77" s="3">
         <v>0</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="9"/>
-        <v>375</v>
-      </c>
-      <c r="K77" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <v>2500</v>
+      </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P77" s="3"/>
+    </row>
+    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -4483,38 +4723,40 @@
         <v>10510</v>
       </c>
       <c r="C78" s="3">
+        <v>10</v>
+      </c>
+      <c r="D78" s="3">
         <v>6</v>
       </c>
-      <c r="D78" s="3">
-        <f t="shared" si="8"/>
+      <c r="E78" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="3">
         <v>10610</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="3">
-        <v>7</v>
-      </c>
       <c r="H78" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I78" s="3">
         <v>0</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" si="9"/>
-        <v>2250</v>
-      </c>
-      <c r="K78" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>60</v>
+      </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-    </row>
-    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P78" s="3"/>
+    </row>
+    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -4522,38 +4764,40 @@
         <v>10511</v>
       </c>
       <c r="C79" s="3">
+        <v>11</v>
+      </c>
+      <c r="D79" s="3">
         <v>6</v>
       </c>
-      <c r="D79" s="3">
-        <f t="shared" si="8"/>
+      <c r="E79" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E79" s="3">
+      <c r="F79" s="3">
         <v>10611</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G79" s="3">
-        <v>7</v>
-      </c>
       <c r="H79" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I79" s="3">
         <v>0</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" si="9"/>
-        <v>2250</v>
-      </c>
-      <c r="K79" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>60</v>
+      </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-    </row>
-    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P79" s="3"/>
+    </row>
+    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -4561,38 +4805,40 @@
         <v>10512</v>
       </c>
       <c r="C80" s="3">
+        <v>12</v>
+      </c>
+      <c r="D80" s="3">
         <v>6</v>
       </c>
-      <c r="D80" s="3">
-        <f t="shared" si="8"/>
+      <c r="E80" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="3">
         <v>10612</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G80" s="3">
-        <v>7</v>
-      </c>
       <c r="H80" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I80" s="3">
         <v>0</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="K80" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <v>135</v>
+      </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-    </row>
-    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P80" s="3"/>
+    </row>
+    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -4600,38 +4846,40 @@
         <v>10513</v>
       </c>
       <c r="C81" s="3">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3">
         <v>6</v>
       </c>
-      <c r="D81" s="3">
-        <f t="shared" si="8"/>
+      <c r="E81" s="3">
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10613</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="3">
-        <v>7</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="K81" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>80</v>
+      </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -4639,38 +4887,40 @@
         <v>10601</v>
       </c>
       <c r="C82" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D82" s="3">
-        <f t="shared" ref="D82:D94" si="10">D69*2</f>
+        <v>7</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" ref="E82:E107" si="5">E69*2</f>
         <v>7200</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="3">
+        <v>10701</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G82" s="3">
-        <v>7</v>
-      </c>
       <c r="H82" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" s="3">
-        <f>J69/3*4</f>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="K82" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0.45</v>
+      </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -4678,38 +4928,40 @@
         <v>10602</v>
       </c>
       <c r="C83" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D83" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="3">
+        <v>10702</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G83" s="3">
-        <v>7</v>
-      </c>
       <c r="H83" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" ref="J83:J94" si="11">J70/3*4</f>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="K83" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0.45</v>
+      </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -4717,38 +4969,40 @@
         <v>10603</v>
       </c>
       <c r="C84" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D84" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="3">
+        <v>10703</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G84" s="3">
-        <v>7</v>
-      </c>
       <c r="H84" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="3">
-        <f t="shared" si="11"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="K84" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0.9</v>
+      </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -4756,38 +5010,40 @@
         <v>10604</v>
       </c>
       <c r="C85" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="3">
+        <v>10704</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G85" s="3">
-        <v>7</v>
-      </c>
       <c r="H85" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="3">
-        <f t="shared" si="11"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="K85" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0.9</v>
+      </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -4795,38 +5051,40 @@
         <v>10605</v>
       </c>
       <c r="C86" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="3">
+        <v>10705</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G86" s="3">
-        <v>7</v>
-      </c>
       <c r="H86" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="11"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="K86" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0.45</v>
+      </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -4834,38 +5092,40 @@
         <v>10606</v>
       </c>
       <c r="C87" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="3">
+      <c r="F87" s="3">
+        <v>10706</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H87" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I87" s="3">
         <v>0</v>
       </c>
       <c r="J87" s="3">
-        <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-      <c r="K87" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <v>3500</v>
+      </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -4876,35 +5136,37 @@
         <v>7</v>
       </c>
       <c r="D88" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="3">
+        <v>10707</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G88" s="3">
-        <v>7</v>
-      </c>
       <c r="H88" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I88" s="3">
         <v>0</v>
       </c>
       <c r="J88" s="3">
-        <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-      <c r="K88" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <v>3500</v>
+      </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -4912,38 +5174,40 @@
         <v>10608</v>
       </c>
       <c r="C89" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="3">
+        <v>10708</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="3">
-        <v>7</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-      <c r="K89" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>3500</v>
+      </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -4951,38 +5215,40 @@
         <v>10609</v>
       </c>
       <c r="C90" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D90" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="3">
+        <v>10709</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="3">
-        <v>7</v>
-      </c>
       <c r="H90" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I90" s="3">
         <v>0</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-      <c r="K90" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <v>3500</v>
+      </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -4990,38 +5256,40 @@
         <v>10610</v>
       </c>
       <c r="C91" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="3">
+        <v>10710</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>7</v>
-      </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="K91" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>90</v>
+      </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -5029,38 +5297,40 @@
         <v>10611</v>
       </c>
       <c r="C92" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D92" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="3">
+        <v>10711</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G92" s="3">
-        <v>7</v>
-      </c>
       <c r="H92" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I92" s="3">
         <v>0</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="K92" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>90</v>
+      </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -5068,38 +5338,40 @@
         <v>10612</v>
       </c>
       <c r="C93" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D93" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="3">
+        <v>10712</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G93" s="3">
-        <v>7</v>
-      </c>
       <c r="H93" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I93" s="3">
         <v>0</v>
       </c>
       <c r="J93" s="3">
-        <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="K93" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="3">
+        <v>190</v>
+      </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -5107,36 +5379,1637 @@
         <v>10613</v>
       </c>
       <c r="C94" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D94" s="3">
-        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="3">
+        <v>10713</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="3">
-        <v>7</v>
-      </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="K94" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>114.99999999999999</v>
+      </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>79</v>
+      </c>
+      <c r="B95" s="3">
+        <v>10701</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3">
+        <v>8</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F95" s="3">
+        <v>10801</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" s="3">
+        <v>7</v>
+      </c>
+      <c r="I95" s="3">
+        <v>1</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>80</v>
+      </c>
+      <c r="B96" s="3">
+        <v>10702</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3">
+        <v>8</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F96" s="3">
+        <v>10802</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H96" s="3">
+        <v>7</v>
+      </c>
+      <c r="I96" s="3">
+        <v>1</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>81</v>
+      </c>
+      <c r="B97" s="3">
+        <v>10703</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3</v>
+      </c>
+      <c r="D97" s="3">
+        <v>8</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F97" s="3">
+        <v>10803</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="3">
+        <v>7</v>
+      </c>
+      <c r="I97" s="3">
+        <v>1</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>82</v>
+      </c>
+      <c r="B98" s="3">
+        <v>10704</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4</v>
+      </c>
+      <c r="D98" s="3">
+        <v>8</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F98" s="3">
+        <v>10804</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" s="3">
+        <v>7</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>83</v>
+      </c>
+      <c r="B99" s="3">
+        <v>10705</v>
+      </c>
+      <c r="C99" s="3">
+        <v>5</v>
+      </c>
+      <c r="D99" s="3">
+        <v>8</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F99" s="3">
+        <v>10805</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H99" s="3">
+        <v>7</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>84</v>
+      </c>
+      <c r="B100" s="3">
+        <v>10706</v>
+      </c>
+      <c r="C100" s="3">
+        <v>6</v>
+      </c>
+      <c r="D100" s="3">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>10806</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="3">
+        <v>7</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>85</v>
+      </c>
+      <c r="B101" s="3">
+        <v>10707</v>
+      </c>
+      <c r="C101" s="3">
+        <v>7</v>
+      </c>
+      <c r="D101" s="3">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>10807</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="3">
+        <v>7</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>86</v>
+      </c>
+      <c r="B102" s="3">
+        <v>10708</v>
+      </c>
+      <c r="C102" s="3">
+        <v>8</v>
+      </c>
+      <c r="D102" s="3">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>10808</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="3">
+        <v>7</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+    </row>
+    <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>87</v>
+      </c>
+      <c r="B103" s="3">
+        <v>10709</v>
+      </c>
+      <c r="C103" s="3">
+        <v>9</v>
+      </c>
+      <c r="D103" s="3">
+        <v>8</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F103" s="3">
+        <v>10809</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="3">
+        <v>7</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+    </row>
+    <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>88</v>
+      </c>
+      <c r="B104" s="3">
+        <v>10710</v>
+      </c>
+      <c r="C104" s="3">
+        <v>10</v>
+      </c>
+      <c r="D104" s="3">
+        <v>8</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F104" s="3">
+        <v>10810</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="3">
+        <v>7</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>120</v>
+      </c>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+    </row>
+    <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>89</v>
+      </c>
+      <c r="B105" s="3">
+        <v>10711</v>
+      </c>
+      <c r="C105" s="3">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3">
+        <v>8</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F105" s="3">
+        <v>10811</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="3">
+        <v>7</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0</v>
+      </c>
+      <c r="K105" s="3">
+        <v>120</v>
+      </c>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+    </row>
+    <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>90</v>
+      </c>
+      <c r="B106" s="3">
+        <v>10712</v>
+      </c>
+      <c r="C106" s="3">
+        <v>12</v>
+      </c>
+      <c r="D106" s="3">
+        <v>8</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F106" s="3">
+        <v>10812</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H106" s="3">
+        <v>7</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+      <c r="K106" s="3">
+        <v>260</v>
+      </c>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+    </row>
+    <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>91</v>
+      </c>
+      <c r="B107" s="3">
+        <v>10713</v>
+      </c>
+      <c r="C107" s="3">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3">
+        <v>8</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="F107" s="3">
+        <v>10813</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="3">
+        <v>7</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3">
+        <v>0</v>
+      </c>
+      <c r="K107" s="3">
+        <v>150</v>
+      </c>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+    </row>
+    <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>92</v>
+      </c>
+      <c r="B108" s="3">
+        <v>10801</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3">
+        <v>9</v>
+      </c>
+      <c r="E108" s="3">
+        <f>E95*3</f>
+        <v>43200</v>
+      </c>
+      <c r="F108" s="3">
+        <v>10901</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H108" s="3">
+        <v>7</v>
+      </c>
+      <c r="I108" s="3">
+        <v>1</v>
+      </c>
+      <c r="J108" s="3">
+        <v>0</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+    </row>
+    <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>93</v>
+      </c>
+      <c r="B109" s="3">
+        <v>10802</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2</v>
+      </c>
+      <c r="D109" s="3">
+        <v>9</v>
+      </c>
+      <c r="E109" s="3">
+        <f t="shared" ref="E109:E120" si="6">E96*3</f>
+        <v>43200</v>
+      </c>
+      <c r="F109" s="3">
+        <v>10902</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H109" s="3">
+        <v>7</v>
+      </c>
+      <c r="I109" s="3">
+        <v>1</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+    </row>
+    <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>94</v>
+      </c>
+      <c r="B110" s="3">
+        <v>10803</v>
+      </c>
+      <c r="C110" s="3">
+        <v>3</v>
+      </c>
+      <c r="D110" s="3">
+        <v>9</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F110" s="3">
+        <v>10903</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H110" s="3">
+        <v>7</v>
+      </c>
+      <c r="I110" s="3">
+        <v>1</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+    </row>
+    <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>95</v>
+      </c>
+      <c r="B111" s="3">
+        <v>10804</v>
+      </c>
+      <c r="C111" s="3">
+        <v>4</v>
+      </c>
+      <c r="D111" s="3">
+        <v>9</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F111" s="3">
+        <v>10904</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H111" s="3">
+        <v>7</v>
+      </c>
+      <c r="I111" s="3">
+        <v>1</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+    </row>
+    <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>96</v>
+      </c>
+      <c r="B112" s="3">
+        <v>10805</v>
+      </c>
+      <c r="C112" s="3">
+        <v>5</v>
+      </c>
+      <c r="D112" s="3">
+        <v>9</v>
+      </c>
+      <c r="E112" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F112" s="3">
+        <v>10905</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" s="3">
+        <v>7</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+    </row>
+    <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>97</v>
+      </c>
+      <c r="B113" s="3">
+        <v>10806</v>
+      </c>
+      <c r="C113" s="3">
+        <v>6</v>
+      </c>
+      <c r="D113" s="3">
+        <v>9</v>
+      </c>
+      <c r="E113" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F113" s="3">
+        <v>10906</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="3">
+        <v>7</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+    </row>
+    <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>98</v>
+      </c>
+      <c r="B114" s="3">
+        <v>10807</v>
+      </c>
+      <c r="C114" s="3">
+        <v>7</v>
+      </c>
+      <c r="D114" s="3">
+        <v>9</v>
+      </c>
+      <c r="E114" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F114" s="3">
+        <v>10907</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="3">
+        <v>7</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+      <c r="K114" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+    </row>
+    <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>99</v>
+      </c>
+      <c r="B115" s="3">
+        <v>10808</v>
+      </c>
+      <c r="C115" s="3">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3">
+        <v>9</v>
+      </c>
+      <c r="E115" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F115" s="3">
+        <v>10908</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="3">
+        <v>7</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0</v>
+      </c>
+      <c r="K115" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+    </row>
+    <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>100</v>
+      </c>
+      <c r="B116" s="3">
+        <v>10809</v>
+      </c>
+      <c r="C116" s="3">
+        <v>9</v>
+      </c>
+      <c r="D116" s="3">
+        <v>9</v>
+      </c>
+      <c r="E116" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F116" s="3">
+        <v>10909</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="3">
+        <v>7</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+      <c r="K116" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+    </row>
+    <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>101</v>
+      </c>
+      <c r="B117" s="3">
+        <v>10810</v>
+      </c>
+      <c r="C117" s="3">
+        <v>10</v>
+      </c>
+      <c r="D117" s="3">
+        <v>9</v>
+      </c>
+      <c r="E117" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F117" s="3">
+        <v>10910</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="3">
+        <v>7</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <v>170</v>
+      </c>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+    </row>
+    <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>102</v>
+      </c>
+      <c r="B118" s="3">
+        <v>10811</v>
+      </c>
+      <c r="C118" s="3">
+        <v>11</v>
+      </c>
+      <c r="D118" s="3">
+        <v>9</v>
+      </c>
+      <c r="E118" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F118" s="3">
+        <v>10911</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" s="3">
+        <v>7</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>170</v>
+      </c>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+    </row>
+    <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>103</v>
+      </c>
+      <c r="B119" s="3">
+        <v>10812</v>
+      </c>
+      <c r="C119" s="3">
+        <v>12</v>
+      </c>
+      <c r="D119" s="3">
+        <v>9</v>
+      </c>
+      <c r="E119" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F119" s="3">
+        <v>10912</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" s="3">
+        <v>7</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+      <c r="K119" s="3">
+        <v>420</v>
+      </c>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+    </row>
+    <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>104</v>
+      </c>
+      <c r="B120" s="3">
+        <v>10813</v>
+      </c>
+      <c r="C120" s="3">
+        <v>13</v>
+      </c>
+      <c r="D120" s="3">
+        <v>9</v>
+      </c>
+      <c r="E120" s="3">
+        <f t="shared" si="6"/>
+        <v>43200</v>
+      </c>
+      <c r="F120" s="3">
+        <v>10913</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="3">
+        <v>7</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0</v>
+      </c>
+      <c r="K120" s="3">
+        <v>250</v>
+      </c>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+    </row>
+    <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>105</v>
+      </c>
+      <c r="B121" s="3">
+        <v>10901</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="3">
+        <v>10</v>
+      </c>
+      <c r="E121" s="3">
+        <f>E108*2</f>
+        <v>86400</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H121" s="3">
+        <v>7</v>
+      </c>
+      <c r="I121" s="3">
+        <v>1</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+      <c r="K121" s="3">
+        <v>1</v>
+      </c>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+    </row>
+    <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>106</v>
+      </c>
+      <c r="B122" s="3">
+        <v>10902</v>
+      </c>
+      <c r="C122" s="3">
+        <v>2</v>
+      </c>
+      <c r="D122" s="3">
+        <v>10</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" ref="E122:E133" si="7">E109*2</f>
+        <v>86400</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H122" s="3">
+        <v>7</v>
+      </c>
+      <c r="I122" s="3">
+        <v>1</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0</v>
+      </c>
+      <c r="K122" s="3">
+        <v>1</v>
+      </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+    </row>
+    <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>107</v>
+      </c>
+      <c r="B123" s="3">
+        <v>10903</v>
+      </c>
+      <c r="C123" s="3">
+        <v>3</v>
+      </c>
+      <c r="D123" s="3">
+        <v>10</v>
+      </c>
+      <c r="E123" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H123" s="3">
+        <v>7</v>
+      </c>
+      <c r="I123" s="3">
+        <v>1</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>2</v>
+      </c>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+    </row>
+    <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>108</v>
+      </c>
+      <c r="B124" s="3">
+        <v>10904</v>
+      </c>
+      <c r="C124" s="3">
+        <v>4</v>
+      </c>
+      <c r="D124" s="3">
+        <v>10</v>
+      </c>
+      <c r="E124" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H124" s="3">
+        <v>7</v>
+      </c>
+      <c r="I124" s="3">
+        <v>1</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>2</v>
+      </c>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+    </row>
+    <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>109</v>
+      </c>
+      <c r="B125" s="3">
+        <v>10905</v>
+      </c>
+      <c r="C125" s="3">
+        <v>5</v>
+      </c>
+      <c r="D125" s="3">
+        <v>10</v>
+      </c>
+      <c r="E125" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H125" s="3">
+        <v>7</v>
+      </c>
+      <c r="I125" s="3">
+        <v>1</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0</v>
+      </c>
+      <c r="K125" s="3">
+        <v>1</v>
+      </c>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+    </row>
+    <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>110</v>
+      </c>
+      <c r="B126" s="3">
+        <v>10906</v>
+      </c>
+      <c r="C126" s="3">
+        <v>6</v>
+      </c>
+      <c r="D126" s="3">
+        <v>10</v>
+      </c>
+      <c r="E126" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="3">
+        <v>7</v>
+      </c>
+      <c r="I126" s="3">
+        <v>0</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0</v>
+      </c>
+      <c r="K126" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+    </row>
+    <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>111</v>
+      </c>
+      <c r="B127" s="3">
+        <v>10907</v>
+      </c>
+      <c r="C127" s="3">
+        <v>7</v>
+      </c>
+      <c r="D127" s="3">
+        <v>10</v>
+      </c>
+      <c r="E127" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="3">
+        <v>7</v>
+      </c>
+      <c r="I127" s="3">
+        <v>0</v>
+      </c>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
+      <c r="K127" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+    </row>
+    <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>112</v>
+      </c>
+      <c r="B128" s="3">
+        <v>10908</v>
+      </c>
+      <c r="C128" s="3">
+        <v>8</v>
+      </c>
+      <c r="D128" s="3">
+        <v>10</v>
+      </c>
+      <c r="E128" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="3">
+        <v>7</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3">
+        <v>0</v>
+      </c>
+      <c r="K128" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+    </row>
+    <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>113</v>
+      </c>
+      <c r="B129" s="3">
+        <v>10909</v>
+      </c>
+      <c r="C129" s="3">
+        <v>9</v>
+      </c>
+      <c r="D129" s="3">
+        <v>10</v>
+      </c>
+      <c r="E129" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="3">
+        <v>7</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0</v>
+      </c>
+      <c r="K129" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+    </row>
+    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>114</v>
+      </c>
+      <c r="B130" s="3">
+        <v>10910</v>
+      </c>
+      <c r="C130" s="3">
+        <v>10</v>
+      </c>
+      <c r="D130" s="3">
+        <v>10</v>
+      </c>
+      <c r="E130" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="3">
+        <v>7</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
+      <c r="K130" s="3">
+        <v>200</v>
+      </c>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+    </row>
+    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>115</v>
+      </c>
+      <c r="B131" s="3">
+        <v>10911</v>
+      </c>
+      <c r="C131" s="3">
+        <v>11</v>
+      </c>
+      <c r="D131" s="3">
+        <v>10</v>
+      </c>
+      <c r="E131" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131" s="3">
+        <v>7</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0</v>
+      </c>
+      <c r="K131" s="3">
+        <v>200</v>
+      </c>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+    </row>
+    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>116</v>
+      </c>
+      <c r="B132" s="3">
+        <v>10912</v>
+      </c>
+      <c r="C132" s="3">
+        <v>12</v>
+      </c>
+      <c r="D132" s="3">
+        <v>10</v>
+      </c>
+      <c r="E132" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H132" s="3">
+        <v>7</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0</v>
+      </c>
+      <c r="K132" s="3">
+        <v>560</v>
+      </c>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+    </row>
+    <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>117</v>
+      </c>
+      <c r="B133" s="3">
+        <v>10913</v>
+      </c>
+      <c r="C133" s="3">
+        <v>13</v>
+      </c>
+      <c r="D133" s="3">
+        <v>10</v>
+      </c>
+      <c r="E133" s="3">
+        <f t="shared" si="7"/>
+        <v>86400</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="3">
+        <v>7</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>350</v>
+      </c>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7276,10 +9149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7287,10 +9160,10 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="29" width="12.625" customWidth="1"/>
+    <col min="5" max="34" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -7301,7 +9174,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>15</v>
@@ -7340,7 +9213,7 @@
         <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>75</v>
@@ -7355,7 +9228,7 @@
         <v>78</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>79</v>
@@ -7370,7 +9243,7 @@
         <v>82</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>83</v>
@@ -7378,8 +9251,23 @@
       <c r="AC1" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -7467,8 +9355,23 @@
       <c r="AC2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -7479,7 +9382,7 @@
         <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>89</v>
@@ -7488,7 +9391,7 @@
         <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>91</v>
@@ -7503,7 +9406,7 @@
         <v>94</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>95</v>
@@ -7518,7 +9421,7 @@
         <v>98</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>99</v>
@@ -7533,7 +9436,7 @@
         <v>102</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>103</v>
@@ -7548,7 +9451,7 @@
         <v>106</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>107</v>
@@ -7556,8 +9459,23 @@
       <c r="AC3" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AD3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7571,22 +9489,22 @@
         <v>1000</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K4" s="3">
         <v>7</v>
@@ -7598,13 +9516,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="P4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="3">
         <v>0</v>
@@ -7616,25 +9534,25 @@
         <v>100</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="U4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="Z4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
@@ -7642,11 +9560,26 @@
       <c r="AB4" s="3">
         <v>0</v>
       </c>
-      <c r="AC4" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC4" s="8">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -7660,82 +9593,97 @@
         <v>2000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
+        <v>200</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3">
+        <v>7</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>200</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>200</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="3">
+        <v>7</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8">
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="3">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>500</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>250</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="3">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7749,40 +9697,40 @@
         <v>3000</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
+        <v>300</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3">
+        <v>7</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>300</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="3">
-        <v>7</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="P6" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
@@ -7791,28 +9739,28 @@
         <v>0</v>
       </c>
       <c r="S6" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="U6" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V6" s="3">
         <v>0</v>
       </c>
       <c r="W6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="Z6" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
@@ -7820,11 +9768,26 @@
       <c r="AB6" s="3">
         <v>0</v>
       </c>
-      <c r="AC6" s="3">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC6" s="8">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -7832,88 +9795,103 @@
         <v>112</v>
       </c>
       <c r="C7" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>4000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
+        <v>500</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>500</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>500</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="3">
+        <v>7</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8">
         <v>15</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="3">
-        <v>7</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>750</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="3">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>1</v>
-      </c>
-      <c r="X7" s="3">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7921,88 +9899,103 @@
         <v>113</v>
       </c>
       <c r="C8" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3">
         <v>5000</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>600</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>600</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="3">
+        <v>7</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
         <v>20</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1</v>
-      </c>
-      <c r="X8" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -8010,28 +10003,28 @@
         <v>114</v>
       </c>
       <c r="C9" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3">
         <v>6000</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>25</v>
+        <v>750</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K9" s="3">
         <v>7</v>
@@ -8043,13 +10036,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="P9" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -8058,28 +10051,28 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="U9" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>25</v>
+        <v>750</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="Z9" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
@@ -8087,11 +10080,26 @@
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-      <c r="AC9" s="3">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC9" s="8">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -8099,28 +10107,28 @@
         <v>115</v>
       </c>
       <c r="C10" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3">
         <v>7000</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K10" s="3">
         <v>7</v>
@@ -8132,13 +10140,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="P10" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -8147,28 +10155,28 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="Z10" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
@@ -8176,11 +10184,26 @@
       <c r="AB10" s="3">
         <v>0</v>
       </c>
-      <c r="AC10" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC10" s="8">
+        <v>60</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -8188,28 +10211,28 @@
         <v>116</v>
       </c>
       <c r="C11" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3">
         <v>8000</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>40</v>
+        <v>1250</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K11" s="3">
         <v>7</v>
@@ -8221,13 +10244,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>3500</v>
+        <v>1250</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="P11" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
@@ -8236,28 +10259,28 @@
         <v>0</v>
       </c>
       <c r="S11" s="3">
-        <v>1750</v>
+        <v>1250</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="U11" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V11" s="3">
         <v>0</v>
       </c>
       <c r="W11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="3">
-        <v>40</v>
+        <v>1250</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="Z11" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA11" s="3">
         <v>0</v>
@@ -8265,11 +10288,26 @@
       <c r="AB11" s="3">
         <v>0</v>
       </c>
-      <c r="AC11" s="3">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC11" s="8">
+        <v>75</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -8277,28 +10315,28 @@
         <v>117</v>
       </c>
       <c r="C12" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3">
         <v>9000</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K12" s="3">
         <v>7</v>
@@ -8310,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="P12" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -8325,28 +10363,28 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="U12" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="Z12" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
@@ -8354,11 +10392,26 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-      <c r="AC12" s="3">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC12" s="8">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -8366,28 +10419,28 @@
         <v>118</v>
       </c>
       <c r="C13" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3">
         <v>10000</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>65</v>
+        <v>1750</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K13" s="3">
         <v>7</v>
@@ -8399,13 +10452,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>4500</v>
+        <v>1750</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="P13" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="3">
         <v>0</v>
@@ -8414,28 +10467,28 @@
         <v>0</v>
       </c>
       <c r="S13" s="3">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="U13" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V13" s="3">
         <v>0</v>
       </c>
       <c r="W13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="3">
-        <v>65</v>
+        <v>1750</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="Z13" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA13" s="3">
         <v>0</v>
@@ -8443,8 +10496,231 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-      <c r="AC13" s="3">
-        <v>1083</v>
+      <c r="AC13" s="8">
+        <v>125</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="3">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="3">
+        <v>7</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>150</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="3">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
+        <v>7</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="3">
+        <v>7</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>200</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8458,7 +10734,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707D4FF-2072-4248-A33F-7F84FFF9AA96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8453FB-D2CD-4F7B-BCB9-8B0E7E694ED0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B95" s="3">
         <v>10701</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B96" s="3">
         <v>10702</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B97" s="3">
         <v>10703</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B98" s="3">
         <v>10704</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B99" s="3">
         <v>10705</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B100" s="3">
         <v>10706</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B101" s="3">
         <v>10707</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B102" s="3">
         <v>10708</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B103" s="3">
         <v>10709</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B104" s="3">
         <v>10710</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B105" s="3">
         <v>10711</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B106" s="3">
         <v>10712</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B107" s="3">
         <v>10713</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B108" s="3">
         <v>10801</v>
@@ -5988,7 +5988,7 @@
     </row>
     <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B109" s="3">
         <v>10802</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B110" s="3">
         <v>10803</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B111" s="3">
         <v>10804</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B112" s="3">
         <v>10805</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B113" s="3">
         <v>10806</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B114" s="3">
         <v>10807</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B115" s="3">
         <v>10808</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B116" s="3">
         <v>10809</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B117" s="3">
         <v>10810</v>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B118" s="3">
         <v>10811</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B119" s="3">
         <v>10812</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B120" s="3">
         <v>10813</v>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B121" s="3">
         <v>10901</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B122" s="3">
         <v>10902</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B123" s="3">
         <v>10903</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B124" s="3">
         <v>10904</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B125" s="3">
         <v>10905</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B126" s="3">
         <v>10906</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B127" s="3">
         <v>10907</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B128" s="3">
         <v>10908</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B129" s="3">
         <v>10909</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B130" s="3">
         <v>10910</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B131" s="3">
         <v>10911</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B132" s="3">
         <v>10912</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B133" s="3">
         <v>10913</v>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8453FB-D2CD-4F7B-BCB9-8B0E7E694ED0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F4B35F-39F9-434C-8D6E-4EDE857C535A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1484,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A133"/>
     </sheetView>
   </sheetViews>
@@ -7022,8 +7022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7068,7 +7068,7 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7077,7 +7077,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -7128,15 +7128,6 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -7154,15 +7145,6 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -7180,15 +7162,6 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1000</v>
-      </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -7206,15 +7179,6 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1000</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -7232,15 +7196,6 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -7258,15 +7213,6 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1000</v>
-      </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -7283,15 +7229,6 @@
       </c>
       <c r="E10">
         <v>5</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -7310,15 +7247,6 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1000</v>
-      </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -7336,15 +7264,6 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1000</v>
-      </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -7362,15 +7281,6 @@
       <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1000</v>
-      </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -7388,15 +7298,6 @@
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1000</v>
-      </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -7414,15 +7315,6 @@
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1000</v>
-      </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -7440,17 +7332,8 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -7466,17 +7349,8 @@
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -7492,17 +7366,8 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -7518,17 +7383,8 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -7544,17 +7400,8 @@
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -7570,17 +7417,8 @@
       <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -7596,17 +7434,8 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -7622,17 +7451,8 @@
       <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -7648,17 +7468,8 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -7674,17 +7485,8 @@
       <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -7700,17 +7502,8 @@
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -7726,17 +7519,8 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -7752,17 +7536,8 @@
       <c r="E28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -7778,17 +7553,8 @@
       <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -7804,17 +7570,8 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -7830,17 +7587,8 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -7856,17 +7604,8 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -7882,17 +7621,8 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -7908,17 +7638,8 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -7934,17 +7655,8 @@
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -7960,17 +7672,8 @@
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -7986,17 +7689,8 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -8012,17 +7706,8 @@
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -8038,17 +7723,8 @@
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -8064,17 +7740,8 @@
       <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -8090,17 +7757,8 @@
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -8116,17 +7774,8 @@
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -8142,17 +7791,8 @@
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -8168,17 +7808,8 @@
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -8194,17 +7825,8 @@
       <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -8220,17 +7842,8 @@
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -8246,17 +7859,8 @@
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -8272,17 +7876,8 @@
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -8298,17 +7893,8 @@
       <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -8324,17 +7910,8 @@
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -8350,17 +7927,8 @@
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -8376,17 +7944,8 @@
       <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -8402,17 +7961,8 @@
       <c r="E53">
         <v>2</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -8428,17 +7978,8 @@
       <c r="E54">
         <v>2</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -8454,17 +7995,8 @@
       <c r="E55">
         <v>2</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -8480,17 +8012,8 @@
       <c r="E56">
         <v>3</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -8506,17 +8029,8 @@
       <c r="E57">
         <v>3</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -8532,17 +8046,8 @@
       <c r="E58">
         <v>3</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -8558,17 +8063,8 @@
       <c r="E59">
         <v>3</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="H59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -8584,17 +8080,8 @@
       <c r="E60">
         <v>3</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -8610,17 +8097,8 @@
       <c r="E61">
         <v>3</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>3</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -8636,17 +8114,8 @@
       <c r="E62">
         <v>3</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>3</v>
-      </c>
-      <c r="H62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -8662,17 +8131,8 @@
       <c r="E63">
         <v>3</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>61</v>
       </c>
@@ -8688,17 +8148,8 @@
       <c r="E64">
         <v>3</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>3</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>62</v>
       </c>
@@ -8714,17 +8165,8 @@
       <c r="E65">
         <v>3</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>3</v>
-      </c>
-      <c r="H65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>63</v>
       </c>
@@ -8740,17 +8182,8 @@
       <c r="E66">
         <v>3</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>64</v>
       </c>
@@ -8766,17 +8199,8 @@
       <c r="E67">
         <v>3</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>3</v>
-      </c>
-      <c r="H67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>65</v>
       </c>
@@ -8792,17 +8216,8 @@
       <c r="E68">
         <v>3</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>3</v>
-      </c>
-      <c r="H68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>66</v>
       </c>
@@ -8818,17 +8233,8 @@
       <c r="E69">
         <v>2</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>3</v>
-      </c>
-      <c r="H69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
@@ -8844,17 +8250,8 @@
       <c r="E70">
         <v>2</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>3</v>
-      </c>
-      <c r="H70">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>68</v>
       </c>
@@ -8870,17 +8267,8 @@
       <c r="E71">
         <v>2</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>3</v>
-      </c>
-      <c r="H71">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
@@ -8896,17 +8284,8 @@
       <c r="E72">
         <v>2</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>3</v>
-      </c>
-      <c r="H72">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>70</v>
       </c>
@@ -8922,17 +8301,8 @@
       <c r="E73">
         <v>2</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-      <c r="H73">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>71</v>
       </c>
@@ -8948,17 +8318,8 @@
       <c r="E74">
         <v>2</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-      <c r="H74">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>72</v>
       </c>
@@ -8974,17 +8335,8 @@
       <c r="E75">
         <v>2</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>3</v>
-      </c>
-      <c r="H75">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>73</v>
       </c>
@@ -9000,17 +8352,8 @@
       <c r="E76">
         <v>2</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>3</v>
-      </c>
-      <c r="H76">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>74</v>
       </c>
@@ -9026,17 +8369,8 @@
       <c r="E77">
         <v>2</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>3</v>
-      </c>
-      <c r="H77">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>75</v>
       </c>
@@ -9052,17 +8386,8 @@
       <c r="E78">
         <v>2</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>3</v>
-      </c>
-      <c r="H78">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76</v>
       </c>
@@ -9078,17 +8403,8 @@
       <c r="E79">
         <v>2</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>3</v>
-      </c>
-      <c r="H79">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>77</v>
       </c>
@@ -9104,17 +8420,8 @@
       <c r="E80">
         <v>2</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>78</v>
       </c>
@@ -9129,15 +8436,6 @@
       </c>
       <c r="E81">
         <v>2</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>3</v>
-      </c>
-      <c r="H81">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F4B35F-39F9-434C-8D6E-4EDE857C535A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845461AA-C633-4634-8068-A9EE73318DB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A133"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3">
         <v>10101</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3">
         <v>10102</v>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3">
         <v>10103</v>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3">
         <v>10104</v>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3">
         <v>10105</v>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3">
         <v>10106</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3">
         <v>10107</v>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3">
         <v>10108</v>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3">
         <v>10109</v>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3">
         <v>10110</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>10112</v>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3">
         <v>10113</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E17" s="3">
         <f>E4*5</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>10201</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" ref="E18:E29" si="0">E5*5</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F18" s="3">
         <v>10202</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F19" s="3">
         <v>10203</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F20" s="3">
         <v>10204</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F21" s="3">
         <v>10205</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F22" s="3">
         <v>10206</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F23" s="3">
         <v>10207</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F24" s="3">
         <v>10208</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F25" s="3">
         <v>10209</v>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F26" s="3">
         <v>10210</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F28" s="3">
         <v>10212</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F29" s="3">
         <v>10213</v>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="E30" s="3">
         <f>E17*3</f>
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F30" s="3">
         <v>10301</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" ref="E31:E42" si="1">E18*3</f>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F31" s="3">
         <v>10302</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F32" s="3">
         <v>10303</v>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F33" s="3">
         <v>10304</v>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="E34" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F34" s="3">
         <v>10305</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F35" s="3">
         <v>10306</v>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F36" s="3">
         <v>10307</v>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="E37" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F37" s="3">
         <v>10308</v>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E38" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F38" s="3">
         <v>10309</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="E39" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F39" s="3">
         <v>10310</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F41" s="3">
         <v>10312</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F42" s="3">
         <v>10313</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="E43" s="3">
         <f>E30*2</f>
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F43" s="3">
         <v>10401</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E44" s="3">
         <f t="shared" ref="E44:E55" si="2">E31*2</f>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F44" s="3">
         <v>10402</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="E45" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="3">
         <v>10403</v>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="E46" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F46" s="3">
         <v>10404</v>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="E47" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F47" s="3">
         <v>10405</v>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="E48" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="3">
         <v>10406</v>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="E49" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="3">
         <v>10407</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="E50" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F50" s="3">
         <v>10408</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="E51" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F51" s="3">
         <v>10409</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="E52" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>10410</v>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="E54" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F54" s="3">
         <v>10412</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="E55" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F55" s="3">
         <v>10413</v>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" ref="E56:E68" si="3">E43*2</f>
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="F56" s="3">
         <v>10501</v>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="E57" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F57" s="3">
         <v>10502</v>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="E58" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="3">
         <v>10503</v>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="E59" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F59" s="3">
         <v>10504</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E60" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F60" s="3">
         <v>10505</v>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="E61" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F61" s="3">
         <v>10506</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E62" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="3">
         <v>10507</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="E63" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F63" s="3">
         <v>10508</v>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="E64" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F64" s="3">
         <v>10509</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="E65" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F65" s="3">
         <v>10510</v>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E67" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="F67" s="3">
         <v>10512</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E68" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="F68" s="3">
         <v>10513</v>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E69" s="3">
         <f>E56*3</f>
-        <v>3600</v>
+        <v>18000</v>
       </c>
       <c r="F69" s="3">
         <v>10601</v>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="E70" s="3">
         <f t="shared" ref="E70:E81" si="4">E57*3</f>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F70" s="3">
         <v>10602</v>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="E71" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F71" s="3">
         <v>10603</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="E72" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F72" s="3">
         <v>10604</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="E73" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F73" s="3">
         <v>10605</v>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="E74" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F74" s="3">
         <v>10606</v>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E75" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F75" s="3">
         <v>10607</v>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E76" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F76" s="3">
         <v>10608</v>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="E77" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F77" s="3">
         <v>10609</v>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="E78" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F78" s="3">
         <v>10610</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="E80" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>18000</v>
       </c>
       <c r="F80" s="3">
         <v>10612</v>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="E81" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>18000</v>
       </c>
       <c r="F81" s="3">
         <v>10613</v>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="E82" s="3">
         <f t="shared" ref="E82:E107" si="5">E69*2</f>
-        <v>7200</v>
+        <v>36000</v>
       </c>
       <c r="F82" s="3">
         <v>10701</v>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="E83" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F83" s="3">
         <v>10702</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="E84" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F84" s="3">
         <v>10703</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="E85" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F85" s="3">
         <v>10704</v>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="E86" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F86" s="3">
         <v>10705</v>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="E87" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F87" s="3">
         <v>10706</v>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="E88" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F88" s="3">
         <v>10707</v>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="E89" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F89" s="3">
         <v>10708</v>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="E90" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F90" s="3">
         <v>10709</v>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="E91" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F91" s="3">
         <v>10710</v>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="E93" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>36000</v>
       </c>
       <c r="F93" s="3">
         <v>10712</v>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="E94" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>36000</v>
       </c>
       <c r="F94" s="3">
         <v>10713</v>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="E95" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>72000</v>
       </c>
       <c r="F95" s="3">
         <v>10801</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="E96" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F96" s="3">
         <v>10802</v>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="E97" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F97" s="3">
         <v>10803</v>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="E98" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F98" s="3">
         <v>10804</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="E99" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F99" s="3">
         <v>10805</v>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E100" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F100" s="3">
         <v>10806</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="E101" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F101" s="3">
         <v>10807</v>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="E102" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F102" s="3">
         <v>10808</v>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="E103" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F103" s="3">
         <v>10809</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="E104" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F104" s="3">
         <v>10810</v>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="E106" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>72000</v>
       </c>
       <c r="F106" s="3">
         <v>10812</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="E107" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>72000</v>
       </c>
       <c r="F107" s="3">
         <v>10813</v>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="E108" s="3">
         <f>E95*3</f>
-        <v>43200</v>
+        <v>216000</v>
       </c>
       <c r="F108" s="3">
         <v>10901</v>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="E109" s="3">
         <f t="shared" ref="E109:E120" si="6">E96*3</f>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F109" s="3">
         <v>10902</v>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="E110" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F110" s="3">
         <v>10903</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="E111" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F111" s="3">
         <v>10904</v>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="E112" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F112" s="3">
         <v>10905</v>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="E113" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F113" s="3">
         <v>10906</v>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="E114" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F114" s="3">
         <v>10907</v>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E115" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F115" s="3">
         <v>10908</v>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="E116" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F116" s="3">
         <v>10909</v>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="E117" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F117" s="3">
         <v>10910</v>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="E119" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>216000</v>
       </c>
       <c r="F119" s="3">
         <v>10912</v>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="E120" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>216000</v>
       </c>
       <c r="F120" s="3">
         <v>10913</v>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="E121" s="3">
         <f>E108*2</f>
-        <v>86400</v>
+        <v>432000</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>196</v>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="E122" s="3">
         <f t="shared" ref="E122:E133" si="7">E109*2</f>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>196</v>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="E123" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>196</v>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="E124" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>196</v>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="E125" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>196</v>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="E126" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>196</v>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="E127" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>196</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="E128" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>196</v>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="E129" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>196</v>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="E130" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>196</v>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="E132" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>432000</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>196</v>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="E133" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>432000</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>196</v>
@@ -7022,8 +7022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F39:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845461AA-C633-4634-8068-A9EE73318DB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0BC25-327B-4943-9668-6BFF44B9E331}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1721,7 +1721,7 @@
         <v>53</v>
       </c>
       <c r="H5" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1767,7 +1767,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>56</v>
       </c>
       <c r="H8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>26</v>
       </c>
       <c r="H14" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>53</v>
       </c>
       <c r="H18" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -2320,7 +2320,7 @@
         <v>54</v>
       </c>
       <c r="H19" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -2361,7 +2361,7 @@
         <v>55</v>
       </c>
       <c r="H20" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>56</v>
       </c>
       <c r="H21" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -2484,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>9</v>
       </c>
       <c r="H25" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>58</v>
       </c>
       <c r="H28" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>53</v>
       </c>
       <c r="H31" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>54</v>
       </c>
       <c r="H32" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
@@ -2894,7 +2894,7 @@
         <v>55</v>
       </c>
       <c r="H33" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
@@ -2935,7 +2935,7 @@
         <v>56</v>
       </c>
       <c r="H34" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>9</v>
       </c>
       <c r="H38" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>26</v>
       </c>
       <c r="H40" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>58</v>
       </c>
       <c r="H41" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>53</v>
       </c>
       <c r="H44" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>54</v>
       </c>
       <c r="H45" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
@@ -3427,7 +3427,7 @@
         <v>55</v>
       </c>
       <c r="H46" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
@@ -3468,7 +3468,7 @@
         <v>56</v>
       </c>
       <c r="H47" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>11</v>
       </c>
       <c r="H49" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>9</v>
       </c>
       <c r="H51" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>26</v>
       </c>
       <c r="H53" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I53" s="3">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>58</v>
       </c>
       <c r="H54" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="H55" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>53</v>
       </c>
       <c r="H57" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I57" s="3">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>54</v>
       </c>
       <c r="H58" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I58" s="3">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>55</v>
       </c>
       <c r="H59" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I59" s="3">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>56</v>
       </c>
       <c r="H60" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I60" s="3">
         <v>1</v>
@@ -4083,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="H62" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>9</v>
       </c>
       <c r="H64" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I64" s="3">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>26</v>
       </c>
       <c r="H66" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>58</v>
       </c>
       <c r="H67" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I67" s="3">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>12</v>
       </c>
       <c r="H68" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>53</v>
       </c>
       <c r="H70" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I70" s="3">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>54</v>
       </c>
       <c r="H71" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -4493,7 +4493,7 @@
         <v>55</v>
       </c>
       <c r="H72" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I72" s="3">
         <v>1</v>
@@ -4534,7 +4534,7 @@
         <v>56</v>
       </c>
       <c r="H73" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I73" s="3">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>11</v>
       </c>
       <c r="H75" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I75" s="3">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>9</v>
       </c>
       <c r="H77" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I77" s="3">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>26</v>
       </c>
       <c r="H79" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I79" s="3">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>58</v>
       </c>
       <c r="H80" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I80" s="3">
         <v>0</v>
@@ -4862,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="H81" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>53</v>
       </c>
       <c r="H83" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I83" s="3">
         <v>1</v>
@@ -4985,7 +4985,7 @@
         <v>54</v>
       </c>
       <c r="H84" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I84" s="3">
         <v>1</v>
@@ -5026,7 +5026,7 @@
         <v>55</v>
       </c>
       <c r="H85" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I85" s="3">
         <v>1</v>
@@ -5067,7 +5067,7 @@
         <v>56</v>
       </c>
       <c r="H86" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I86" s="3">
         <v>1</v>
@@ -5149,7 +5149,7 @@
         <v>11</v>
       </c>
       <c r="H88" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I88" s="3">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>9</v>
       </c>
       <c r="H90" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I90" s="3">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>26</v>
       </c>
       <c r="H92" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I92" s="3">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>58</v>
       </c>
       <c r="H93" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I93" s="3">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="H94" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5477,7 +5477,7 @@
         <v>53</v>
       </c>
       <c r="H96" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I96" s="3">
         <v>1</v>
@@ -5518,7 +5518,7 @@
         <v>54</v>
       </c>
       <c r="H97" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I97" s="3">
         <v>1</v>
@@ -5559,7 +5559,7 @@
         <v>55</v>
       </c>
       <c r="H98" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I98" s="3">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="H99" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
@@ -5682,7 +5682,7 @@
         <v>11</v>
       </c>
       <c r="H101" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5764,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I103" s="3">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>26</v>
       </c>
       <c r="H105" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I105" s="3">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>58</v>
       </c>
       <c r="H106" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I106" s="3">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>12</v>
       </c>
       <c r="H107" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I107" s="3">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>53</v>
       </c>
       <c r="H109" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I109" s="3">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>54</v>
       </c>
       <c r="H110" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I110" s="3">
         <v>1</v>
@@ -6092,7 +6092,7 @@
         <v>55</v>
       </c>
       <c r="H111" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I111" s="3">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>56</v>
       </c>
       <c r="H112" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I112" s="3">
         <v>1</v>
@@ -6215,7 +6215,7 @@
         <v>11</v>
       </c>
       <c r="H114" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I114" s="3">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>9</v>
       </c>
       <c r="H116" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
@@ -6379,7 +6379,7 @@
         <v>26</v>
       </c>
       <c r="H118" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I118" s="3">
         <v>0</v>
@@ -6420,7 +6420,7 @@
         <v>58</v>
       </c>
       <c r="H119" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I119" s="3">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>12</v>
       </c>
       <c r="H120" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I120" s="3">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>53</v>
       </c>
       <c r="H122" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I122" s="3">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>54</v>
       </c>
       <c r="H123" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I123" s="3">
         <v>1</v>
@@ -6625,7 +6625,7 @@
         <v>55</v>
       </c>
       <c r="H124" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I124" s="3">
         <v>1</v>
@@ -6666,7 +6666,7 @@
         <v>56</v>
       </c>
       <c r="H125" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I125" s="3">
         <v>1</v>
@@ -6748,7 +6748,7 @@
         <v>11</v>
       </c>
       <c r="H127" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I127" s="3">
         <v>0</v>
@@ -6830,7 +6830,7 @@
         <v>9</v>
       </c>
       <c r="H129" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I129" s="3">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>26</v>
       </c>
       <c r="H131" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I131" s="3">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>58</v>
       </c>
       <c r="H132" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -6994,7 +6994,7 @@
         <v>12</v>
       </c>
       <c r="H133" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I133" s="3">
         <v>0</v>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0BC25-327B-4943-9668-6BFF44B9E331}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF340A5-C710-4DCC-82D9-9BB226536E76}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1484,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
@@ -7022,8 +7022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F39:F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF340A5-C710-4DCC-82D9-9BB226536E76}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F94CF5-EF14-4F65-9866-A8B981F3B724}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -985,7 +985,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
@@ -996,7 +996,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1691,10 +1690,10 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>0.02</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>0.01</v>
       </c>
     </row>
@@ -1737,10 +1736,10 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>0.05</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1783,10 +1782,10 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>0.1</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>0.05</v>
       </c>
     </row>
@@ -1829,10 +1828,10 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>0.15</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1875,10 +1874,10 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>0.2</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -1921,10 +1920,10 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>0.3</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>0.125</v>
       </c>
     </row>
@@ -1967,10 +1966,10 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>0.4</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -2108,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
         <v>10111</v>
@@ -2639,7 +2638,7 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F27" s="3">
         <v>10211</v>
@@ -3172,7 +3171,7 @@
       </c>
       <c r="E40" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F40" s="3">
         <v>10311</v>
@@ -3705,7 +3704,7 @@
       </c>
       <c r="E53" s="3">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F53" s="3">
         <v>10411</v>
@@ -4238,7 +4237,7 @@
       </c>
       <c r="E66" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F66" s="3">
         <v>10511</v>
@@ -4771,7 +4770,7 @@
       </c>
       <c r="E79" s="3">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="F79" s="3">
         <v>10611</v>
@@ -5304,7 +5303,7 @@
       </c>
       <c r="E92" s="3">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F92" s="3">
         <v>10711</v>
@@ -5837,7 +5836,7 @@
       </c>
       <c r="E105" s="3">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="F105" s="3">
         <v>10811</v>
@@ -6370,7 +6369,7 @@
       </c>
       <c r="E118" s="3">
         <f t="shared" si="6"/>
-        <v>43200</v>
+        <v>108000</v>
       </c>
       <c r="F118" s="3">
         <v>10911</v>
@@ -6903,7 +6902,7 @@
       </c>
       <c r="E131" s="3">
         <f t="shared" si="7"/>
-        <v>86400</v>
+        <v>216000</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>196</v>
@@ -7020,10 +7019,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7112,1331 +7111,2345 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>10101</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>10001</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10102</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>10002</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>10103</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>10003</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>10104</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>10004</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>10105</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>10005</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>10106</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>10006</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
         <v>10107</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>10007</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>10108</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>10008</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>10109</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>10009</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>10110</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>10010</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>10111</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>10011</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>10112</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>10012</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>10113</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>10013</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>10201</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>10101</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>10202</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>10102</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>10203</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>10103</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>10204</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>10104</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>10205</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>10105</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>10206</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>10106</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>10207</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>10107</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>10208</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>10108</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>10209</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>10109</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>10210</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>10110</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>10211</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>10111</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>10212</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>10112</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>10213</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>10113</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>10301</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>10201</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>10302</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>10202</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>10303</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>10203</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>10304</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>10204</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>10305</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>10205</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>10306</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>10206</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>10307</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>10207</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>10308</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>10208</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>10309</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>10209</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>10310</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>10210</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>10311</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>10211</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>10312</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>10212</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>10313</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>10213</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>10401</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>10301</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>10402</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>10302</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>10403</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>10303</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>10404</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>10304</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>10405</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>10305</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>10406</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>10306</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>10407</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>10307</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>10408</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>10308</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>10409</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>10309</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>10410</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>10310</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>10411</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>10311</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>10412</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>10312</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>10413</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>10313</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>10501</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>10401</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>10502</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>10402</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>10503</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>10403</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>10504</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>10404</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>10505</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>10405</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>10506</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>10406</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>10507</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>10407</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>10508</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>10408</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>10509</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>10409</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>10510</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>10410</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>10511</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>10411</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>10512</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>10412</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>10513</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>10413</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>10601</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>10501</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>10602</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>10502</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>10603</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>10503</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>10604</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>10504</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>70</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>10605</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>10505</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>71</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>10606</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>10506</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>72</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>10607</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>10507</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>73</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>10608</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>10508</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>74</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>10609</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>10509</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>75</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>10610</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>10510</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>76</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>10611</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>10511</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>77</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>10612</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>10512</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>78</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>10613</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>10513</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>2</v>
       </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>10701</v>
+      </c>
+      <c r="C82" s="3">
+        <v>10601</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3">
+        <v>10702</v>
+      </c>
+      <c r="C83" s="3">
+        <v>10602</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3">
+        <v>10703</v>
+      </c>
+      <c r="C84" s="3">
+        <v>10603</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="3">
+        <v>10704</v>
+      </c>
+      <c r="C85" s="3">
+        <v>10604</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
+        <v>10705</v>
+      </c>
+      <c r="C86" s="3">
+        <v>10605</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3">
+        <v>10706</v>
+      </c>
+      <c r="C87" s="3">
+        <v>10606</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3">
+        <v>10707</v>
+      </c>
+      <c r="C88" s="3">
+        <v>10607</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>10708</v>
+      </c>
+      <c r="C89" s="3">
+        <v>10608</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="3">
+        <v>10709</v>
+      </c>
+      <c r="C90" s="3">
+        <v>10609</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>10710</v>
+      </c>
+      <c r="C91" s="3">
+        <v>10610</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="3">
+        <v>10711</v>
+      </c>
+      <c r="C92" s="3">
+        <v>10611</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>2</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="3">
+        <v>10712</v>
+      </c>
+      <c r="C93" s="3">
+        <v>10612</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3">
+        <v>10713</v>
+      </c>
+      <c r="C94" s="3">
+        <v>10613</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="3">
+        <v>10801</v>
+      </c>
+      <c r="C95" s="3">
+        <v>10701</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="3">
+        <v>10802</v>
+      </c>
+      <c r="C96" s="3">
+        <v>10702</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="3">
+        <v>10803</v>
+      </c>
+      <c r="C97" s="3">
+        <v>10703</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3">
+        <v>10804</v>
+      </c>
+      <c r="C98" s="3">
+        <v>10704</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="3">
+        <v>10805</v>
+      </c>
+      <c r="C99" s="3">
+        <v>10705</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3">
+        <v>10806</v>
+      </c>
+      <c r="C100" s="3">
+        <v>10706</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3">
+        <v>10807</v>
+      </c>
+      <c r="C101" s="3">
+        <v>10707</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3">
+        <v>10808</v>
+      </c>
+      <c r="C102" s="3">
+        <v>10708</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="3">
+        <v>10809</v>
+      </c>
+      <c r="C103" s="3">
+        <v>10709</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>2</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="B104" s="3">
+        <v>10810</v>
+      </c>
+      <c r="C104" s="3">
+        <v>10710</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="3">
+        <v>10811</v>
+      </c>
+      <c r="C105" s="3">
+        <v>10711</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="3">
+        <v>10812</v>
+      </c>
+      <c r="C106" s="3">
+        <v>10712</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>2</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="3">
+        <v>10813</v>
+      </c>
+      <c r="C107" s="3">
+        <v>10713</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>2</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="3">
+        <v>10901</v>
+      </c>
+      <c r="C108" s="3">
+        <v>10801</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>3</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="3">
+        <v>10902</v>
+      </c>
+      <c r="C109" s="3">
+        <v>10802</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>3</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="3">
+        <v>10903</v>
+      </c>
+      <c r="C110" s="3">
+        <v>10803</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="B111" s="3">
+        <v>10904</v>
+      </c>
+      <c r="C111" s="3">
+        <v>10804</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>3</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3">
+        <v>10905</v>
+      </c>
+      <c r="C112" s="3">
+        <v>10805</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>3</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="B113" s="3">
+        <v>10906</v>
+      </c>
+      <c r="C113" s="3">
+        <v>10806</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>3</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="B114" s="3">
+        <v>10907</v>
+      </c>
+      <c r="C114" s="3">
+        <v>10807</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>3</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="3">
+        <v>10908</v>
+      </c>
+      <c r="C115" s="3">
+        <v>10808</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>3</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3">
+        <v>10909</v>
+      </c>
+      <c r="C116" s="3">
+        <v>10809</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>3</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>114</v>
+      </c>
+      <c r="B117" s="3">
+        <v>10910</v>
+      </c>
+      <c r="C117" s="3">
+        <v>10810</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>3</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>115</v>
+      </c>
+      <c r="B118" s="3">
+        <v>10911</v>
+      </c>
+      <c r="C118" s="3">
+        <v>10811</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>3</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>116</v>
+      </c>
+      <c r="B119" s="3">
+        <v>10912</v>
+      </c>
+      <c r="C119" s="3">
+        <v>10812</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>3</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3">
+        <v>10913</v>
+      </c>
+      <c r="C120" s="3">
+        <v>10813</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
+        <v>3</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8465,103 +9478,103 @@
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -8858,7 +9871,7 @@
       <c r="AB4" s="3">
         <v>0</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <v>5</v>
       </c>
       <c r="AD4" s="3" t="s">
@@ -8873,7 +9886,7 @@
       <c r="AG4" s="3">
         <v>0</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="7">
         <v>2.5</v>
       </c>
     </row>
@@ -8962,7 +9975,7 @@
       <c r="AB5" s="3">
         <v>0</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <v>10</v>
       </c>
       <c r="AD5" s="3" t="s">
@@ -8977,7 +9990,7 @@
       <c r="AG5" s="3">
         <v>0</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="7">
         <v>5</v>
       </c>
     </row>
@@ -9066,7 +10079,7 @@
       <c r="AB6" s="3">
         <v>0</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <v>15</v>
       </c>
       <c r="AD6" s="3" t="s">
@@ -9081,7 +10094,7 @@
       <c r="AG6" s="3">
         <v>0</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="7">
         <v>7.5</v>
       </c>
     </row>
@@ -9170,7 +10183,7 @@
       <c r="AB7" s="3">
         <v>0</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="7">
         <v>30</v>
       </c>
       <c r="AD7" s="3" t="s">
@@ -9185,7 +10198,7 @@
       <c r="AG7" s="3">
         <v>0</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="7">
         <v>15</v>
       </c>
     </row>
@@ -9274,7 +10287,7 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="7">
         <v>40</v>
       </c>
       <c r="AD8" s="3" t="s">
@@ -9289,7 +10302,7 @@
       <c r="AG8" s="3">
         <v>0</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="7">
         <v>20</v>
       </c>
     </row>
@@ -9378,7 +10391,7 @@
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AC9" s="7">
         <v>50</v>
       </c>
       <c r="AD9" s="3" t="s">
@@ -9393,7 +10406,7 @@
       <c r="AG9" s="3">
         <v>0</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="7">
         <v>30</v>
       </c>
     </row>
@@ -9482,7 +10495,7 @@
       <c r="AB10" s="3">
         <v>0</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="7">
         <v>60</v>
       </c>
       <c r="AD10" s="3" t="s">
@@ -9497,7 +10510,7 @@
       <c r="AG10" s="3">
         <v>0</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="7">
         <v>40</v>
       </c>
     </row>
@@ -9586,7 +10599,7 @@
       <c r="AB11" s="3">
         <v>0</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="7">
         <v>75</v>
       </c>
       <c r="AD11" s="3" t="s">
@@ -9601,7 +10614,7 @@
       <c r="AG11" s="3">
         <v>0</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AH11" s="7">
         <v>50</v>
       </c>
     </row>
@@ -9690,7 +10703,7 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="7">
         <v>100</v>
       </c>
       <c r="AD12" s="3" t="s">
@@ -9705,7 +10718,7 @@
       <c r="AG12" s="3">
         <v>0</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="7">
         <v>60</v>
       </c>
     </row>
@@ -9794,7 +10807,7 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AC13" s="7">
         <v>125</v>
       </c>
       <c r="AD13" s="3" t="s">
@@ -9809,7 +10822,7 @@
       <c r="AG13" s="3">
         <v>0</v>
       </c>
-      <c r="AH13" s="8">
+      <c r="AH13" s="7">
         <v>70</v>
       </c>
     </row>
@@ -9898,7 +10911,7 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AC14" s="7">
         <v>150</v>
       </c>
       <c r="AD14" s="3" t="s">
@@ -9913,7 +10926,7 @@
       <c r="AG14" s="3">
         <v>0</v>
       </c>
-      <c r="AH14" s="8">
+      <c r="AH14" s="7">
         <v>85</v>
       </c>
     </row>
@@ -10002,7 +11015,7 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AC15" s="7">
         <v>200</v>
       </c>
       <c r="AD15" s="3" t="s">
@@ -10017,7 +11030,7 @@
       <c r="AG15" s="3">
         <v>0</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AH15" s="7">
         <v>100</v>
       </c>
     </row>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F94CF5-EF14-4F65-9866-A8B981F3B724}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE57896-116A-4963-B6E1-34FD282BB056}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE57896-116A-4963-B6E1-34FD282BB056}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05BDD6F-320D-40F1-8B65-2FE248E91DFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -582,212 +582,212 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VIP3或
+    <t>attr[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1.目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2.目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chipSlot.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片槽的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[4].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[5].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleScore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【晶片套装-11】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【晶片套装-12】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性目标6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值权重6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gready</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>[x]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 少尉解锁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VIP6或
-少将解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].valw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1.目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].tar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2.目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶片槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chipSlot.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶片槽的配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipLevel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[1].valw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[1].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[2].valw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[2].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下级ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[3].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[4].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[5].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleScore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【晶片套装-11】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【晶片套装-12】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[6].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[6].tar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[6].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[6].valw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[6].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性ID6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性目标6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性值权重6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性值6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gready</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lucky</t>
-  </si>
-  <si>
-    <t>[x]</t>
+    <t xml:space="preserve">
+少校解锁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1453,20 +1453,20 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -1483,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
@@ -1509,16 +1509,16 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1539,16 +1539,16 @@
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1559,7 +1559,7 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -1568,7 +1568,7 @@
         <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -1609,22 +1609,22 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>61</v>
@@ -1639,7 +1639,7 @@
         <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>62</v>
@@ -6495,7 +6495,7 @@
         <v>432000</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>52</v>
@@ -6536,7 +6536,7 @@
         <v>216000</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>53</v>
@@ -6577,7 +6577,7 @@
         <v>216000</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>54</v>
@@ -6618,7 +6618,7 @@
         <v>216000</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>55</v>
@@ -6659,7 +6659,7 @@
         <v>216000</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>56</v>
@@ -6700,7 +6700,7 @@
         <v>216000</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>7</v>
@@ -6741,7 +6741,7 @@
         <v>216000</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>11</v>
@@ -6782,7 +6782,7 @@
         <v>216000</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>10</v>
@@ -6823,7 +6823,7 @@
         <v>216000</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>9</v>
@@ -6864,7 +6864,7 @@
         <v>216000</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>8</v>
@@ -6905,7 +6905,7 @@
         <v>216000</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>26</v>
@@ -6946,7 +6946,7 @@
         <v>432000</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>58</v>
@@ -6987,7 +6987,7 @@
         <v>432000</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>12</v>
@@ -7044,19 +7044,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -9485,7 +9485,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>15</v>
@@ -9524,7 +9524,7 @@
         <v>74</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>75</v>
@@ -9539,7 +9539,7 @@
         <v>78</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>79</v>
@@ -9554,7 +9554,7 @@
         <v>82</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>83</v>
@@ -9563,19 +9563,19 @@
         <v>84</v>
       </c>
       <c r="AD1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -9693,7 +9693,7 @@
         <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>89</v>
@@ -9702,7 +9702,7 @@
         <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>91</v>
@@ -9717,7 +9717,7 @@
         <v>94</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>95</v>
@@ -9732,7 +9732,7 @@
         <v>98</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>99</v>
@@ -9747,7 +9747,7 @@
         <v>102</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>103</v>
@@ -9762,7 +9762,7 @@
         <v>106</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>107</v>
@@ -9771,19 +9771,19 @@
         <v>108</v>
       </c>
       <c r="AD3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -9860,7 +9860,7 @@
         <v>100</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z4" s="3">
         <v>7</v>
@@ -9875,7 +9875,7 @@
         <v>5</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE4" s="3">
         <v>7</v>
@@ -9964,7 +9964,7 @@
         <v>200</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z5" s="3">
         <v>7</v>
@@ -9979,7 +9979,7 @@
         <v>10</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE5" s="3">
         <v>7</v>
@@ -10068,7 +10068,7 @@
         <v>300</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z6" s="3">
         <v>7</v>
@@ -10083,7 +10083,7 @@
         <v>15</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE6" s="3">
         <v>7</v>
@@ -10172,7 +10172,7 @@
         <v>500</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z7" s="3">
         <v>7</v>
@@ -10187,7 +10187,7 @@
         <v>30</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE7" s="3">
         <v>7</v>
@@ -10276,7 +10276,7 @@
         <v>600</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z8" s="3">
         <v>7</v>
@@ -10291,7 +10291,7 @@
         <v>40</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE8" s="3">
         <v>7</v>
@@ -10380,7 +10380,7 @@
         <v>750</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z9" s="3">
         <v>7</v>
@@ -10395,7 +10395,7 @@
         <v>50</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE9" s="3">
         <v>7</v>
@@ -10484,7 +10484,7 @@
         <v>1000</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z10" s="3">
         <v>7</v>
@@ -10499,7 +10499,7 @@
         <v>60</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE10" s="3">
         <v>7</v>
@@ -10588,7 +10588,7 @@
         <v>1250</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z11" s="3">
         <v>7</v>
@@ -10603,7 +10603,7 @@
         <v>75</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE11" s="3">
         <v>7</v>
@@ -10692,7 +10692,7 @@
         <v>1500</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z12" s="3">
         <v>7</v>
@@ -10707,7 +10707,7 @@
         <v>100</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE12" s="3">
         <v>7</v>
@@ -10796,7 +10796,7 @@
         <v>1750</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z13" s="3">
         <v>7</v>
@@ -10811,7 +10811,7 @@
         <v>125</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE13" s="3">
         <v>7</v>
@@ -10831,7 +10831,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14" s="3">
         <v>90</v>
@@ -10900,7 +10900,7 @@
         <v>2000</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z14" s="3">
         <v>7</v>
@@ -10915,7 +10915,7 @@
         <v>150</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE14" s="3">
         <v>7</v>
@@ -10935,7 +10935,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" s="3">
         <v>100</v>
@@ -11004,7 +11004,7 @@
         <v>2500</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z15" s="3">
         <v>7</v>
@@ -11019,7 +11019,7 @@
         <v>200</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AE15" s="3">
         <v>7</v>
@@ -11044,8 +11044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF49F6E-6119-4F09-8B15-8FED2090906E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11065,7 +11065,7 @@
         <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -11111,7 +11111,7 @@
         <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>133</v>
@@ -11308,7 +11308,7 @@
         <v>11009</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -11331,7 +11331,7 @@
         <v>11010</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05BDD6F-320D-40F1-8B65-2FE248E91DFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA7321-D056-4554-BEDF-D01FCE29540A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -9462,8 +9462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9797,7 +9797,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -9901,7 +9901,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -10005,7 +10005,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -10109,7 +10109,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="3">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -10213,7 +10213,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="3">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -10317,7 +10317,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="3">
-        <v>6000</v>
+        <v>60000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -10421,7 +10421,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="3">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -10525,7 +10525,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="3">
-        <v>8000</v>
+        <v>80000</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -10629,7 +10629,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="3">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -10733,7 +10733,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="3">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -10837,7 +10837,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="3">
-        <v>11000</v>
+        <v>110000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -10941,7 +10941,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="3">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -11044,8 +11044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF49F6E-6119-4F09-8B15-8FED2090906E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA7321-D056-4554-BEDF-D01FCE29540A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612A0B31-8F25-48D2-89DF-0203E4C12C41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2678,8 +2678,8 @@
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f>E15*3</f>
+        <v>300</v>
       </c>
       <c r="F28" s="3">
         <v>10212</v>
@@ -2719,8 +2719,8 @@
         <v>2</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f>E16*3</f>
+        <v>300</v>
       </c>
       <c r="F29" s="3">
         <v>10213</v>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F41" s="3">
         <v>10312</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F42" s="3">
         <v>10313</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E54" s="3">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F54" s="3">
         <v>10412</v>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E55" s="3">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F55" s="3">
         <v>10413</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="E67" s="3">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="F67" s="3">
         <v>10512</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="E68" s="3">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="F68" s="3">
         <v>10513</v>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="E80" s="3">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>10800</v>
       </c>
       <c r="F80" s="3">
         <v>10612</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="E81" s="3">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>10800</v>
       </c>
       <c r="F81" s="3">
         <v>10613</v>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E93" s="3">
         <f t="shared" si="5"/>
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="F93" s="3">
         <v>10712</v>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="E94" s="3">
         <f t="shared" si="5"/>
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="F94" s="3">
         <v>10713</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="E106" s="3">
         <f t="shared" si="5"/>
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="F106" s="3">
         <v>10812</v>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="E107" s="3">
         <f t="shared" si="5"/>
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="F107" s="3">
         <v>10813</v>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="E119" s="3">
         <f t="shared" si="6"/>
-        <v>216000</v>
+        <v>129600</v>
       </c>
       <c r="F119" s="3">
         <v>10912</v>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="E120" s="3">
         <f t="shared" si="6"/>
-        <v>216000</v>
+        <v>129600</v>
       </c>
       <c r="F120" s="3">
         <v>10913</v>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="E132" s="3">
         <f t="shared" si="7"/>
-        <v>432000</v>
+        <v>259200</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>194</v>
@@ -6984,7 +6984,7 @@
       </c>
       <c r="E133" s="3">
         <f t="shared" si="7"/>
-        <v>432000</v>
+        <v>259200</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>194</v>
@@ -9462,7 +9462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612A0B31-8F25-48D2-89DF-0203E4C12C41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4D064-6941-4374-BF97-6BFADFFB5CE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:V11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2268,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" ref="E18:E29" si="0">E5*5</f>
+        <f t="shared" ref="E18:E27" si="0">E5*5</f>
         <v>250</v>
       </c>
       <c r="F18" s="3">
@@ -7022,7 +7022,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11044,8 +11044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF49F6E-6119-4F09-8B15-8FED2090906E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4D064-6941-4374-BF97-6BFADFFB5CE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F58DA15-F16E-4BC9-8F30-C3E064EE7302}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -7021,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11044,7 +11044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF49F6E-6119-4F09-8B15-8FED2090906E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F58DA15-F16E-4BC9-8F30-C3E064EE7302}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E090CED-62C3-486F-87A2-F5401C210AF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>10112</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F16" s="3">
         <v>10113</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="E28" s="3">
         <f>E15*3</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F28" s="3">
         <v>10212</v>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="E29" s="3">
         <f>E16*3</f>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F29" s="3">
         <v>10213</v>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F41" s="3">
         <v>10312</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
         <v>10313</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E54" s="3">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F54" s="3">
         <v>10412</v>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E55" s="3">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="F55" s="3">
         <v>10413</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="E67" s="3">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F67" s="3">
         <v>10512</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="E68" s="3">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>10800</v>
       </c>
       <c r="F68" s="3">
         <v>10513</v>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="E80" s="3">
         <f t="shared" si="4"/>
-        <v>10800</v>
+        <v>21600</v>
       </c>
       <c r="F80" s="3">
         <v>10612</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="E81" s="3">
         <f t="shared" si="4"/>
-        <v>10800</v>
+        <v>32400</v>
       </c>
       <c r="F81" s="3">
         <v>10613</v>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E93" s="3">
         <f t="shared" si="5"/>
-        <v>21600</v>
+        <v>43200</v>
       </c>
       <c r="F93" s="3">
         <v>10712</v>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="E94" s="3">
         <f t="shared" si="5"/>
-        <v>21600</v>
+        <v>64800</v>
       </c>
       <c r="F94" s="3">
         <v>10713</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="E106" s="3">
         <f t="shared" si="5"/>
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="F106" s="3">
         <v>10812</v>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="E107" s="3">
         <f t="shared" si="5"/>
-        <v>43200</v>
+        <v>129600</v>
       </c>
       <c r="F107" s="3">
         <v>10813</v>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="E119" s="3">
         <f t="shared" si="6"/>
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="F119" s="3">
         <v>10912</v>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="E120" s="3">
         <f t="shared" si="6"/>
-        <v>129600</v>
+        <v>388800</v>
       </c>
       <c r="F120" s="3">
         <v>10913</v>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="E132" s="3">
         <f t="shared" si="7"/>
-        <v>259200</v>
+        <v>518400</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>194</v>
@@ -6984,7 +6984,7 @@
       </c>
       <c r="E133" s="3">
         <f t="shared" si="7"/>
-        <v>259200</v>
+        <v>777600</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>194</v>
@@ -7021,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C55BB9-AF5E-4D48-A495-95901DB5DB5F}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E090CED-62C3-486F-87A2-F5401C210AF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE766374-8B13-4841-8F92-ED28544700D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="206">
   <si>
     <t>sheet名</t>
   </si>
@@ -789,6 +789,33 @@
     <t xml:space="preserve">
 少校解锁</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【晶片套装-13】</t>
+  </si>
+  <si>
+    <t>【晶片套装-14】</t>
+  </si>
+  <si>
+    <t>【晶片套装-15】</t>
+  </si>
+  <si>
+    <t>【晶片套装-16】</t>
+  </si>
+  <si>
+    <t>【晶片套装-17】</t>
+  </si>
+  <si>
+    <t>【晶片套装-18】</t>
+  </si>
+  <si>
+    <t>【晶片套装-19】</t>
+  </si>
+  <si>
+    <t>【晶片套装-20】</t>
+  </si>
+  <si>
+    <t>【晶片套装-21】</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -9460,10 +9487,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9797,13 +9824,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -9818,7 +9845,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -9833,7 +9860,7 @@
         <v>10</v>
       </c>
       <c r="P4" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="3">
         <v>0</v>
@@ -9848,7 +9875,7 @@
         <v>9</v>
       </c>
       <c r="U4" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
@@ -9863,7 +9890,7 @@
         <v>192</v>
       </c>
       <c r="Z4" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
@@ -9878,7 +9905,7 @@
         <v>193</v>
       </c>
       <c r="AE4" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="3">
         <v>0</v>
@@ -9901,13 +9928,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -9922,7 +9949,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -9937,7 +9964,7 @@
         <v>10</v>
       </c>
       <c r="P5" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
@@ -9952,7 +9979,7 @@
         <v>9</v>
       </c>
       <c r="U5" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V5" s="3">
         <v>0</v>
@@ -9967,7 +9994,7 @@
         <v>192</v>
       </c>
       <c r="Z5" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="3">
         <v>0</v>
@@ -9982,7 +10009,7 @@
         <v>193</v>
       </c>
       <c r="AE5" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="3">
         <v>0</v>
@@ -10005,13 +10032,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -10026,7 +10053,7 @@
         <v>11</v>
       </c>
       <c r="K6" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -10041,7 +10068,7 @@
         <v>10</v>
       </c>
       <c r="P6" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
@@ -10056,7 +10083,7 @@
         <v>9</v>
       </c>
       <c r="U6" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V6" s="3">
         <v>0</v>
@@ -10071,7 +10098,7 @@
         <v>192</v>
       </c>
       <c r="Z6" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
@@ -10086,7 +10113,7 @@
         <v>193</v>
       </c>
       <c r="AE6" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="3">
         <v>0</v>
@@ -10106,16 +10133,16 @@
         <v>112</v>
       </c>
       <c r="C7" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -10124,13 +10151,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -10139,13 +10166,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="3">
         <v>0</v>
@@ -10154,13 +10181,13 @@
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U7" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -10169,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z7" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="3">
         <v>0</v>
@@ -10184,13 +10211,13 @@
         <v>0</v>
       </c>
       <c r="AC7" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AD7" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AE7" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="3">
         <v>0</v>
@@ -10199,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -10210,16 +10237,16 @@
         <v>113</v>
       </c>
       <c r="C8" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -10228,13 +10255,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -10243,13 +10270,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P8" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -10258,13 +10285,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -10273,13 +10300,13 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
@@ -10288,13 +10315,13 @@
         <v>0</v>
       </c>
       <c r="AC8" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AE8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="3">
         <v>0</v>
@@ -10303,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -10314,16 +10341,16 @@
         <v>114</v>
       </c>
       <c r="C9" s="3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -10332,13 +10359,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -10347,13 +10374,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -10362,13 +10389,13 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U9" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -10377,13 +10404,13 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z9" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
@@ -10392,13 +10419,13 @@
         <v>0</v>
       </c>
       <c r="AC9" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AE9" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="3">
         <v>0</v>
@@ -10407,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="7">
-        <v>30</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -10418,16 +10445,16 @@
         <v>115</v>
       </c>
       <c r="C10" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -10436,13 +10463,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -10451,13 +10478,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -10466,13 +10493,13 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U10" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -10481,13 +10508,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z10" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
@@ -10496,13 +10523,13 @@
         <v>0</v>
       </c>
       <c r="AC10" s="7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AE10" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="3">
         <v>0</v>
@@ -10511,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -10522,16 +10549,16 @@
         <v>116</v>
       </c>
       <c r="C11" s="3">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -10540,13 +10567,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>1250</v>
+        <v>650</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -10555,13 +10582,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>1250</v>
+        <v>650</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P11" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
@@ -10570,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="S11" s="3">
-        <v>1250</v>
+        <v>650</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U11" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V11" s="3">
         <v>0</v>
@@ -10585,13 +10612,13 @@
         <v>0</v>
       </c>
       <c r="X11" s="3">
-        <v>1250</v>
+        <v>650</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z11" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="3">
         <v>0</v>
@@ -10600,13 +10627,13 @@
         <v>0</v>
       </c>
       <c r="AC11" s="7">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AE11" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="3">
         <v>0</v>
@@ -10615,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -10626,16 +10653,16 @@
         <v>117</v>
       </c>
       <c r="C12" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -10644,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -10659,13 +10686,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -10674,13 +10701,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U12" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -10689,13 +10716,13 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z12" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
@@ -10704,13 +10731,13 @@
         <v>0</v>
       </c>
       <c r="AC12" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AE12" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="3">
         <v>0</v>
@@ -10719,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -10730,16 +10757,16 @@
         <v>118</v>
       </c>
       <c r="C13" s="3">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -10748,13 +10775,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>1750</v>
+        <v>850</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -10763,13 +10790,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>1750</v>
+        <v>850</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P13" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="3">
         <v>0</v>
@@ -10778,13 +10805,13 @@
         <v>0</v>
       </c>
       <c r="S13" s="3">
-        <v>1750</v>
+        <v>850</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U13" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V13" s="3">
         <v>0</v>
@@ -10793,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="X13" s="3">
-        <v>1750</v>
+        <v>850</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z13" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="3">
         <v>0</v>
@@ -10808,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="AC13" s="7">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AD13" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AE13" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="3">
         <v>0</v>
@@ -10823,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="7">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -10834,16 +10861,16 @@
         <v>180</v>
       </c>
       <c r="C14" s="3">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -10852,13 +10879,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -10867,13 +10894,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -10882,13 +10909,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U14" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -10897,13 +10924,13 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z14" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -10912,13 +10939,13 @@
         <v>0</v>
       </c>
       <c r="AC14" s="7">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AE14" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="3">
         <v>0</v>
@@ -10927,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="7">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -10938,16 +10965,16 @@
         <v>181</v>
       </c>
       <c r="C15" s="3">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -10956,13 +10983,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -10971,13 +10998,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P15" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -10986,13 +11013,13 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U15" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -11001,13 +11028,13 @@
         <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z15" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -11016,23 +11043,995 @@
         <v>0</v>
       </c>
       <c r="AC15" s="7">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AE15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="3">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AF15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="7">
+      <c r="F16" s="3">
+        <v>31</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1250</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1250</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1250</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1250</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>75</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="3">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3">
+        <v>31</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1350</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1350</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1350</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1350</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>85</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="3">
+        <v>70</v>
+      </c>
+      <c r="D18" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>100</v>
       </c>
+      <c r="AD18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="3">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>110</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="3">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>31</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1750</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1750</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1750</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1750</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>125</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="3">
+        <v>85</v>
+      </c>
+      <c r="D21" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1850</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1850</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1850</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1850</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>135</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="3">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>150</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="3">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>170</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="3">
+        <v>100</v>
+      </c>
+      <c r="D24" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE766374-8B13-4841-8F92-ED28544700D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3187053-65B2-4CF5-923E-52F7D8BF8BBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1510,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>1300</v>
+        <v>1950</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>1300</v>
+        <v>1950</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <v>1300</v>
+        <v>1950</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <v>1300</v>
+        <v>1950</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="3">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="3">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="3">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="3">
-        <v>3500</v>
+        <v>5250</v>
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="3">
-        <v>3500</v>
+        <v>5250</v>
       </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>3500</v>
+        <v>5250</v>
       </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="3">
-        <v>3500</v>
+        <v>5250</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="3">
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="3">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="3">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="3">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="3">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -9489,7 +9489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C29C4A-870F-4C7C-A709-CB0DAB4C2E25}">
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Excel/chip.晶片.xlsx
+++ b/Excel/chip.晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3187053-65B2-4CF5-923E-52F7D8BF8BBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B41F6-FFD2-4A05-A9BC-14FA73EF1F61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1510,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDBCD0-AD2F-4B94-8618-5B0D318673A5}">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M126" sqref="M126"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
